--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD06A44-8212-43D0-B8F0-349D7F0A1755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC002460-7A90-49EB-AB6C-C36CFF0F3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>B01</t>
   </si>
@@ -121,13 +121,184 @@
   </si>
   <si>
     <t>365 AZUL</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>3252 Vino</t>
+  </si>
+  <si>
+    <t>3252 Blanco</t>
+  </si>
+  <si>
+    <t>3252 Rosado</t>
+  </si>
+  <si>
+    <t>PG759 Negro</t>
+  </si>
+  <si>
+    <t>9982-7 Camel</t>
+  </si>
+  <si>
+    <t>W-21 Negro</t>
+  </si>
+  <si>
+    <t>YJ072 Beige</t>
+  </si>
+  <si>
+    <t>YJ058 Negro</t>
+  </si>
+  <si>
+    <t>3280-2 Negro</t>
+  </si>
+  <si>
+    <t>7002-7 Plateado</t>
+  </si>
+  <si>
+    <t>988-30 Negro Azul</t>
+  </si>
+  <si>
+    <t>W30979 Negro</t>
+  </si>
+  <si>
+    <t>DD-13 Negro</t>
+  </si>
+  <si>
+    <t>8482-10 Negro</t>
+  </si>
+  <si>
+    <t>8482-12 Negro</t>
+  </si>
+  <si>
+    <t>YH-8 Rosado</t>
+  </si>
+  <si>
+    <t>YH-1 Negro</t>
+  </si>
+  <si>
+    <t>G1907 Negro</t>
+  </si>
+  <si>
+    <t>G1906 Negro</t>
+  </si>
+  <si>
+    <t>1212-3 Negro</t>
+  </si>
+  <si>
+    <t>1212-3 Camel</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B0011</t>
+  </si>
+  <si>
+    <t>G1918 Negro</t>
+  </si>
+  <si>
+    <t>YH-5 Negro</t>
+  </si>
+  <si>
+    <t>YH-9 Rosado</t>
+  </si>
+  <si>
+    <t>B0012</t>
+  </si>
+  <si>
+    <t>A9029 Champan</t>
+  </si>
+  <si>
+    <t>A35762-12</t>
+  </si>
+  <si>
+    <t>Apicor Dorado</t>
+  </si>
+  <si>
+    <t>2859 Blanco</t>
+  </si>
+  <si>
+    <t>A9005 Plateado</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>PG772 Beige</t>
+  </si>
+  <si>
+    <t>PG773-13 vino</t>
+  </si>
+  <si>
+    <t>PG752 Rojo</t>
+  </si>
+  <si>
+    <t>H511-1 Negro</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>PG2003 Negro</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>B023</t>
+  </si>
+  <si>
+    <t>A9001 Negro</t>
+  </si>
+  <si>
+    <t>A9001 Rojo</t>
+  </si>
+  <si>
+    <t>A89830 Azul</t>
+  </si>
+  <si>
+    <t>A89838 Rojo</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>A89830 Rojo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +326,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,25 +351,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -203,25 +366,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -231,27 +379,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -262,28 +397,24 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,19 +731,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
-  <dimension ref="A1:A120"/>
+  <dimension ref="A1:A460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="A317" sqref="A317:A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -626,63 +757,63 @@
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -696,61 +827,61 @@
       <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -764,65 +895,65 @@
       <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -836,61 +967,61 @@
       <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -904,71 +1035,71 @@
       <c r="A84" s="5"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="6" t="s">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -982,61 +1113,1298 @@
       <c r="A104" s="5"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="4"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+    </row>
+    <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="5"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="5"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="5"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="5"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="5"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="5"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="5"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="5"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="5"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="5"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="5"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="5"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="5"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="5"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="5"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="5"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="5"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="5"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="5"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="5"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="119">
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A457:A460"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A413:A416"/>
+    <mergeCell ref="A417:A420"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
     <mergeCell ref="A113:A116"/>
     <mergeCell ref="A117:A120"/>
@@ -1053,25 +2421,6 @@
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC002460-7A90-49EB-AB6C-C36CFF0F3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A13B3A-4F7A-42C1-AA8D-FA0A5EF1AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>B01</t>
   </si>
@@ -292,6 +292,171 @@
   </si>
   <si>
     <t>A89830 Rojo</t>
+  </si>
+  <si>
+    <t>19201-11 Negro</t>
+  </si>
+  <si>
+    <t>19201-11 Camel</t>
+  </si>
+  <si>
+    <t>PG523 Negro Azul</t>
+  </si>
+  <si>
+    <t>A-2 Negro</t>
+  </si>
+  <si>
+    <t>W-55 Negro</t>
+  </si>
+  <si>
+    <t>A-7 Negro</t>
+  </si>
+  <si>
+    <t>918 Negro Yellow</t>
+  </si>
+  <si>
+    <t>7360 Marron</t>
+  </si>
+  <si>
+    <t>7361 Rosado</t>
+  </si>
+  <si>
+    <t>7360 Rosado</t>
+  </si>
+  <si>
+    <t>7360 Gris</t>
+  </si>
+  <si>
+    <t>Rojo-Negro-Gris</t>
+  </si>
+  <si>
+    <t>PG203-1</t>
+  </si>
+  <si>
+    <t>PG270-1</t>
+  </si>
+  <si>
+    <t>PG215-6</t>
+  </si>
+  <si>
+    <t>730-3</t>
+  </si>
+  <si>
+    <t>PG272</t>
+  </si>
+  <si>
+    <t>HZ09 Rojo</t>
+  </si>
+  <si>
+    <t>B024</t>
+  </si>
+  <si>
+    <t>B025</t>
+  </si>
+  <si>
+    <t>B026</t>
+  </si>
+  <si>
+    <t>B027</t>
+  </si>
+  <si>
+    <t>B028</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>B031</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>B035</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>B038</t>
+  </si>
+  <si>
+    <t>B039</t>
+  </si>
+  <si>
+    <t>B040</t>
+  </si>
+  <si>
+    <t>B041</t>
+  </si>
+  <si>
+    <t>B042</t>
+  </si>
+  <si>
+    <t>B043</t>
+  </si>
+  <si>
+    <t>B044</t>
+  </si>
+  <si>
+    <t>B045</t>
+  </si>
+  <si>
+    <t>B046</t>
+  </si>
+  <si>
+    <t>B047</t>
+  </si>
+  <si>
+    <t>B048</t>
+  </si>
+  <si>
+    <t>2893-1 Azul</t>
+  </si>
+  <si>
+    <t>2891 Blanco</t>
+  </si>
+  <si>
+    <t>2892 Rosado</t>
+  </si>
+  <si>
+    <t>3082 Negro</t>
+  </si>
+  <si>
+    <t>918-3 Azul</t>
+  </si>
+  <si>
+    <t>W-2</t>
+  </si>
+  <si>
+    <t>A188</t>
+  </si>
+  <si>
+    <t>YS1904 Rojo</t>
+  </si>
+  <si>
+    <t>8507-A Negro</t>
+  </si>
+  <si>
+    <t>L14303 Ne-Ma</t>
+  </si>
+  <si>
+    <t>12363-9 bronw</t>
+  </si>
+  <si>
+    <t>HZ15 Rojo</t>
   </si>
 </sst>
 </file>
@@ -408,14 +573,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
-  <dimension ref="A1:A460"/>
+  <dimension ref="A1:A944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317:A320"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,18 +1548,18 @@
       <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
+      <c r="A182" s="8"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
+      <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -1457,18 +1622,18 @@
       <c r="A200" s="3"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
+      <c r="A202" s="8"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
+      <c r="A203" s="8"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6"/>
+      <c r="A204" s="8"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
@@ -1525,18 +1690,18 @@
       <c r="A220" s="3"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
+      <c r="A222" s="8"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
+      <c r="A223" s="8"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
+      <c r="A224" s="8"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
@@ -1581,20 +1746,20 @@
       <c r="A236" s="3"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
+      <c r="A238" s="7"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
+      <c r="A240" s="7"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
@@ -1881,7 +2046,9 @@
       <c r="A324" s="5"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3"/>
+      <c r="A325" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
@@ -1893,7 +2060,9 @@
       <c r="A328" s="3"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
+      <c r="A329" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
@@ -1905,7 +2074,9 @@
       <c r="A332" s="4"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3"/>
+      <c r="A333" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
@@ -1917,7 +2088,9 @@
       <c r="A336" s="3"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3"/>
+      <c r="A337" s="3">
+        <v>8375</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
@@ -1943,7 +2116,9 @@
       <c r="A344" s="5"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
+      <c r="A345" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
@@ -1955,7 +2130,9 @@
       <c r="A348" s="3"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3"/>
+      <c r="A349" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
@@ -1967,7 +2144,9 @@
       <c r="A352" s="4"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3"/>
+      <c r="A353" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
@@ -1979,7 +2158,9 @@
       <c r="A356" s="3"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3"/>
+      <c r="A357" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
@@ -2005,7 +2186,9 @@
       <c r="A364" s="5"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
+      <c r="A365" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
@@ -2017,7 +2200,9 @@
       <c r="A368" s="3"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="3"/>
+      <c r="A369" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
@@ -2067,7 +2252,9 @@
       <c r="A384" s="5"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3"/>
+      <c r="A385" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
@@ -2079,7 +2266,9 @@
       <c r="A388" s="3"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3"/>
+      <c r="A389" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
@@ -2091,7 +2280,9 @@
       <c r="A392" s="4"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
+      <c r="A393" s="3">
+        <v>1819</v>
+      </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
@@ -2103,7 +2294,9 @@
       <c r="A396" s="3"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3"/>
+      <c r="A397" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
@@ -2129,7 +2322,9 @@
       <c r="A404" s="5"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3"/>
+      <c r="A405" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
@@ -2141,7 +2336,9 @@
       <c r="A408" s="3"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="3"/>
+      <c r="A409" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
@@ -2153,7 +2350,9 @@
       <c r="A412" s="4"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3"/>
+      <c r="A413" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
@@ -2164,17 +2363,21 @@
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="3"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="3"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="3"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="3"/>
+    <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="7"/>
+    </row>
+    <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="7"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
@@ -2191,7 +2394,9 @@
       <c r="A424" s="5"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="3"/>
+      <c r="A425" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
@@ -2203,7 +2408,9 @@
       <c r="A428" s="3"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="3"/>
+      <c r="A429" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
@@ -2253,7 +2460,9 @@
       <c r="A444" s="5"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="3"/>
+      <c r="A445" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
@@ -2265,7 +2474,9 @@
       <c r="A448" s="3"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3"/>
+      <c r="A449" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
@@ -2277,7 +2488,9 @@
       <c r="A452" s="4"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3"/>
+      <c r="A453" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
@@ -2288,25 +2501,1544 @@
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="3"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="3"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="3"/>
+    <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="7"/>
+    </row>
+    <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="7"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="5"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="5"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="5"/>
+    </row>
+    <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="7"/>
+    </row>
+    <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="7"/>
+    </row>
+    <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="7"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="7"/>
+    </row>
+    <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="7"/>
+    </row>
+    <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="7"/>
+    </row>
+    <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="6"/>
+    </row>
+    <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="7"/>
+    </row>
+    <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="6"/>
+    </row>
+    <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="7"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="5"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="5"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="5"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="5"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="5"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="5"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="5"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="5"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="5"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="5"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="5"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="5"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="3"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="3"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="5"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="5"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="5"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="3"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="5"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="5"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="5"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="3"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="3"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="3"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="3"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="3"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="5"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="5"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="5"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="3"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="5"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="5"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="5"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="3"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="3"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="5"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="5"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="5"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="3"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="3"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="5"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="5"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="5"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="3"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="3"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="3"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="3"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="3"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="3"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="3"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="3"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="3"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="5"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="5"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="5"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="3"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="3"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="3"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="3"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="3"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="3"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="3"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="5"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="5"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="5"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="3"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="3"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="3"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="3"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="3"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="3"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="3"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="3"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="3"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="5"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="5"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="5"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="3"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="3"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="3"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="3"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="3"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="3"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="3"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="3"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="3"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="3"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="3"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="3"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="3"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="5"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="5"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="5"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="3"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="3"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="3"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="3"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="3"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="3"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="3"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="3"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="3"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="3"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="3"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="3"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="3"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="5"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="5"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="5"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="3"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="3"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="3"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="3"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="3"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="3"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="3"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="3"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="3"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="3"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="3"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="3"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="3"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="5"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="5"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="5"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="3"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="3"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="3"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="3"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="3"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="3"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="3"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="3"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="3"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="3"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="3"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="3"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="3"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="5"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="5"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="5"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="3"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="3"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="3"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="3"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="3"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="4"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="4"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="4"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="3"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="3"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="3"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="3"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="3"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="3"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="3"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="3"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="5"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="5"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="5"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="3"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="3"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="3"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="3"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="3"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="4"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="4"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="4"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="3"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="3"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="3"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="3"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="3"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="3"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="3"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="3"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="5"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="5"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="5"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="3"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="3"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="3"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="3"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="3"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="4"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="4"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="4"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="3"/>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="3"/>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="3"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="3"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="3"/>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="3"/>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="3"/>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="3"/>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="5"/>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="5"/>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="5"/>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="3"/>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="3"/>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="3"/>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="3"/>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="3"/>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="4"/>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="4"/>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="4"/>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="3"/>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="3"/>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="3"/>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="3"/>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="3"/>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="3"/>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="3"/>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="3"/>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="5"/>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="5"/>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="5"/>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="3"/>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="3"/>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="3"/>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="3"/>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="3"/>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="4"/>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="4"/>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="4"/>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="3"/>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="3"/>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="3"/>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="3"/>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="3"/>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="3"/>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="3"/>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="3"/>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="5"/>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="5"/>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="5"/>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="3"/>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="3"/>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="3"/>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="3"/>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="3"/>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="4"/>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="4"/>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="4"/>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="3"/>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="3"/>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="3"/>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="3"/>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="3"/>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="3"/>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="3"/>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="3"/>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="5"/>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="5"/>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="5"/>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="3"/>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="3"/>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="3"/>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="3"/>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="4"/>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="4"/>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="4"/>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="3"/>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="3"/>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="3"/>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="3"/>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="3"/>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="3"/>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="3"/>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="3"/>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="5"/>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="5"/>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="246">
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
     <mergeCell ref="A441:A444"/>
     <mergeCell ref="A445:A448"/>
     <mergeCell ref="A449:A452"/>
     <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A457:A460"/>
     <mergeCell ref="A421:A424"/>
     <mergeCell ref="A425:A428"/>
     <mergeCell ref="A429:A432"/>
@@ -2316,7 +4048,6 @@
     <mergeCell ref="A405:A408"/>
     <mergeCell ref="A409:A412"/>
     <mergeCell ref="A413:A416"/>
-    <mergeCell ref="A417:A420"/>
     <mergeCell ref="A381:A384"/>
     <mergeCell ref="A385:A388"/>
     <mergeCell ref="A389:A392"/>
@@ -2353,7 +4084,6 @@
     <mergeCell ref="A265:A268"/>
     <mergeCell ref="A269:A272"/>
     <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A233:A236"/>
     <mergeCell ref="A241:A244"/>
     <mergeCell ref="A245:A248"/>
     <mergeCell ref="A249:A252"/>
@@ -2370,10 +4100,6 @@
     <mergeCell ref="A209:A212"/>
     <mergeCell ref="A213:A216"/>
     <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
     <mergeCell ref="A193:A196"/>
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A187:A188"/>
@@ -2382,6 +4108,7 @@
     <mergeCell ref="A145:A148"/>
     <mergeCell ref="A149:A152"/>
     <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="A125:A128"/>
@@ -2406,6 +4133,11 @@
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
     <mergeCell ref="A113:A116"/>
     <mergeCell ref="A117:A120"/>
     <mergeCell ref="A57:A58"/>
@@ -2421,6 +4153,132 @@
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A645:A648"/>
+    <mergeCell ref="A649:A652"/>
+    <mergeCell ref="A653:A656"/>
+    <mergeCell ref="A657:A660"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
+    <mergeCell ref="A929:A932"/>
+    <mergeCell ref="A933:A936"/>
+    <mergeCell ref="A937:A940"/>
+    <mergeCell ref="A941:A944"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="A471:A472"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="A477:A478"/>
+    <mergeCell ref="A479:A480"/>
+    <mergeCell ref="A893:A896"/>
+    <mergeCell ref="A897:A900"/>
+    <mergeCell ref="A901:A904"/>
+    <mergeCell ref="A905:A908"/>
+    <mergeCell ref="A909:A912"/>
+    <mergeCell ref="A913:A916"/>
+    <mergeCell ref="A917:A920"/>
+    <mergeCell ref="A921:A924"/>
+    <mergeCell ref="A925:A928"/>
+    <mergeCell ref="A857:A860"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A13B3A-4F7A-42C1-AA8D-FA0A5EF1AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B771B-6ED4-4D47-B5B2-29D41379795D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>B01</t>
   </si>
@@ -457,6 +457,48 @@
   </si>
   <si>
     <t>HZ15 Rojo</t>
+  </si>
+  <si>
+    <t>PG976-1 Negro</t>
+  </si>
+  <si>
+    <t>PG976-9 Gris</t>
+  </si>
+  <si>
+    <t>PG883-3 Azul</t>
+  </si>
+  <si>
+    <t>PG882-1 Negro</t>
+  </si>
+  <si>
+    <t>PG882-6 Rosado</t>
+  </si>
+  <si>
+    <t>PG985-6 Rosado</t>
+  </si>
+  <si>
+    <t>PG963-1 Negro</t>
+  </si>
+  <si>
+    <t>PG517-9 Gris</t>
+  </si>
+  <si>
+    <t>PG516-16 Plata</t>
+  </si>
+  <si>
+    <t>PG985-1 Negro</t>
+  </si>
+  <si>
+    <t>TX2667</t>
+  </si>
+  <si>
+    <t>Negro Beige Ama</t>
+  </si>
+  <si>
+    <t>YS1810</t>
+  </si>
+  <si>
+    <t>Rojo Beige</t>
   </si>
 </sst>
 </file>
@@ -499,12 +541,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -560,10 +608,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,17 +628,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
-  <dimension ref="A1:A944"/>
+  <dimension ref="A1:B944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="A561" sqref="A561:A564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,60 +971,60 @@
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -992,58 +1041,58 @@
       <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -1060,62 +1109,62 @@
       <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -1132,58 +1181,58 @@
       <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="7"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -1200,68 +1249,68 @@
       <c r="A84" s="5"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -1278,58 +1327,58 @@
       <c r="A104" s="5"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
@@ -1346,60 +1395,60 @@
       <c r="A124" s="5"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="A130" s="7"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
+      <c r="A131" s="7"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
+      <c r="A132" s="7"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
@@ -1416,56 +1465,56 @@
       <c r="A144" s="5"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
+      <c r="A150" s="7"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
+      <c r="A151" s="7"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
+      <c r="A152" s="7"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="6"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A154" s="6"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="6"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+      <c r="A156" s="6"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
+      <c r="A157" s="6"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="6"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="6"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
+      <c r="A160" s="6"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
@@ -1562,64 +1611,64 @@
       <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+      <c r="A186" s="6"/>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
+      <c r="A188" s="6"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
+      <c r="A190" s="7"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
+      <c r="A191" s="7"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
+      <c r="A192" s="7"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
+      <c r="A194" s="6"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
+      <c r="A195" s="6"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
+      <c r="A196" s="6"/>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
+      <c r="A198" s="6"/>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
+      <c r="A200" s="6"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
@@ -1636,58 +1685,58 @@
       <c r="A204" s="8"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
+      <c r="A206" s="6"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
+      <c r="A207" s="6"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
+      <c r="A208" s="6"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
+      <c r="A210" s="7"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
+      <c r="A211" s="7"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
+      <c r="A212" s="7"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
+      <c r="A214" s="6"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
+      <c r="A215" s="6"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
+      <c r="A216" s="6"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
+      <c r="A217" s="6"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
+      <c r="A218" s="6"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
+      <c r="A219" s="6"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
+      <c r="A220" s="6"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
@@ -1704,62 +1753,62 @@
       <c r="A224" s="8"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
+      <c r="A226" s="6"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
+      <c r="A227" s="6"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
+      <c r="A228" s="6"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
+      <c r="A230" s="7"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
+      <c r="A231" s="7"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
+      <c r="A232" s="7"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
+      <c r="A234" s="6"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
+      <c r="A235" s="6"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
+      <c r="A236" s="6"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
+      <c r="A238" s="4"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+      <c r="A240" s="4"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
@@ -1776,60 +1825,60 @@
       <c r="A244" s="5"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
+      <c r="A246" s="6"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
+      <c r="A247" s="6"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
+      <c r="A248" s="6"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
+      <c r="A250" s="7"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
+      <c r="A251" s="7"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
+      <c r="A252" s="7"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
+      <c r="A254" s="6"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+      <c r="A255" s="6"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
+      <c r="A256" s="6"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
+      <c r="A258" s="6"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
+      <c r="A259" s="6"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
+      <c r="A260" s="6"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
@@ -1846,54 +1895,54 @@
       <c r="A264" s="5"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
+      <c r="A266" s="6"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
+      <c r="A267" s="6"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
+      <c r="A268" s="6"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
+      <c r="A269" s="6"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
+      <c r="A270" s="7"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
+      <c r="A271" s="7"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
+      <c r="A272" s="7"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
+      <c r="A273" s="6"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
+      <c r="A274" s="6"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
+      <c r="A275" s="6"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
+      <c r="A276" s="6"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
+      <c r="A277" s="6"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
+      <c r="A278" s="6"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
+      <c r="A279" s="6"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
+      <c r="A280" s="6"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
@@ -1910,58 +1959,58 @@
       <c r="A284" s="5"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
+      <c r="A286" s="6"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
+      <c r="A287" s="6"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
+      <c r="A288" s="6"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
+      <c r="A290" s="7"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
+      <c r="A291" s="7"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
+      <c r="A292" s="7"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3"/>
+      <c r="A294" s="6"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
+      <c r="A295" s="6"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
+      <c r="A296" s="6"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
+      <c r="A297" s="6"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3"/>
+      <c r="A298" s="6"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
+      <c r="A299" s="6"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
+      <c r="A300" s="6"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
@@ -1978,58 +2027,58 @@
       <c r="A304" s="5"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
+      <c r="A306" s="6"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3"/>
+      <c r="A307" s="6"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3"/>
+      <c r="A308" s="6"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
+      <c r="A310" s="7"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="4"/>
+      <c r="A311" s="7"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="4"/>
+      <c r="A312" s="7"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3"/>
+      <c r="A314" s="6"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
+      <c r="A315" s="6"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3"/>
+      <c r="A316" s="6"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
+      <c r="A317" s="6"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3"/>
+      <c r="A318" s="6"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3"/>
+      <c r="A319" s="6"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3"/>
+      <c r="A320" s="6"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
@@ -2046,60 +2095,60 @@
       <c r="A324" s="5"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3"/>
+      <c r="A326" s="6"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3"/>
+      <c r="A327" s="6"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3"/>
+      <c r="A328" s="6"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
+      <c r="A330" s="7"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
+      <c r="A331" s="7"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="4"/>
+      <c r="A332" s="7"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3"/>
+      <c r="A334" s="6"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
+      <c r="A335" s="6"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3"/>
+      <c r="A336" s="6"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
+      <c r="A337" s="6">
         <v>8375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3"/>
+      <c r="A338" s="6"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3"/>
+      <c r="A339" s="6"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3"/>
+      <c r="A340" s="6"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
@@ -2116,60 +2165,60 @@
       <c r="A344" s="5"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3"/>
+      <c r="A346" s="6"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3"/>
+      <c r="A347" s="6"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3"/>
+      <c r="A348" s="6"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="4"/>
+      <c r="A350" s="7"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="4"/>
+      <c r="A351" s="7"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="4"/>
+      <c r="A352" s="7"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3"/>
+      <c r="A354" s="6"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
+      <c r="A355" s="6"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3"/>
+      <c r="A356" s="6"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3"/>
+      <c r="A358" s="6"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3"/>
+      <c r="A359" s="6"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="3"/>
+      <c r="A360" s="6"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
@@ -2186,56 +2235,56 @@
       <c r="A364" s="5"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="3"/>
+      <c r="A366" s="6"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="3"/>
+      <c r="A367" s="6"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="3"/>
+      <c r="A368" s="6"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="4"/>
+      <c r="A370" s="7"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="4"/>
+      <c r="A371" s="7"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="4"/>
+      <c r="A372" s="7"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="3"/>
+      <c r="A373" s="6"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="3"/>
+      <c r="A374" s="6"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
+      <c r="A375" s="6"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="3"/>
+      <c r="A376" s="6"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="3"/>
+      <c r="A377" s="6"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="3"/>
+      <c r="A378" s="6"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="3"/>
+      <c r="A379" s="6"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="3"/>
+      <c r="A380" s="6"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
@@ -2252,60 +2301,60 @@
       <c r="A384" s="5"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="3"/>
+      <c r="A386" s="6"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="3"/>
+      <c r="A387" s="6"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="3"/>
+      <c r="A388" s="6"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="4"/>
+      <c r="A390" s="7"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="4"/>
+      <c r="A391" s="7"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="4"/>
+      <c r="A392" s="7"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
+      <c r="A393" s="6">
         <v>1819</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3"/>
+      <c r="A394" s="6"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3"/>
+      <c r="A395" s="6"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="3"/>
+      <c r="A396" s="6"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="3"/>
+      <c r="A398" s="6"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="3"/>
+      <c r="A399" s="6"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="3"/>
+      <c r="A400" s="6"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
@@ -2322,62 +2371,62 @@
       <c r="A404" s="5"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="3"/>
+      <c r="A406" s="6"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="3"/>
+      <c r="A407" s="6"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="3"/>
+      <c r="A408" s="6"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="4"/>
+      <c r="A410" s="7"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="4"/>
+      <c r="A411" s="7"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="4"/>
+      <c r="A412" s="7"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="3"/>
+      <c r="A414" s="6"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
+      <c r="A415" s="6"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="3"/>
+      <c r="A416" s="6"/>
     </row>
     <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
+      <c r="A417" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="7"/>
+      <c r="A418" s="4"/>
     </row>
     <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="6" t="s">
+      <c r="A419" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="7"/>
+      <c r="A420" s="4"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
@@ -2394,56 +2443,56 @@
       <c r="A424" s="5"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="3"/>
+      <c r="A426" s="6"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="3"/>
+      <c r="A427" s="6"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="3"/>
+      <c r="A428" s="6"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="4"/>
+      <c r="A430" s="7"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="4"/>
+      <c r="A431" s="7"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="4"/>
+      <c r="A432" s="7"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="3"/>
+      <c r="A433" s="6"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="3"/>
+      <c r="A434" s="6"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="3"/>
+      <c r="A435" s="6"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="3"/>
+      <c r="A436" s="6"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="3"/>
+      <c r="A437" s="6"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="3"/>
+      <c r="A438" s="6"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="3"/>
+      <c r="A439" s="6"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="3"/>
+      <c r="A440" s="6"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
@@ -2460,62 +2509,62 @@
       <c r="A444" s="5"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="3"/>
+      <c r="A446" s="6"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="3"/>
+      <c r="A447" s="6"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="3"/>
+      <c r="A448" s="6"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3" t="s">
+      <c r="A449" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="4"/>
+      <c r="A450" s="7"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
+      <c r="A451" s="7"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="4"/>
+      <c r="A452" s="7"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3" t="s">
+      <c r="A453" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="3"/>
+      <c r="A454" s="6"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3"/>
+      <c r="A455" s="6"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="3"/>
+      <c r="A456" s="6"/>
     </row>
     <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="6" t="s">
+      <c r="A457" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="7"/>
+      <c r="A458" s="4"/>
     </row>
     <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="6" t="s">
+      <c r="A459" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="7"/>
+      <c r="A460" s="4"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
@@ -2532,126 +2581,135 @@
       <c r="A464" s="5"/>
     </row>
     <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="6" t="s">
+      <c r="A465" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="7"/>
+      <c r="A466" s="4"/>
     </row>
     <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="6" t="s">
+      <c r="A467" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="7"/>
+      <c r="A468" s="4"/>
     </row>
     <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="6" t="s">
+      <c r="A469" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="7"/>
+      <c r="A470" s="4"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="6" t="s">
+      <c r="A471" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="7"/>
+      <c r="A472" s="4"/>
     </row>
     <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="6" t="s">
+      <c r="A473" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="7"/>
+      <c r="A474" s="4"/>
     </row>
     <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="6" t="s">
+      <c r="A475" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="7"/>
+      <c r="A476" s="4"/>
     </row>
     <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="6"/>
+      <c r="A477" s="3"/>
     </row>
     <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="7"/>
+      <c r="A478" s="4"/>
     </row>
     <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="6"/>
+      <c r="A479" s="3"/>
     </row>
     <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="7"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481" s="9"/>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="5"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="5"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="5"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="3"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="3"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="4"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="4"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="4"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="3"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="3"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="3"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="3"/>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="6"/>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="6"/>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="6"/>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="7"/>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="7"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="7"/>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="6"/>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="6"/>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="6"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="3"/>
+      <c r="A497" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="3"/>
+      <c r="A498" s="6"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="3"/>
+      <c r="A499" s="6"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="3"/>
+      <c r="A500" s="6"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
@@ -2668,52 +2726,58 @@
       <c r="A504" s="5"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="3"/>
+      <c r="A505" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="3"/>
+      <c r="A506" s="6"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="3"/>
+      <c r="A507" s="6"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="3"/>
+      <c r="A508" s="6"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="3"/>
+      <c r="A509" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="4"/>
+      <c r="A510" s="7"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="4"/>
+      <c r="A511" s="7"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="4"/>
+      <c r="A512" s="7"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="3"/>
+      <c r="A513" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3"/>
+      <c r="A514" s="6"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="3"/>
+      <c r="A515" s="6"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="3"/>
+      <c r="A516" s="6"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3"/>
+      <c r="A517" s="6"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="3"/>
+      <c r="A518" s="6"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="3"/>
+      <c r="A519" s="6"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="3"/>
+      <c r="A520" s="6"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
@@ -2730,52 +2794,58 @@
       <c r="A524" s="5"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="3"/>
+      <c r="A525" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="3"/>
+      <c r="A526" s="6"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="3"/>
+      <c r="A527" s="6"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="3"/>
+      <c r="A528" s="6"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="3"/>
+      <c r="A529" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="4"/>
+      <c r="A530" s="7"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="4"/>
+      <c r="A531" s="7"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="4"/>
+      <c r="A532" s="7"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="3"/>
+      <c r="A533" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="3"/>
+      <c r="A534" s="6"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="3"/>
+      <c r="A535" s="6"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="3"/>
+      <c r="A536" s="6"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="3"/>
+      <c r="A537" s="6"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="3"/>
+      <c r="A538" s="6"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="3"/>
+      <c r="A539" s="6"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="3"/>
+      <c r="A540" s="6"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
@@ -2792,52 +2862,60 @@
       <c r="A544" s="5"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="3"/>
+      <c r="A545" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="3"/>
+      <c r="A546" s="6"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="3"/>
+      <c r="A547" s="6"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="3"/>
+      <c r="A548" s="6"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="3"/>
+      <c r="A549" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="4"/>
+      <c r="A550" s="7"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="4"/>
+      <c r="A551" s="7"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="4"/>
+      <c r="A552" s="7"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="3"/>
+      <c r="A553" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="3"/>
+      <c r="A554" s="6"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="3"/>
+      <c r="A555" s="6"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="3"/>
+      <c r="A556" s="6"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="3"/>
+      <c r="A557" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="3"/>
+      <c r="A558" s="6"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="3"/>
+      <c r="A559" s="6"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="3"/>
+      <c r="A560" s="6"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
@@ -2854,52 +2932,52 @@
       <c r="A564" s="5"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="3"/>
+      <c r="A565" s="6"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="3"/>
+      <c r="A566" s="6"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="3"/>
+      <c r="A567" s="6"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="3"/>
+      <c r="A568" s="6"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="3"/>
+      <c r="A569" s="6"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="4"/>
+      <c r="A570" s="7"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="4"/>
+      <c r="A571" s="7"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="4"/>
+      <c r="A572" s="7"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="3"/>
+      <c r="A573" s="6"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="3"/>
+      <c r="A574" s="6"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="3"/>
+      <c r="A575" s="6"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="3"/>
+      <c r="A576" s="6"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="3"/>
+      <c r="A577" s="6"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="3"/>
+      <c r="A578" s="6"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="3"/>
+      <c r="A579" s="6"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="3"/>
+      <c r="A580" s="6"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
@@ -2916,52 +2994,52 @@
       <c r="A584" s="5"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="3"/>
+      <c r="A585" s="6"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="3"/>
+      <c r="A586" s="6"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="3"/>
+      <c r="A587" s="6"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="3"/>
+      <c r="A588" s="6"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="3"/>
+      <c r="A589" s="6"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="4"/>
+      <c r="A590" s="7"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="4"/>
+      <c r="A591" s="7"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="4"/>
+      <c r="A592" s="7"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="3"/>
+      <c r="A593" s="6"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="3"/>
+      <c r="A594" s="6"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="3"/>
+      <c r="A595" s="6"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="3"/>
+      <c r="A596" s="6"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="3"/>
+      <c r="A597" s="6"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="3"/>
+      <c r="A598" s="6"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="3"/>
+      <c r="A599" s="6"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="3"/>
+      <c r="A600" s="6"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
@@ -2978,52 +3056,52 @@
       <c r="A604" s="5"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="3"/>
+      <c r="A605" s="6"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="3"/>
+      <c r="A606" s="6"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="3"/>
+      <c r="A607" s="6"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="3"/>
+      <c r="A608" s="6"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="3"/>
+      <c r="A609" s="6"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="4"/>
+      <c r="A610" s="7"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="4"/>
+      <c r="A611" s="7"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="4"/>
+      <c r="A612" s="7"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="3"/>
+      <c r="A613" s="6"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="3"/>
+      <c r="A614" s="6"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="3"/>
+      <c r="A615" s="6"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="3"/>
+      <c r="A616" s="6"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="3"/>
+      <c r="A617" s="6"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="3"/>
+      <c r="A618" s="6"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="3"/>
+      <c r="A619" s="6"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="3"/>
+      <c r="A620" s="6"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
@@ -3040,52 +3118,52 @@
       <c r="A624" s="5"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="3"/>
+      <c r="A625" s="6"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="3"/>
+      <c r="A626" s="6"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="3"/>
+      <c r="A627" s="6"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="3"/>
+      <c r="A628" s="6"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="3"/>
+      <c r="A629" s="6"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="4"/>
+      <c r="A630" s="7"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="4"/>
+      <c r="A631" s="7"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="4"/>
+      <c r="A632" s="7"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="3"/>
+      <c r="A633" s="6"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="3"/>
+      <c r="A634" s="6"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="3"/>
+      <c r="A635" s="6"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="3"/>
+      <c r="A636" s="6"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="3"/>
+      <c r="A637" s="6"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="3"/>
+      <c r="A638" s="6"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="3"/>
+      <c r="A639" s="6"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="3"/>
+      <c r="A640" s="6"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
@@ -3102,52 +3180,52 @@
       <c r="A644" s="5"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="3"/>
+      <c r="A645" s="6"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="3"/>
+      <c r="A646" s="6"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="3"/>
+      <c r="A647" s="6"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="3"/>
+      <c r="A648" s="6"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="3"/>
+      <c r="A649" s="6"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="4"/>
+      <c r="A650" s="7"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="4"/>
+      <c r="A651" s="7"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="4"/>
+      <c r="A652" s="7"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="3"/>
+      <c r="A653" s="6"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="3"/>
+      <c r="A654" s="6"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="3"/>
+      <c r="A655" s="6"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="3"/>
+      <c r="A656" s="6"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="3"/>
+      <c r="A657" s="6"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="3"/>
+      <c r="A658" s="6"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="3"/>
+      <c r="A659" s="6"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="3"/>
+      <c r="A660" s="6"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
@@ -3164,52 +3242,52 @@
       <c r="A664" s="5"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="3"/>
+      <c r="A665" s="6"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="3"/>
+      <c r="A666" s="6"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="3"/>
+      <c r="A667" s="6"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="3"/>
+      <c r="A668" s="6"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="3"/>
+      <c r="A669" s="6"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="4"/>
+      <c r="A670" s="7"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="4"/>
+      <c r="A671" s="7"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="4"/>
+      <c r="A672" s="7"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="3"/>
+      <c r="A673" s="6"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="3"/>
+      <c r="A674" s="6"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="3"/>
+      <c r="A675" s="6"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="3"/>
+      <c r="A676" s="6"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="3"/>
+      <c r="A677" s="6"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="3"/>
+      <c r="A678" s="6"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="3"/>
+      <c r="A679" s="6"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="3"/>
+      <c r="A680" s="6"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
@@ -3226,52 +3304,52 @@
       <c r="A684" s="5"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="3"/>
+      <c r="A685" s="6"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="3"/>
+      <c r="A686" s="6"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="3"/>
+      <c r="A687" s="6"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="3"/>
+      <c r="A688" s="6"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="3"/>
+      <c r="A689" s="6"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="4"/>
+      <c r="A690" s="7"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="4"/>
+      <c r="A691" s="7"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="4"/>
+      <c r="A692" s="7"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="3"/>
+      <c r="A693" s="6"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="3"/>
+      <c r="A694" s="6"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="3"/>
+      <c r="A695" s="6"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="3"/>
+      <c r="A696" s="6"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="3"/>
+      <c r="A697" s="6"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="3"/>
+      <c r="A698" s="6"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="3"/>
+      <c r="A699" s="6"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="3"/>
+      <c r="A700" s="6"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
@@ -3288,52 +3366,52 @@
       <c r="A704" s="5"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="3"/>
+      <c r="A705" s="6"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="3"/>
+      <c r="A706" s="6"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="3"/>
+      <c r="A707" s="6"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="3"/>
+      <c r="A708" s="6"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="3"/>
+      <c r="A709" s="6"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="4"/>
+      <c r="A710" s="7"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="4"/>
+      <c r="A711" s="7"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="4"/>
+      <c r="A712" s="7"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="3"/>
+      <c r="A713" s="6"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="3"/>
+      <c r="A714" s="6"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="3"/>
+      <c r="A715" s="6"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="3"/>
+      <c r="A716" s="6"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="3"/>
+      <c r="A717" s="6"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="3"/>
+      <c r="A718" s="6"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="3"/>
+      <c r="A719" s="6"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="3"/>
+      <c r="A720" s="6"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
@@ -3350,52 +3428,52 @@
       <c r="A724" s="5"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="3"/>
+      <c r="A725" s="6"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="3"/>
+      <c r="A726" s="6"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="3"/>
+      <c r="A727" s="6"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="3"/>
+      <c r="A728" s="6"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="3"/>
+      <c r="A729" s="6"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="4"/>
+      <c r="A730" s="7"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="4"/>
+      <c r="A731" s="7"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="4"/>
+      <c r="A732" s="7"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="3"/>
+      <c r="A733" s="6"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="3"/>
+      <c r="A734" s="6"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="3"/>
+      <c r="A735" s="6"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="3"/>
+      <c r="A736" s="6"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="3"/>
+      <c r="A737" s="6"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="3"/>
+      <c r="A738" s="6"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="3"/>
+      <c r="A739" s="6"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="3"/>
+      <c r="A740" s="6"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
@@ -3412,52 +3490,52 @@
       <c r="A744" s="5"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="3"/>
+      <c r="A745" s="6"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="3"/>
+      <c r="A746" s="6"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="3"/>
+      <c r="A747" s="6"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="3"/>
+      <c r="A748" s="6"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="3"/>
+      <c r="A749" s="6"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="4"/>
+      <c r="A750" s="7"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="4"/>
+      <c r="A751" s="7"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="4"/>
+      <c r="A752" s="7"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="3"/>
+      <c r="A753" s="6"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="3"/>
+      <c r="A754" s="6"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="3"/>
+      <c r="A755" s="6"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="3"/>
+      <c r="A756" s="6"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="3"/>
+      <c r="A757" s="6"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="3"/>
+      <c r="A758" s="6"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="3"/>
+      <c r="A759" s="6"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="3"/>
+      <c r="A760" s="6"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
@@ -3474,52 +3552,52 @@
       <c r="A764" s="5"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="3"/>
+      <c r="A765" s="6"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="3"/>
+      <c r="A766" s="6"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="3"/>
+      <c r="A767" s="6"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="3"/>
+      <c r="A768" s="6"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="3"/>
+      <c r="A769" s="6"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="4"/>
+      <c r="A770" s="7"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="4"/>
+      <c r="A771" s="7"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="4"/>
+      <c r="A772" s="7"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="3"/>
+      <c r="A773" s="6"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="3"/>
+      <c r="A774" s="6"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="3"/>
+      <c r="A775" s="6"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="3"/>
+      <c r="A776" s="6"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="3"/>
+      <c r="A777" s="6"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="3"/>
+      <c r="A778" s="6"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="3"/>
+      <c r="A779" s="6"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="3"/>
+      <c r="A780" s="6"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
@@ -3536,52 +3614,52 @@
       <c r="A784" s="5"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="3"/>
+      <c r="A785" s="6"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="3"/>
+      <c r="A786" s="6"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="3"/>
+      <c r="A787" s="6"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="3"/>
+      <c r="A788" s="6"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="3"/>
+      <c r="A789" s="6"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="4"/>
+      <c r="A790" s="7"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="4"/>
+      <c r="A791" s="7"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="4"/>
+      <c r="A792" s="7"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="3"/>
+      <c r="A793" s="6"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="3"/>
+      <c r="A794" s="6"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="3"/>
+      <c r="A795" s="6"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="3"/>
+      <c r="A796" s="6"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="3"/>
+      <c r="A797" s="6"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="3"/>
+      <c r="A798" s="6"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="3"/>
+      <c r="A799" s="6"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="3"/>
+      <c r="A800" s="6"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
@@ -3598,52 +3676,52 @@
       <c r="A804" s="5"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="3"/>
+      <c r="A805" s="6"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="3"/>
+      <c r="A806" s="6"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="3"/>
+      <c r="A807" s="6"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="3"/>
+      <c r="A808" s="6"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="3"/>
+      <c r="A809" s="6"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="4"/>
+      <c r="A810" s="7"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="4"/>
+      <c r="A811" s="7"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="4"/>
+      <c r="A812" s="7"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="3"/>
+      <c r="A813" s="6"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="3"/>
+      <c r="A814" s="6"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="3"/>
+      <c r="A815" s="6"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="3"/>
+      <c r="A816" s="6"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="3"/>
+      <c r="A817" s="6"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="3"/>
+      <c r="A818" s="6"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="3"/>
+      <c r="A819" s="6"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="3"/>
+      <c r="A820" s="6"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
@@ -3660,52 +3738,52 @@
       <c r="A824" s="5"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="3"/>
+      <c r="A825" s="6"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="3"/>
+      <c r="A826" s="6"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="3"/>
+      <c r="A827" s="6"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="3"/>
+      <c r="A828" s="6"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="3"/>
+      <c r="A829" s="6"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="4"/>
+      <c r="A830" s="7"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="4"/>
+      <c r="A831" s="7"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="4"/>
+      <c r="A832" s="7"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="3"/>
+      <c r="A833" s="6"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="3"/>
+      <c r="A834" s="6"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="3"/>
+      <c r="A835" s="6"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="3"/>
+      <c r="A836" s="6"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="3"/>
+      <c r="A837" s="6"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="3"/>
+      <c r="A838" s="6"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="3"/>
+      <c r="A839" s="6"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="3"/>
+      <c r="A840" s="6"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
@@ -3722,52 +3800,52 @@
       <c r="A844" s="5"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="3"/>
+      <c r="A845" s="6"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="3"/>
+      <c r="A846" s="6"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="3"/>
+      <c r="A847" s="6"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="3"/>
+      <c r="A848" s="6"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="3"/>
+      <c r="A849" s="6"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="4"/>
+      <c r="A850" s="7"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="4"/>
+      <c r="A851" s="7"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="4"/>
+      <c r="A852" s="7"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="3"/>
+      <c r="A853" s="6"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="3"/>
+      <c r="A854" s="6"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="3"/>
+      <c r="A855" s="6"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="3"/>
+      <c r="A856" s="6"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="3"/>
+      <c r="A857" s="6"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="3"/>
+      <c r="A858" s="6"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="3"/>
+      <c r="A859" s="6"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="3"/>
+      <c r="A860" s="6"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
@@ -3784,52 +3862,52 @@
       <c r="A864" s="5"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="3"/>
+      <c r="A865" s="6"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="3"/>
+      <c r="A866" s="6"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="3"/>
+      <c r="A867" s="6"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="3"/>
+      <c r="A868" s="6"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="3"/>
+      <c r="A869" s="6"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="4"/>
+      <c r="A870" s="7"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="4"/>
+      <c r="A871" s="7"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="4"/>
+      <c r="A872" s="7"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="3"/>
+      <c r="A873" s="6"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="3"/>
+      <c r="A874" s="6"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="3"/>
+      <c r="A875" s="6"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="3"/>
+      <c r="A876" s="6"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="3"/>
+      <c r="A877" s="6"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="3"/>
+      <c r="A878" s="6"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="3"/>
+      <c r="A879" s="6"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="3"/>
+      <c r="A880" s="6"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
@@ -3846,52 +3924,52 @@
       <c r="A884" s="5"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="3"/>
+      <c r="A885" s="6"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="3"/>
+      <c r="A886" s="6"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="3"/>
+      <c r="A887" s="6"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="3"/>
+      <c r="A888" s="6"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="3"/>
+      <c r="A889" s="6"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="4"/>
+      <c r="A890" s="7"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="4"/>
+      <c r="A891" s="7"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="4"/>
+      <c r="A892" s="7"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="3"/>
+      <c r="A893" s="6"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="3"/>
+      <c r="A894" s="6"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="3"/>
+      <c r="A895" s="6"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="3"/>
+      <c r="A896" s="6"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="3"/>
+      <c r="A897" s="6"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="3"/>
+      <c r="A898" s="6"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="3"/>
+      <c r="A899" s="6"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="3"/>
+      <c r="A900" s="6"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
@@ -3908,52 +3986,52 @@
       <c r="A904" s="5"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="3"/>
+      <c r="A905" s="6"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="3"/>
+      <c r="A906" s="6"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="3"/>
+      <c r="A907" s="6"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="3"/>
+      <c r="A908" s="6"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="3"/>
+      <c r="A909" s="6"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="4"/>
+      <c r="A910" s="7"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="4"/>
+      <c r="A911" s="7"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="4"/>
+      <c r="A912" s="7"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="3"/>
+      <c r="A913" s="6"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="3"/>
+      <c r="A914" s="6"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="3"/>
+      <c r="A915" s="6"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="3"/>
+      <c r="A916" s="6"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="3"/>
+      <c r="A917" s="6"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="3"/>
+      <c r="A918" s="6"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="3"/>
+      <c r="A919" s="6"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="3"/>
+      <c r="A920" s="6"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
@@ -3970,52 +4048,52 @@
       <c r="A924" s="5"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="3"/>
+      <c r="A925" s="6"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="3"/>
+      <c r="A926" s="6"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="3"/>
+      <c r="A927" s="6"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="3"/>
+      <c r="A928" s="6"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="3"/>
+      <c r="A929" s="6"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="4"/>
+      <c r="A930" s="7"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="4"/>
+      <c r="A931" s="7"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="4"/>
+      <c r="A932" s="7"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="3"/>
+      <c r="A933" s="6"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="3"/>
+      <c r="A934" s="6"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="3"/>
+      <c r="A935" s="6"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="3"/>
+      <c r="A936" s="6"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="3"/>
+      <c r="A937" s="6"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="3"/>
+      <c r="A938" s="6"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="3"/>
+      <c r="A939" s="6"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="3"/>
+      <c r="A940" s="6"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
@@ -4033,82 +4111,152 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A445:A448"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="A425:A428"/>
-    <mergeCell ref="A429:A432"/>
-    <mergeCell ref="A433:A436"/>
-    <mergeCell ref="A437:A440"/>
-    <mergeCell ref="A401:A404"/>
-    <mergeCell ref="A405:A408"/>
-    <mergeCell ref="A409:A412"/>
-    <mergeCell ref="A413:A416"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A389:A392"/>
-    <mergeCell ref="A393:A396"/>
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A365:A368"/>
-    <mergeCell ref="A369:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A360"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A929:A932"/>
+    <mergeCell ref="A933:A936"/>
+    <mergeCell ref="A937:A940"/>
+    <mergeCell ref="A941:A944"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="A471:A472"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="A477:A478"/>
+    <mergeCell ref="A479:A480"/>
+    <mergeCell ref="A893:A896"/>
+    <mergeCell ref="A897:A900"/>
+    <mergeCell ref="A901:A904"/>
+    <mergeCell ref="A905:A908"/>
+    <mergeCell ref="A909:A912"/>
+    <mergeCell ref="A913:A916"/>
+    <mergeCell ref="A917:A920"/>
+    <mergeCell ref="A921:A924"/>
+    <mergeCell ref="A925:A928"/>
+    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A645:A648"/>
+    <mergeCell ref="A649:A652"/>
+    <mergeCell ref="A653:A656"/>
+    <mergeCell ref="A657:A660"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="A125:A128"/>
@@ -4133,152 +4281,82 @@
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A481:A484"/>
-    <mergeCell ref="A485:A488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="A493:A496"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A497:A500"/>
-    <mergeCell ref="A501:A504"/>
-    <mergeCell ref="A505:A508"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="A517:A520"/>
-    <mergeCell ref="A521:A524"/>
-    <mergeCell ref="A525:A528"/>
-    <mergeCell ref="A529:A532"/>
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="A541:A544"/>
-    <mergeCell ref="A545:A548"/>
-    <mergeCell ref="A549:A552"/>
-    <mergeCell ref="A553:A556"/>
-    <mergeCell ref="A557:A560"/>
-    <mergeCell ref="A561:A564"/>
-    <mergeCell ref="A565:A568"/>
-    <mergeCell ref="A569:A572"/>
-    <mergeCell ref="A573:A576"/>
-    <mergeCell ref="A577:A580"/>
-    <mergeCell ref="A581:A584"/>
-    <mergeCell ref="A585:A588"/>
-    <mergeCell ref="A589:A592"/>
-    <mergeCell ref="A593:A596"/>
-    <mergeCell ref="A597:A600"/>
-    <mergeCell ref="A601:A604"/>
-    <mergeCell ref="A605:A608"/>
-    <mergeCell ref="A609:A612"/>
-    <mergeCell ref="A613:A616"/>
-    <mergeCell ref="A617:A620"/>
-    <mergeCell ref="A621:A624"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A629:A632"/>
-    <mergeCell ref="A633:A636"/>
-    <mergeCell ref="A637:A640"/>
-    <mergeCell ref="A641:A644"/>
-    <mergeCell ref="A645:A648"/>
-    <mergeCell ref="A649:A652"/>
-    <mergeCell ref="A653:A656"/>
-    <mergeCell ref="A657:A660"/>
-    <mergeCell ref="A661:A664"/>
-    <mergeCell ref="A665:A668"/>
-    <mergeCell ref="A669:A672"/>
-    <mergeCell ref="A673:A676"/>
-    <mergeCell ref="A677:A680"/>
-    <mergeCell ref="A681:A684"/>
-    <mergeCell ref="A685:A688"/>
-    <mergeCell ref="A689:A692"/>
-    <mergeCell ref="A693:A696"/>
-    <mergeCell ref="A697:A700"/>
-    <mergeCell ref="A701:A704"/>
-    <mergeCell ref="A705:A708"/>
-    <mergeCell ref="A709:A712"/>
-    <mergeCell ref="A713:A716"/>
-    <mergeCell ref="A717:A720"/>
-    <mergeCell ref="A721:A724"/>
-    <mergeCell ref="A725:A728"/>
-    <mergeCell ref="A729:A732"/>
-    <mergeCell ref="A733:A736"/>
-    <mergeCell ref="A737:A740"/>
-    <mergeCell ref="A741:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A761:A764"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A772"/>
-    <mergeCell ref="A773:A776"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="A805:A808"/>
-    <mergeCell ref="A809:A812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="A817:A820"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A885:A888"/>
-    <mergeCell ref="A889:A892"/>
-    <mergeCell ref="A821:A824"/>
-    <mergeCell ref="A825:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A929:A932"/>
-    <mergeCell ref="A933:A936"/>
-    <mergeCell ref="A937:A940"/>
-    <mergeCell ref="A941:A944"/>
-    <mergeCell ref="A459:A460"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="A477:A478"/>
-    <mergeCell ref="A479:A480"/>
-    <mergeCell ref="A893:A896"/>
-    <mergeCell ref="A897:A900"/>
-    <mergeCell ref="A901:A904"/>
-    <mergeCell ref="A905:A908"/>
-    <mergeCell ref="A909:A912"/>
-    <mergeCell ref="A913:A916"/>
-    <mergeCell ref="A917:A920"/>
-    <mergeCell ref="A921:A924"/>
-    <mergeCell ref="A925:A928"/>
-    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A413:A416"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B771B-6ED4-4D47-B5B2-29D41379795D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0C53A-1CED-4705-A162-1EDC0BFEB2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10890" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>B01</t>
   </si>
@@ -499,6 +499,24 @@
   </si>
   <si>
     <t>Rojo Beige</t>
+  </si>
+  <si>
+    <t>1212-1 amarill</t>
+  </si>
+  <si>
+    <t>YH-23 negro</t>
+  </si>
+  <si>
+    <t>1212-2 negro</t>
+  </si>
+  <si>
+    <t>1212-4 amarill</t>
+  </si>
+  <si>
+    <t>1212-4 negro</t>
+  </si>
+  <si>
+    <t>g2003 n 37</t>
   </si>
 </sst>
 </file>
@@ -555,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -604,14 +622,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,18 +658,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
   <dimension ref="A1:B944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="A561" sqref="A561:A564"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="B598" sqref="B598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,578 +989,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="4"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
+      <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
+      <c r="A106" s="4"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
+      <c r="A108" s="4"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="5"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="5"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+      <c r="A112" s="5"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
+      <c r="A118" s="4"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
+      <c r="A120" s="4"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
+      <c r="A126" s="4"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
+      <c r="A127" s="4"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
+      <c r="A128" s="4"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
+      <c r="A130" s="5"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
+      <c r="A131" s="5"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+      <c r="A132" s="5"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
+      <c r="A134" s="4"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
+      <c r="A135" s="4"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
+      <c r="A136" s="4"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
+      <c r="A138" s="4"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
+      <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
+      <c r="A146" s="4"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
+      <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
+      <c r="A148" s="4"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+      <c r="A150" s="5"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="A151" s="5"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
+      <c r="A152" s="5"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
+      <c r="A153" s="4"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
+      <c r="A154" s="4"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
+      <c r="A155" s="4"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
+      <c r="A156" s="4"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
+      <c r="A157" s="4"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
+      <c r="A158" s="4"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
+      <c r="A159" s="4"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
+      <c r="A160" s="4"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
+      <c r="A162" s="6"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
+      <c r="A164" s="6"/>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -1597,2520 +1629,2757 @@
       <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
+      <c r="A182" s="9"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
+      <c r="A183" s="9"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
+      <c r="A184" s="9"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6"/>
+      <c r="A186" s="4"/>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
+      <c r="A188" s="4"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+      <c r="A190" s="5"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
+      <c r="A191" s="5"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="A192" s="5"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
+      <c r="A194" s="4"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
+      <c r="A195" s="4"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
+      <c r="A196" s="4"/>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
+      <c r="A198" s="4"/>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
+      <c r="A200" s="4"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
+      <c r="A202" s="9"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8"/>
+      <c r="A203" s="9"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
+      <c r="A204" s="9"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
+      <c r="A206" s="4"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
+      <c r="A207" s="4"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
+      <c r="A208" s="4"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+      <c r="A210" s="5"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+      <c r="A211" s="5"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
+      <c r="A212" s="5"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
+      <c r="A214" s="4"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
+      <c r="A215" s="4"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
+      <c r="A216" s="4"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
+      <c r="A217" s="4"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6"/>
+      <c r="A218" s="4"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
+      <c r="A219" s="4"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
+      <c r="A220" s="4"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
+      <c r="A222" s="9"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
+      <c r="A223" s="9"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
+      <c r="A224" s="9"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
+      <c r="A226" s="4"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6"/>
+      <c r="A227" s="4"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
+      <c r="A228" s="4"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7"/>
+      <c r="A230" s="5"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
+      <c r="A231" s="5"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="7"/>
+      <c r="A232" s="5"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
+      <c r="A234" s="4"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
+      <c r="A235" s="4"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
+      <c r="A236" s="4"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
+      <c r="A238" s="8"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
+      <c r="A240" s="8"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
+      <c r="A242" s="6"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="5"/>
+      <c r="A243" s="6"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="5"/>
+      <c r="A244" s="6"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
+      <c r="A246" s="4"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
+      <c r="A247" s="4"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
+      <c r="A248" s="4"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="7"/>
+      <c r="A250" s="5"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
+      <c r="A251" s="5"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="7"/>
+      <c r="A252" s="5"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
+      <c r="A254" s="4"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
+      <c r="A255" s="4"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
+      <c r="A256" s="4"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
+      <c r="A258" s="4"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
+      <c r="A259" s="4"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
+      <c r="A260" s="4"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
+      <c r="A262" s="6"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
+      <c r="A263" s="6"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="5"/>
+      <c r="A264" s="6"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
+      <c r="A266" s="4"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
+      <c r="A267" s="4"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
+      <c r="A268" s="4"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
+      <c r="A269" s="4"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="7"/>
+      <c r="A270" s="5"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7"/>
+      <c r="A271" s="5"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7"/>
+      <c r="A272" s="5"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
+      <c r="A273" s="4"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
+      <c r="A274" s="4"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
+      <c r="A275" s="4"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
+      <c r="A276" s="4"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="6"/>
+      <c r="A277" s="4"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="6"/>
+      <c r="A278" s="4"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
+      <c r="A279" s="4"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
+      <c r="A280" s="4"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
+      <c r="A282" s="6"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
+      <c r="A283" s="6"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="5"/>
+      <c r="A284" s="6"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
+      <c r="A286" s="4"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
+      <c r="A287" s="4"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="6"/>
+      <c r="A288" s="4"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="7"/>
+      <c r="A290" s="5"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7"/>
+      <c r="A291" s="5"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="7"/>
+      <c r="A292" s="5"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
+      <c r="A294" s="4"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
+      <c r="A295" s="4"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
+      <c r="A296" s="4"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
+      <c r="A297" s="4"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
+      <c r="A298" s="4"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
+      <c r="A299" s="4"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
+      <c r="A300" s="4"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="5"/>
+      <c r="A302" s="6"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="5"/>
+      <c r="A303" s="6"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="5"/>
+      <c r="A304" s="6"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
+      <c r="A306" s="4"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
+      <c r="A307" s="4"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
+      <c r="A308" s="4"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
+      <c r="A309" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="7"/>
+      <c r="A310" s="5"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="7"/>
+      <c r="A311" s="5"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="7"/>
+      <c r="A312" s="5"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
+      <c r="A313" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
+      <c r="A314" s="4"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
+      <c r="A315" s="4"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
+      <c r="A316" s="4"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
+      <c r="A317" s="4"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
+      <c r="A318" s="4"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
+      <c r="A319" s="4"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
+      <c r="A320" s="4"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="5"/>
+      <c r="A322" s="6"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="5"/>
+      <c r="A323" s="6"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="5"/>
+      <c r="A324" s="6"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
+      <c r="A325" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
+      <c r="A326" s="4"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
+      <c r="A327" s="4"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
+      <c r="A328" s="4"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="7"/>
+      <c r="A330" s="5"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="7"/>
+      <c r="A331" s="5"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="7"/>
+      <c r="A332" s="5"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
+      <c r="A333" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
+      <c r="A334" s="4"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
+      <c r="A335" s="4"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
+      <c r="A336" s="4"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6">
+      <c r="A337" s="4">
         <v>8375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
+      <c r="A338" s="4"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
+      <c r="A339" s="4"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
+      <c r="A340" s="4"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="5"/>
+      <c r="A342" s="6"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="5"/>
+      <c r="A343" s="6"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="5"/>
+      <c r="A344" s="6"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="6"/>
+      <c r="A346" s="4"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
+      <c r="A347" s="4"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="6"/>
+      <c r="A348" s="4"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="6" t="s">
+      <c r="A349" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="7"/>
+      <c r="A350" s="5"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="7"/>
+      <c r="A351" s="5"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="7"/>
+      <c r="A352" s="5"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="6" t="s">
+      <c r="A353" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="6"/>
+      <c r="A354" s="4"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="6"/>
+      <c r="A355" s="4"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="6"/>
+      <c r="A356" s="4"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
+      <c r="A357" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="6"/>
+      <c r="A358" s="4"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="6"/>
+      <c r="A359" s="4"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="6"/>
+      <c r="A360" s="4"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="5" t="s">
+      <c r="A361" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="5"/>
+      <c r="A362" s="6"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="5"/>
+      <c r="A363" s="6"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="5"/>
+      <c r="A364" s="6"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="6" t="s">
+      <c r="A365" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="6"/>
+      <c r="A366" s="4"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="6"/>
+      <c r="A367" s="4"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="6"/>
+      <c r="A368" s="4"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
+      <c r="A369" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="7"/>
+      <c r="A370" s="5"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="7"/>
+      <c r="A371" s="5"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="7"/>
+      <c r="A372" s="5"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="6"/>
+      <c r="A373" s="4"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="6"/>
+      <c r="A374" s="4"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="6"/>
+      <c r="A375" s="4"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="6"/>
+      <c r="A376" s="4"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="6"/>
+      <c r="A377" s="4"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="6"/>
+      <c r="A378" s="4"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="6"/>
+      <c r="A379" s="4"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="6"/>
+      <c r="A380" s="4"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="5" t="s">
+      <c r="A381" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="5"/>
+      <c r="A382" s="6"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="5"/>
+      <c r="A383" s="6"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="5"/>
+      <c r="A384" s="6"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="6" t="s">
+      <c r="A385" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="6"/>
+      <c r="A386" s="4"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="6"/>
+      <c r="A387" s="4"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="6"/>
+      <c r="A388" s="4"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="6" t="s">
+      <c r="A389" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="7"/>
+      <c r="A390" s="5"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="7"/>
+      <c r="A391" s="5"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="7"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="6">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="6"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="6"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="6"/>
+      <c r="A392" s="5"/>
+    </row>
+    <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A393" s="4">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A396" s="4"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="6" t="s">
+      <c r="A397" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="6"/>
+      <c r="A398" s="4"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="6"/>
+      <c r="A399" s="4"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="6"/>
+      <c r="A400" s="4"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="5"/>
+      <c r="A402" s="6"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="5"/>
+      <c r="A403" s="6"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="5"/>
+      <c r="A404" s="6"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="6" t="s">
+      <c r="A405" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="6"/>
+      <c r="A406" s="4"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="6"/>
+      <c r="A407" s="4"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="6"/>
+      <c r="A408" s="4"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="6" t="s">
+      <c r="A409" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="7"/>
+      <c r="A410" s="5"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="7"/>
+      <c r="A411" s="5"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="7"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="6" t="s">
+      <c r="A412" s="5"/>
+    </row>
+    <row r="413" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="6"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="6"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="6"/>
+    <row r="414" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="10"/>
+    </row>
+    <row r="415" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="10">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="8"/>
     </row>
     <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="4"/>
+      <c r="A418" s="8"/>
     </row>
     <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="4"/>
+      <c r="A420" s="8"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="5"/>
+      <c r="A422" s="6"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="5"/>
+      <c r="A423" s="6"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="5"/>
+      <c r="A424" s="6"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="6" t="s">
+      <c r="A425" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="6"/>
+      <c r="A426" s="4"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="6"/>
+      <c r="A427" s="4"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="6"/>
+      <c r="A428" s="4"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="6" t="s">
+      <c r="A429" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="7"/>
+      <c r="A430" s="5"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="7"/>
+      <c r="A431" s="5"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="7"/>
+      <c r="A432" s="5"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="6"/>
+      <c r="A433" s="4"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="6"/>
+      <c r="A434" s="4"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="6"/>
+      <c r="A435" s="4"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="6"/>
+      <c r="A436" s="4"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="6"/>
+      <c r="A437" s="4"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="6"/>
+      <c r="A438" s="4"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="6"/>
+      <c r="A439" s="4"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="6"/>
+      <c r="A440" s="4"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="5"/>
+      <c r="A442" s="6"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="5"/>
+      <c r="A443" s="6"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="5"/>
+      <c r="A444" s="6"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="6" t="s">
+      <c r="A445" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="6"/>
+      <c r="A446" s="4"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="6"/>
+      <c r="A447" s="4"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="6"/>
+      <c r="A448" s="4"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="6" t="s">
+      <c r="A449" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="7"/>
+      <c r="A450" s="5"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="7"/>
+      <c r="A451" s="5"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="7"/>
+      <c r="A452" s="5"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="6" t="s">
+      <c r="A453" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="6"/>
+      <c r="A454" s="4"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="6"/>
+      <c r="A455" s="4"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="6"/>
+      <c r="A456" s="4"/>
     </row>
     <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3" t="s">
+      <c r="A457" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="4"/>
+      <c r="A458" s="8"/>
     </row>
     <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="4"/>
+      <c r="A460" s="8"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="5" t="s">
+      <c r="A461" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="5"/>
+      <c r="A462" s="6"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="5"/>
+      <c r="A463" s="6"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="5"/>
+      <c r="A464" s="6"/>
     </row>
     <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="3" t="s">
+      <c r="A465" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="4"/>
+      <c r="A466" s="8"/>
     </row>
     <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="4"/>
+      <c r="A468" s="8"/>
     </row>
     <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="4"/>
+      <c r="A470" s="8"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="3" t="s">
+      <c r="A471" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="4"/>
+      <c r="A472" s="8"/>
     </row>
     <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="4"/>
+      <c r="A474" s="8"/>
     </row>
     <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="4"/>
+      <c r="A476" s="8"/>
     </row>
     <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="3"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="4"/>
+      <c r="A478" s="8"/>
     </row>
     <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="3"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="4"/>
+      <c r="A480" s="8"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="5" t="s">
+      <c r="A481" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B481" s="9"/>
+      <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="5"/>
+      <c r="A482" s="6"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="5"/>
+      <c r="A483" s="6"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="5"/>
+      <c r="A484" s="6"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="6" t="s">
+      <c r="A485" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="6"/>
+      <c r="A486" s="4"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="6"/>
+      <c r="A487" s="4"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="6"/>
+      <c r="A488" s="4"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="6" t="s">
+      <c r="A489" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="7"/>
+      <c r="A490" s="5"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="7"/>
+      <c r="A491" s="5"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="7"/>
+      <c r="A492" s="5"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="6" t="s">
+      <c r="A493" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="6"/>
+      <c r="A494" s="4"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="6"/>
+      <c r="A495" s="4"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="6"/>
+      <c r="A496" s="4"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="6" t="s">
+      <c r="A497" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="6"/>
+      <c r="A498" s="4"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="6"/>
+      <c r="A499" s="4"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="6"/>
+      <c r="A500" s="4"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="5" t="s">
+      <c r="A501" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="5"/>
+      <c r="A502" s="6"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="5"/>
+      <c r="A503" s="6"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="5"/>
+      <c r="A504" s="6"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="6" t="s">
+      <c r="A505" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="6"/>
+      <c r="A506" s="4"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="6"/>
+      <c r="A507" s="4"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="6"/>
+      <c r="A508" s="4"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="6" t="s">
+      <c r="A509" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="7"/>
+      <c r="A510" s="5"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="7"/>
+      <c r="A511" s="5"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="7"/>
+      <c r="A512" s="5"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="6" t="s">
+      <c r="A513" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="6"/>
+      <c r="A514" s="4"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="6"/>
+      <c r="A515" s="4"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="6"/>
+      <c r="A516" s="4"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="6"/>
+      <c r="A517" s="4"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="6"/>
+      <c r="A518" s="4"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="6"/>
+      <c r="A519" s="4"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="6"/>
+      <c r="A520" s="4"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="5" t="s">
+      <c r="A521" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="5"/>
+      <c r="A522" s="6"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="5"/>
+      <c r="A523" s="6"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="5"/>
+      <c r="A524" s="6"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="6" t="s">
+      <c r="A525" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="6"/>
+      <c r="A526" s="4"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="6"/>
+      <c r="A527" s="4"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="6"/>
+      <c r="A528" s="4"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="6" t="s">
+      <c r="A529" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="7"/>
+      <c r="A530" s="5"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="7"/>
+      <c r="A531" s="5"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="7"/>
+      <c r="A532" s="5"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="6" t="s">
+      <c r="A533" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="6"/>
+      <c r="A534" s="4"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="6"/>
+      <c r="A535" s="4"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="6"/>
+      <c r="A536" s="4"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="6"/>
+      <c r="A537" s="4"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="6"/>
+      <c r="A538" s="4"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="6"/>
+      <c r="A539" s="4"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="6"/>
+      <c r="A540" s="4"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="5" t="s">
+      <c r="A541" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="5"/>
+      <c r="A542" s="6"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="5"/>
+      <c r="A543" s="6"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="5"/>
+      <c r="A544" s="6"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="6" t="s">
+      <c r="A545" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="6"/>
+      <c r="A546" s="4"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="6"/>
+      <c r="A547" s="4"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="6"/>
+      <c r="A548" s="4"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="6" t="s">
+      <c r="A549" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="7"/>
+      <c r="A550" s="5"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="7"/>
+      <c r="A551" s="5"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="7"/>
+      <c r="A552" s="5"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="6" t="s">
+      <c r="A553" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="6"/>
+      <c r="A554" s="4"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="6"/>
+      <c r="A555" s="4"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="6"/>
+      <c r="A556" s="4"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="6" t="s">
+      <c r="A557" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="6"/>
+      <c r="A558" s="4"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="6"/>
+      <c r="A559" s="4"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="6"/>
+      <c r="A560" s="4"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="5" t="s">
+      <c r="A561" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="5"/>
+      <c r="A562" s="6"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="5"/>
+      <c r="A563" s="6"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="5"/>
+      <c r="A564" s="6"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="6"/>
+      <c r="A565" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="6"/>
+      <c r="A566" s="4"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="6"/>
+      <c r="A567" s="4"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="6"/>
+      <c r="A568" s="4"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="6"/>
+      <c r="A569" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="7"/>
+      <c r="A570" s="5"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="7"/>
+      <c r="A571" s="5"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="7"/>
+      <c r="A572" s="5"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="6"/>
+      <c r="A573" s="4"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="6"/>
+      <c r="A574" s="4"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="6"/>
+      <c r="A575" s="4"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="6"/>
+      <c r="A576" s="4"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="6"/>
+      <c r="A577" s="4"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="6"/>
+      <c r="A578" s="4"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="6"/>
+      <c r="A579" s="4"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="6"/>
+      <c r="A580" s="4"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="5" t="s">
+      <c r="A581" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="5"/>
+      <c r="A582" s="6"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="5"/>
+      <c r="A583" s="6"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="5"/>
+      <c r="A584" s="6"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="6"/>
+      <c r="A585" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="6"/>
+      <c r="A586" s="4"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="6"/>
+      <c r="A587" s="4"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="6"/>
+      <c r="A588" s="4"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="6"/>
+      <c r="A589" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="7"/>
+      <c r="A590" s="5"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="7"/>
+      <c r="A591" s="5"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="7"/>
+      <c r="A592" s="5"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="6"/>
+      <c r="A593" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="6"/>
+      <c r="A594" s="4"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="6"/>
+      <c r="A595" s="4"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="6"/>
+      <c r="A596" s="4"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="6"/>
+      <c r="A597" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="6"/>
+      <c r="A598" s="4"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="6"/>
+      <c r="A599" s="4"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="6"/>
+      <c r="A600" s="4"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="5" t="s">
+      <c r="A601" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="5"/>
+      <c r="A602" s="6"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="5"/>
+      <c r="A603" s="6"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="5"/>
+      <c r="A604" s="6"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="6"/>
+      <c r="A605" s="4"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="6"/>
+      <c r="A606" s="4"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="6"/>
+      <c r="A607" s="4"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="6"/>
+      <c r="A608" s="4"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="6"/>
+      <c r="A609" s="4"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="7"/>
+      <c r="A610" s="5"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="7"/>
+      <c r="A611" s="5"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="7"/>
+      <c r="A612" s="5"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="6"/>
+      <c r="A613" s="4"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="6"/>
+      <c r="A614" s="4"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="6"/>
+      <c r="A615" s="4"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="6"/>
+      <c r="A616" s="4"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="6"/>
+      <c r="A617" s="4"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="6"/>
+      <c r="A618" s="4"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="6"/>
+      <c r="A619" s="4"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="6"/>
+      <c r="A620" s="4"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="5" t="s">
+      <c r="A621" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="5"/>
+      <c r="A622" s="6"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="5"/>
+      <c r="A623" s="6"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="5"/>
+      <c r="A624" s="6"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="6"/>
+      <c r="A625" s="4"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="6"/>
+      <c r="A626" s="4"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="6"/>
+      <c r="A627" s="4"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="6"/>
+      <c r="A628" s="4"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="6"/>
+      <c r="A629" s="4"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="7"/>
+      <c r="A630" s="5"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="7"/>
+      <c r="A631" s="5"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="7"/>
+      <c r="A632" s="5"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="6"/>
+      <c r="A633" s="4"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="6"/>
+      <c r="A634" s="4"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="6"/>
+      <c r="A635" s="4"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="6"/>
+      <c r="A636" s="4"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="6"/>
+      <c r="A637" s="4"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="6"/>
+      <c r="A638" s="4"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="6"/>
+      <c r="A639" s="4"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="6"/>
+      <c r="A640" s="4"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="5" t="s">
+      <c r="A641" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="5"/>
+      <c r="A642" s="6"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="5"/>
+      <c r="A643" s="6"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="5"/>
+      <c r="A644" s="6"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="6"/>
+      <c r="A645" s="4"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="6"/>
+      <c r="A646" s="4"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="6"/>
+      <c r="A647" s="4"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="6"/>
+      <c r="A648" s="4"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="6"/>
+      <c r="A649" s="4"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="7"/>
+      <c r="A650" s="5"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="7"/>
+      <c r="A651" s="5"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="7"/>
+      <c r="A652" s="5"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="6"/>
+      <c r="A653" s="4"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="6"/>
+      <c r="A654" s="4"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="6"/>
+      <c r="A655" s="4"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="6"/>
+      <c r="A656" s="4"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="6"/>
+      <c r="A657" s="4"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="6"/>
+      <c r="A658" s="4"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="6"/>
+      <c r="A659" s="4"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="6"/>
+      <c r="A660" s="4"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="5" t="s">
+      <c r="A661" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="5"/>
+      <c r="A662" s="6"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="5"/>
+      <c r="A663" s="6"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="5"/>
+      <c r="A664" s="6"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="6"/>
+      <c r="A665" s="4"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="6"/>
+      <c r="A666" s="4"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="6"/>
+      <c r="A667" s="4"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="6"/>
+      <c r="A668" s="4"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="6"/>
+      <c r="A669" s="4"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="7"/>
+      <c r="A670" s="5"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="7"/>
+      <c r="A671" s="5"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="7"/>
+      <c r="A672" s="5"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="6"/>
+      <c r="A673" s="4"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="6"/>
+      <c r="A674" s="4"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="6"/>
+      <c r="A675" s="4"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="6"/>
+      <c r="A676" s="4"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="6"/>
+      <c r="A677" s="4"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="6"/>
+      <c r="A678" s="4"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="6"/>
+      <c r="A679" s="4"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="6"/>
+      <c r="A680" s="4"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="5" t="s">
+      <c r="A681" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="5"/>
+      <c r="A682" s="6"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="5"/>
+      <c r="A683" s="6"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="5"/>
+      <c r="A684" s="6"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="6"/>
+      <c r="A685" s="4"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="6"/>
+      <c r="A686" s="4"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="6"/>
+      <c r="A687" s="4"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="6"/>
+      <c r="A688" s="4"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="6"/>
+      <c r="A689" s="4"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="7"/>
+      <c r="A690" s="5"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="7"/>
+      <c r="A691" s="5"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="7"/>
+      <c r="A692" s="5"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="6"/>
+      <c r="A693" s="4"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="6"/>
+      <c r="A694" s="4"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="6"/>
+      <c r="A695" s="4"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="6"/>
+      <c r="A696" s="4"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="6"/>
+      <c r="A697" s="4"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="6"/>
+      <c r="A698" s="4"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="6"/>
+      <c r="A699" s="4"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="6"/>
+      <c r="A700" s="4"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="5" t="s">
+      <c r="A701" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="5"/>
+      <c r="A702" s="6"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="5"/>
+      <c r="A703" s="6"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="5"/>
+      <c r="A704" s="6"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="6"/>
+      <c r="A705" s="4"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="6"/>
+      <c r="A706" s="4"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="6"/>
+      <c r="A707" s="4"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="6"/>
+      <c r="A708" s="4"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="6"/>
+      <c r="A709" s="4"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="7"/>
+      <c r="A710" s="5"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="7"/>
+      <c r="A711" s="5"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="7"/>
+      <c r="A712" s="5"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="6"/>
+      <c r="A713" s="4"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="6"/>
+      <c r="A714" s="4"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="6"/>
+      <c r="A715" s="4"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="6"/>
+      <c r="A716" s="4"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="6"/>
+      <c r="A717" s="4"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="6"/>
+      <c r="A718" s="4"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="6"/>
+      <c r="A719" s="4"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="6"/>
+      <c r="A720" s="4"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="5" t="s">
+      <c r="A721" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="5"/>
+      <c r="A722" s="6"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="5"/>
+      <c r="A723" s="6"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="5"/>
+      <c r="A724" s="6"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="6"/>
+      <c r="A725" s="4"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="6"/>
+      <c r="A726" s="4"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="6"/>
+      <c r="A727" s="4"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="6"/>
+      <c r="A728" s="4"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="6"/>
+      <c r="A729" s="4"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="7"/>
+      <c r="A730" s="5"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="7"/>
+      <c r="A731" s="5"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="7"/>
+      <c r="A732" s="5"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="6"/>
+      <c r="A733" s="4"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="6"/>
+      <c r="A734" s="4"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="6"/>
+      <c r="A735" s="4"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="6"/>
+      <c r="A736" s="4"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="6"/>
+      <c r="A737" s="4"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="6"/>
+      <c r="A738" s="4"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="6"/>
+      <c r="A739" s="4"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="6"/>
+      <c r="A740" s="4"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="5" t="s">
+      <c r="A741" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="5"/>
+      <c r="A742" s="6"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="5"/>
+      <c r="A743" s="6"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="5"/>
+      <c r="A744" s="6"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="6"/>
+      <c r="A745" s="4"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="6"/>
+      <c r="A746" s="4"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="6"/>
+      <c r="A747" s="4"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="6"/>
+      <c r="A748" s="4"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="6"/>
+      <c r="A749" s="4"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="7"/>
+      <c r="A750" s="5"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="7"/>
+      <c r="A751" s="5"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="7"/>
+      <c r="A752" s="5"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="6"/>
+      <c r="A753" s="4"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="6"/>
+      <c r="A754" s="4"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="6"/>
+      <c r="A755" s="4"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="6"/>
+      <c r="A756" s="4"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="6"/>
+      <c r="A757" s="4"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="6"/>
+      <c r="A758" s="4"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="6"/>
+      <c r="A759" s="4"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="6"/>
+      <c r="A760" s="4"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="5" t="s">
+      <c r="A761" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="5"/>
+      <c r="A762" s="6"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="5"/>
+      <c r="A763" s="6"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="5"/>
+      <c r="A764" s="6"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="6"/>
+      <c r="A765" s="4"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="6"/>
+      <c r="A766" s="4"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="6"/>
+      <c r="A767" s="4"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="6"/>
+      <c r="A768" s="4"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="6"/>
+      <c r="A769" s="4"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="7"/>
+      <c r="A770" s="5"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="7"/>
+      <c r="A771" s="5"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="7"/>
+      <c r="A772" s="5"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="6"/>
+      <c r="A773" s="4"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="6"/>
+      <c r="A774" s="4"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="6"/>
+      <c r="A775" s="4"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="6"/>
+      <c r="A776" s="4"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="6"/>
+      <c r="A777" s="4"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="6"/>
+      <c r="A778" s="4"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="6"/>
+      <c r="A779" s="4"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="6"/>
+      <c r="A780" s="4"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="5" t="s">
+      <c r="A781" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="5"/>
+      <c r="A782" s="6"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="5"/>
+      <c r="A783" s="6"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="5"/>
+      <c r="A784" s="6"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="6"/>
+      <c r="A785" s="4"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="6"/>
+      <c r="A786" s="4"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="6"/>
+      <c r="A787" s="4"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="6"/>
+      <c r="A788" s="4"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="6"/>
+      <c r="A789" s="4"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="7"/>
+      <c r="A790" s="5"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="7"/>
+      <c r="A791" s="5"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="7"/>
+      <c r="A792" s="5"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="6"/>
+      <c r="A793" s="4"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="6"/>
+      <c r="A794" s="4"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="6"/>
+      <c r="A795" s="4"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="6"/>
+      <c r="A796" s="4"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="6"/>
+      <c r="A797" s="4"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="6"/>
+      <c r="A798" s="4"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="6"/>
+      <c r="A799" s="4"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="6"/>
+      <c r="A800" s="4"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="5" t="s">
+      <c r="A801" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="5"/>
+      <c r="A802" s="6"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="5"/>
+      <c r="A803" s="6"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="5"/>
+      <c r="A804" s="6"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="6"/>
+      <c r="A805" s="4"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="6"/>
+      <c r="A806" s="4"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="6"/>
+      <c r="A807" s="4"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="6"/>
+      <c r="A808" s="4"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="6"/>
+      <c r="A809" s="4"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="7"/>
+      <c r="A810" s="5"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="7"/>
+      <c r="A811" s="5"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="7"/>
+      <c r="A812" s="5"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="6"/>
+      <c r="A813" s="4"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="6"/>
+      <c r="A814" s="4"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="6"/>
+      <c r="A815" s="4"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="6"/>
+      <c r="A816" s="4"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="6"/>
+      <c r="A817" s="4"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="6"/>
+      <c r="A818" s="4"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="6"/>
+      <c r="A819" s="4"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="6"/>
+      <c r="A820" s="4"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="5" t="s">
+      <c r="A821" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="5"/>
+      <c r="A822" s="6"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="5"/>
+      <c r="A823" s="6"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="5"/>
+      <c r="A824" s="6"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="6"/>
+      <c r="A825" s="4"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="6"/>
+      <c r="A826" s="4"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="6"/>
+      <c r="A827" s="4"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="6"/>
+      <c r="A828" s="4"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="6"/>
+      <c r="A829" s="4"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="7"/>
+      <c r="A830" s="5"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="7"/>
+      <c r="A831" s="5"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="7"/>
+      <c r="A832" s="5"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="6"/>
+      <c r="A833" s="4"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="6"/>
+      <c r="A834" s="4"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="6"/>
+      <c r="A835" s="4"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="6"/>
+      <c r="A836" s="4"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="6"/>
+      <c r="A837" s="4"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="6"/>
+      <c r="A838" s="4"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="6"/>
+      <c r="A839" s="4"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="6"/>
+      <c r="A840" s="4"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="5" t="s">
+      <c r="A841" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="5"/>
+      <c r="A842" s="6"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="5"/>
+      <c r="A843" s="6"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="5"/>
+      <c r="A844" s="6"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="6"/>
+      <c r="A845" s="4"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="6"/>
+      <c r="A846" s="4"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="6"/>
+      <c r="A847" s="4"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="6"/>
+      <c r="A848" s="4"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="6"/>
+      <c r="A849" s="4"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="7"/>
+      <c r="A850" s="5"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="7"/>
+      <c r="A851" s="5"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="7"/>
+      <c r="A852" s="5"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="6"/>
+      <c r="A853" s="4"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="6"/>
+      <c r="A854" s="4"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="6"/>
+      <c r="A855" s="4"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="6"/>
+      <c r="A856" s="4"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="6"/>
+      <c r="A857" s="4"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="6"/>
+      <c r="A858" s="4"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="6"/>
+      <c r="A859" s="4"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="6"/>
+      <c r="A860" s="4"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="5" t="s">
+      <c r="A861" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="5"/>
+      <c r="A862" s="6"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="5"/>
+      <c r="A863" s="6"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="5"/>
+      <c r="A864" s="6"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="6"/>
+      <c r="A865" s="4"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="6"/>
+      <c r="A866" s="4"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="6"/>
+      <c r="A867" s="4"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="6"/>
+      <c r="A868" s="4"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="6"/>
+      <c r="A869" s="4"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="7"/>
+      <c r="A870" s="5"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="7"/>
+      <c r="A871" s="5"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="7"/>
+      <c r="A872" s="5"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="6"/>
+      <c r="A873" s="4"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="6"/>
+      <c r="A874" s="4"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="6"/>
+      <c r="A875" s="4"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="6"/>
+      <c r="A876" s="4"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="6"/>
+      <c r="A877" s="4"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="6"/>
+      <c r="A878" s="4"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="6"/>
+      <c r="A879" s="4"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="6"/>
+      <c r="A880" s="4"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="5" t="s">
+      <c r="A881" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="5"/>
+      <c r="A882" s="6"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="5"/>
+      <c r="A883" s="6"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="5"/>
+      <c r="A884" s="6"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="6"/>
+      <c r="A885" s="4"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="6"/>
+      <c r="A886" s="4"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="6"/>
+      <c r="A887" s="4"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="6"/>
+      <c r="A888" s="4"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="6"/>
+      <c r="A889" s="4"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="7"/>
+      <c r="A890" s="5"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="7"/>
+      <c r="A891" s="5"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="7"/>
+      <c r="A892" s="5"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="6"/>
+      <c r="A893" s="4"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="6"/>
+      <c r="A894" s="4"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="6"/>
+      <c r="A895" s="4"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="6"/>
+      <c r="A896" s="4"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="6"/>
+      <c r="A897" s="4"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="6"/>
+      <c r="A898" s="4"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="6"/>
+      <c r="A899" s="4"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="6"/>
+      <c r="A900" s="4"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="5" t="s">
+      <c r="A901" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="5"/>
+      <c r="A902" s="6"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="5"/>
+      <c r="A903" s="6"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="5"/>
+      <c r="A904" s="6"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="6"/>
+      <c r="A905" s="4"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="6"/>
+      <c r="A906" s="4"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="6"/>
+      <c r="A907" s="4"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="6"/>
+      <c r="A908" s="4"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="6"/>
+      <c r="A909" s="4"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="7"/>
+      <c r="A910" s="5"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="7"/>
+      <c r="A911" s="5"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="7"/>
+      <c r="A912" s="5"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="6"/>
+      <c r="A913" s="4"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="6"/>
+      <c r="A914" s="4"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="6"/>
+      <c r="A915" s="4"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="6"/>
+      <c r="A916" s="4"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="6"/>
+      <c r="A917" s="4"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="6"/>
+      <c r="A918" s="4"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="6"/>
+      <c r="A919" s="4"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="6"/>
+      <c r="A920" s="4"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="5" t="s">
+      <c r="A921" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="5"/>
+      <c r="A922" s="6"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="5"/>
+      <c r="A923" s="6"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="5"/>
+      <c r="A924" s="6"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="6"/>
+      <c r="A925" s="4"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="6"/>
+      <c r="A926" s="4"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="6"/>
+      <c r="A927" s="4"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="6"/>
+      <c r="A928" s="4"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="6"/>
+      <c r="A929" s="4"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="7"/>
+      <c r="A930" s="5"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="7"/>
+      <c r="A931" s="5"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="7"/>
+      <c r="A932" s="5"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="6"/>
+      <c r="A933" s="4"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="6"/>
+      <c r="A934" s="4"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="6"/>
+      <c r="A935" s="4"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="6"/>
+      <c r="A936" s="4"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="6"/>
+      <c r="A937" s="4"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="6"/>
+      <c r="A938" s="4"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="6"/>
+      <c r="A939" s="4"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="6"/>
+      <c r="A940" s="4"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="5" t="s">
+      <c r="A941" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="5"/>
+      <c r="A942" s="6"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="5"/>
+      <c r="A943" s="6"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="5"/>
+      <c r="A944" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="246">
+  <mergeCells count="247">
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A645:A648"/>
+    <mergeCell ref="A649:A652"/>
+    <mergeCell ref="A653:A656"/>
+    <mergeCell ref="A657:A660"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
     <mergeCell ref="A929:A932"/>
     <mergeCell ref="A933:A936"/>
     <mergeCell ref="A937:A940"/>
@@ -4135,228 +4404,6 @@
     <mergeCell ref="A921:A924"/>
     <mergeCell ref="A925:A928"/>
     <mergeCell ref="A857:A860"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A885:A888"/>
-    <mergeCell ref="A889:A892"/>
-    <mergeCell ref="A821:A824"/>
-    <mergeCell ref="A825:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="A805:A808"/>
-    <mergeCell ref="A809:A812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="A817:A820"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A761:A764"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A772"/>
-    <mergeCell ref="A773:A776"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A713:A716"/>
-    <mergeCell ref="A717:A720"/>
-    <mergeCell ref="A721:A724"/>
-    <mergeCell ref="A725:A728"/>
-    <mergeCell ref="A729:A732"/>
-    <mergeCell ref="A733:A736"/>
-    <mergeCell ref="A737:A740"/>
-    <mergeCell ref="A741:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A677:A680"/>
-    <mergeCell ref="A681:A684"/>
-    <mergeCell ref="A685:A688"/>
-    <mergeCell ref="A689:A692"/>
-    <mergeCell ref="A693:A696"/>
-    <mergeCell ref="A697:A700"/>
-    <mergeCell ref="A701:A704"/>
-    <mergeCell ref="A705:A708"/>
-    <mergeCell ref="A709:A712"/>
-    <mergeCell ref="A641:A644"/>
-    <mergeCell ref="A645:A648"/>
-    <mergeCell ref="A649:A652"/>
-    <mergeCell ref="A653:A656"/>
-    <mergeCell ref="A657:A660"/>
-    <mergeCell ref="A661:A664"/>
-    <mergeCell ref="A665:A668"/>
-    <mergeCell ref="A669:A672"/>
-    <mergeCell ref="A673:A676"/>
-    <mergeCell ref="A605:A608"/>
-    <mergeCell ref="A609:A612"/>
-    <mergeCell ref="A613:A616"/>
-    <mergeCell ref="A617:A620"/>
-    <mergeCell ref="A621:A624"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A629:A632"/>
-    <mergeCell ref="A633:A636"/>
-    <mergeCell ref="A637:A640"/>
-    <mergeCell ref="A569:A572"/>
-    <mergeCell ref="A573:A576"/>
-    <mergeCell ref="A577:A580"/>
-    <mergeCell ref="A581:A584"/>
-    <mergeCell ref="A585:A588"/>
-    <mergeCell ref="A589:A592"/>
-    <mergeCell ref="A593:A596"/>
-    <mergeCell ref="A597:A600"/>
-    <mergeCell ref="A601:A604"/>
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="A541:A544"/>
-    <mergeCell ref="A545:A548"/>
-    <mergeCell ref="A549:A552"/>
-    <mergeCell ref="A553:A556"/>
-    <mergeCell ref="A557:A560"/>
-    <mergeCell ref="A561:A564"/>
-    <mergeCell ref="A565:A568"/>
-    <mergeCell ref="A497:A500"/>
-    <mergeCell ref="A501:A504"/>
-    <mergeCell ref="A505:A508"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="A517:A520"/>
-    <mergeCell ref="A521:A524"/>
-    <mergeCell ref="A525:A528"/>
-    <mergeCell ref="A529:A532"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A481:A484"/>
-    <mergeCell ref="A485:A488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="A493:A496"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A365:A368"/>
-    <mergeCell ref="A369:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A360"/>
-    <mergeCell ref="A401:A404"/>
-    <mergeCell ref="A405:A408"/>
-    <mergeCell ref="A409:A412"/>
-    <mergeCell ref="A413:A416"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A389:A392"/>
-    <mergeCell ref="A393:A396"/>
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A445:A448"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="A425:A428"/>
-    <mergeCell ref="A429:A432"/>
-    <mergeCell ref="A433:A436"/>
-    <mergeCell ref="A437:A440"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0C53A-1CED-4705-A162-1EDC0BFEB2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA0242-1CC3-4089-A6E7-674FCF6E4B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10890" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>B01</t>
   </si>
@@ -517,6 +517,21 @@
   </si>
   <si>
     <t>g2003 n 37</t>
+  </si>
+  <si>
+    <t>J240</t>
+  </si>
+  <si>
+    <t>J239</t>
+  </si>
+  <si>
+    <t>a89830 negro</t>
+  </si>
+  <si>
+    <t>a89830 camel</t>
+  </si>
+  <si>
+    <t>2859 negro</t>
   </si>
 </sst>
 </file>
@@ -642,6 +657,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,19 +676,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
   <dimension ref="A1:B944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="B598" sqref="B598"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="A637" sqref="A637:A640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,578 +1004,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="8"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="8"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="9"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="9"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="9"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="8"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="8"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="8"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="8"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+      <c r="A102" s="7"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
+      <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="9"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
+      <c r="A111" s="9"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
+      <c r="A112" s="9"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="8"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
+      <c r="A122" s="7"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="8"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="8"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="A128" s="8"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
+      <c r="A130" s="9"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
+      <c r="A131" s="9"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
+      <c r="A132" s="9"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="8"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="A138" s="8"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
+      <c r="A139" s="8"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
+      <c r="A140" s="8"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
+      <c r="A146" s="8"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
+      <c r="A147" s="8"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
+      <c r="A148" s="8"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
+      <c r="A150" s="9"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
+      <c r="A151" s="9"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
+      <c r="A152" s="9"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
+      <c r="A153" s="8"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
+      <c r="A154" s="8"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="A155" s="8"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
+      <c r="A156" s="8"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
+      <c r="A157" s="8"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
+      <c r="A158" s="8"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
+      <c r="A159" s="8"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="A160" s="8"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -1629,2611 +1644,2690 @@
       <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
+      <c r="A182" s="10"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="10"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+      <c r="A184" s="10"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
+      <c r="A186" s="8"/>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
+      <c r="A190" s="9"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
+      <c r="A191" s="9"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
+      <c r="A192" s="9"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
+      <c r="A195" s="8"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
+      <c r="A196" s="8"/>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
+      <c r="A198" s="8"/>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
+      <c r="A200" s="8"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
+      <c r="A202" s="10"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
+      <c r="A203" s="10"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+      <c r="A204" s="10"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
+      <c r="A206" s="8"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
+      <c r="A207" s="8"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
+      <c r="A208" s="8"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
+      <c r="A210" s="9"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
+      <c r="A211" s="9"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
+      <c r="A212" s="9"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
+      <c r="A214" s="8"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
+      <c r="A215" s="8"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
+      <c r="A216" s="8"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
+      <c r="A217" s="8"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
+      <c r="A218" s="8"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
+      <c r="A219" s="8"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
+      <c r="A220" s="8"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
+      <c r="A222" s="10"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
+      <c r="A223" s="10"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="9"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
+      <c r="A226" s="8"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
+      <c r="A227" s="8"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
+      <c r="A228" s="8"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
+      <c r="A230" s="9"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
+      <c r="A231" s="9"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
+      <c r="A232" s="9"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
+      <c r="A234" s="8"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
+      <c r="A235" s="8"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
+      <c r="A236" s="8"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
+      <c r="A238" s="5"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
+      <c r="A240" s="5"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
+      <c r="A246" s="8"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
+      <c r="A247" s="8"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
+      <c r="A248" s="8"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
+      <c r="A250" s="9"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
+      <c r="A251" s="9"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
+      <c r="A252" s="9"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
+      <c r="A254" s="8"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
+      <c r="A255" s="8"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
+      <c r="A256" s="8"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
+      <c r="A258" s="8"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
+      <c r="A259" s="8"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
+      <c r="A260" s="8"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
+      <c r="A266" s="8"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
+      <c r="A267" s="8"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
+      <c r="A268" s="8"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
+      <c r="A269" s="8"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="5"/>
+      <c r="A270" s="9"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
+      <c r="A271" s="9"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="5"/>
+      <c r="A272" s="9"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
+      <c r="A273" s="8"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
+      <c r="A274" s="8"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
+      <c r="A275" s="8"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
+      <c r="A276" s="8"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
+      <c r="A277" s="8"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
+      <c r="A278" s="8"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
+      <c r="A279" s="8"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
+      <c r="A280" s="8"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="6"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
+      <c r="A286" s="8"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
+      <c r="A287" s="8"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
+      <c r="A288" s="8"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="5"/>
+      <c r="A290" s="9"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="5"/>
+      <c r="A291" s="9"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="5"/>
+      <c r="A292" s="9"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
+      <c r="A294" s="8"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
+      <c r="A295" s="8"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
+      <c r="A296" s="8"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
+      <c r="A297" s="8"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
+      <c r="A298" s="8"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
+      <c r="A299" s="8"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
+      <c r="A300" s="8"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
+      <c r="A306" s="8"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
+      <c r="A307" s="8"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
+      <c r="A308" s="8"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="5"/>
+      <c r="A310" s="9"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
+      <c r="A311" s="9"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="5"/>
+      <c r="A312" s="9"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
+      <c r="A314" s="8"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
+      <c r="A315" s="8"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
+      <c r="A316" s="8"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
+      <c r="A317" s="8"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="4"/>
+      <c r="A318" s="8"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
+      <c r="A319" s="8"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
+      <c r="A320" s="8"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
+      <c r="A321" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="4"/>
+      <c r="A326" s="8"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
+      <c r="A327" s="8"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="4"/>
+      <c r="A328" s="8"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="4" t="s">
+      <c r="A329" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="5"/>
+      <c r="A330" s="9"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="5"/>
+      <c r="A331" s="9"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="5"/>
+      <c r="A332" s="9"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="4"/>
+      <c r="A334" s="8"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="4"/>
+      <c r="A335" s="8"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="4"/>
+      <c r="A336" s="8"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="4">
+      <c r="A337" s="8">
         <v>8375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
+      <c r="A338" s="8"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
+      <c r="A339" s="8"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
+      <c r="A340" s="8"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
+      <c r="A341" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
+      <c r="A346" s="8"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
+      <c r="A347" s="8"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
+      <c r="A348" s="8"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="4" t="s">
+      <c r="A349" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="5"/>
+      <c r="A350" s="9"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="5"/>
+      <c r="A351" s="9"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="5"/>
+      <c r="A352" s="9"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
+      <c r="A353" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="4"/>
+      <c r="A354" s="8"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
+      <c r="A355" s="8"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="4"/>
+      <c r="A356" s="8"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
+      <c r="A358" s="8"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
+      <c r="A359" s="8"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="4"/>
+      <c r="A360" s="8"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="6" t="s">
+      <c r="A361" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="6"/>
+      <c r="A362" s="7"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="6"/>
+      <c r="A363" s="7"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="6"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
+      <c r="A365" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="4"/>
+      <c r="A366" s="8"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="4"/>
+      <c r="A367" s="8"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="4"/>
+      <c r="A368" s="8"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="5"/>
+      <c r="A370" s="9"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="5"/>
+      <c r="A371" s="9"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="5"/>
+      <c r="A372" s="9"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="4"/>
+      <c r="A373" s="8"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="4"/>
+      <c r="A374" s="8"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
+      <c r="A375" s="8"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
+      <c r="A376" s="8"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="4"/>
+      <c r="A377" s="8"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="4"/>
+      <c r="A378" s="8"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="4"/>
+      <c r="A379" s="8"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="4"/>
+      <c r="A380" s="8"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="6" t="s">
+      <c r="A381" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="6"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="6"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="6"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
+      <c r="A385" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="4"/>
+      <c r="A386" s="8"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="4"/>
+      <c r="A387" s="8"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="4"/>
+      <c r="A388" s="8"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="5"/>
+      <c r="A390" s="9"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="5"/>
+      <c r="A391" s="9"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="5"/>
-    </row>
-    <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A393" s="4">
+      <c r="A392" s="9"/>
+    </row>
+    <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="8">
         <v>2109</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A394" s="4"/>
-    </row>
-    <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A395" s="4"/>
-    </row>
-    <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A396" s="4"/>
+    <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="8"/>
+    </row>
+    <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="8"/>
+    </row>
+    <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="8"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="4" t="s">
+      <c r="A397" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="4"/>
+      <c r="A398" s="8"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="4"/>
+      <c r="A399" s="8"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="4"/>
+      <c r="A400" s="8"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="6" t="s">
+      <c r="A401" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="6"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="6"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="6"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="4" t="s">
+      <c r="A405" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="4"/>
+      <c r="A406" s="8"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="4"/>
+      <c r="A407" s="8"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="4"/>
+      <c r="A408" s="8"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="4" t="s">
+      <c r="A409" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="5"/>
+      <c r="A410" s="9"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="5"/>
+      <c r="A411" s="9"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="5"/>
+      <c r="A412" s="9"/>
     </row>
     <row r="413" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+      <c r="A413" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="10"/>
+      <c r="A414" s="4"/>
     </row>
     <row r="415" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="10">
+      <c r="A415" s="4">
         <v>889</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="8"/>
+      <c r="A416" s="5"/>
     </row>
     <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="7" t="s">
+      <c r="A417" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="8"/>
+      <c r="A418" s="5"/>
     </row>
     <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+      <c r="A419" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="8"/>
+      <c r="A420" s="5"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="6" t="s">
+      <c r="A421" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="6"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="6"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="6"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="4"/>
+      <c r="A426" s="8"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="4"/>
+      <c r="A427" s="8"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="4"/>
+      <c r="A428" s="8"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="5"/>
+      <c r="A430" s="9"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="5"/>
+      <c r="A431" s="9"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="5"/>
+      <c r="A432" s="9"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="4"/>
+      <c r="A433" s="8"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="4"/>
+      <c r="A434" s="8"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4"/>
+      <c r="A435" s="8"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="4"/>
+      <c r="A436" s="8"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="4"/>
+      <c r="A437" s="8"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="4"/>
+      <c r="A438" s="8"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="4"/>
+      <c r="A439" s="8"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="4"/>
+      <c r="A440" s="8"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="6" t="s">
+      <c r="A441" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="6"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="6"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="6"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="4" t="s">
+      <c r="A445" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="4"/>
+      <c r="A446" s="8"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4"/>
+      <c r="A447" s="8"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="4"/>
+      <c r="A448" s="8"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="4" t="s">
+      <c r="A449" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="5"/>
+      <c r="A450" s="9"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="5"/>
+      <c r="A451" s="9"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="5"/>
+      <c r="A452" s="9"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="4" t="s">
+      <c r="A453" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="4"/>
+      <c r="A454" s="8"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="4"/>
+      <c r="A455" s="8"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="4"/>
+      <c r="A456" s="8"/>
     </row>
     <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+      <c r="A457" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="8"/>
+      <c r="A458" s="5"/>
     </row>
     <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="7" t="s">
+      <c r="A459" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="8"/>
+      <c r="A460" s="5"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="6" t="s">
+      <c r="A461" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="6"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="6"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="6"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7" t="s">
+      <c r="A465" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="8"/>
+      <c r="A466" s="5"/>
     </row>
     <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="7" t="s">
+      <c r="A467" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="8"/>
+      <c r="A468" s="5"/>
     </row>
     <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="7" t="s">
+      <c r="A469" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="8"/>
+      <c r="A470" s="5"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="7" t="s">
+      <c r="A471" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="8"/>
+      <c r="A472" s="5"/>
     </row>
     <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="7" t="s">
+      <c r="A473" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="8"/>
+      <c r="A474" s="5"/>
     </row>
     <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="7" t="s">
+      <c r="A475" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="8"/>
+      <c r="A476" s="5"/>
     </row>
     <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="7"/>
+      <c r="A477" s="6"/>
     </row>
     <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="8"/>
+      <c r="A478" s="5"/>
     </row>
     <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="7"/>
+      <c r="A479" s="6"/>
     </row>
     <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="8"/>
+      <c r="A480" s="5"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="6" t="s">
+      <c r="A481" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="6"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="6"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="6"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="4" t="s">
+      <c r="A485" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="4"/>
+      <c r="A486" s="8"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="4"/>
+      <c r="A487" s="8"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="4"/>
+      <c r="A488" s="8"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="4" t="s">
+      <c r="A489" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="5"/>
+      <c r="A490" s="9"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="5"/>
+      <c r="A491" s="9"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="5"/>
+      <c r="A492" s="9"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="4" t="s">
+      <c r="A493" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="4"/>
+      <c r="A494" s="8"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="4"/>
+      <c r="A495" s="8"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="4"/>
+      <c r="A496" s="8"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="4" t="s">
+      <c r="A497" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="4"/>
+      <c r="A498" s="8"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4"/>
+      <c r="A499" s="8"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="4"/>
+      <c r="A500" s="8"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="6" t="s">
+      <c r="A501" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="6"/>
+      <c r="A502" s="7"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="6"/>
+      <c r="A503" s="7"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="6"/>
+      <c r="A504" s="7"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="4" t="s">
+      <c r="A505" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="4"/>
+      <c r="A506" s="8"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4"/>
+      <c r="A507" s="8"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="4"/>
+      <c r="A508" s="8"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="4" t="s">
+      <c r="A509" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="5"/>
+      <c r="A510" s="9"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="5"/>
+      <c r="A511" s="9"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="5"/>
+      <c r="A512" s="9"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="4" t="s">
+      <c r="A513" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="4"/>
+      <c r="A514" s="8"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="4"/>
+      <c r="A515" s="8"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="4"/>
+      <c r="A516" s="8"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="4"/>
+      <c r="A517" s="8"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4"/>
+      <c r="A518" s="8"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="4"/>
+      <c r="A519" s="8"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="4"/>
+      <c r="A520" s="8"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="6" t="s">
+      <c r="A521" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="6"/>
+      <c r="A522" s="7"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="6"/>
+      <c r="A523" s="7"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="6"/>
+      <c r="A524" s="7"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="4" t="s">
+      <c r="A525" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="4"/>
+      <c r="A526" s="8"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="4"/>
+      <c r="A527" s="8"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="4"/>
+      <c r="A528" s="8"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="4" t="s">
+      <c r="A529" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="5"/>
+      <c r="A530" s="9"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="5"/>
+      <c r="A531" s="9"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="5"/>
+      <c r="A532" s="9"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="4" t="s">
+      <c r="A533" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="4"/>
+      <c r="A534" s="8"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="4"/>
+      <c r="A535" s="8"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="4"/>
+      <c r="A536" s="8"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="4"/>
+      <c r="A537" s="8"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="4"/>
+      <c r="A538" s="8"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="4"/>
+      <c r="A539" s="8"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="4"/>
+      <c r="A540" s="8"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="6" t="s">
+      <c r="A541" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="6"/>
+      <c r="A542" s="7"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="6"/>
+      <c r="A543" s="7"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="6"/>
+      <c r="A544" s="7"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="4" t="s">
+      <c r="A545" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="4"/>
+      <c r="A546" s="8"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="4"/>
+      <c r="A547" s="8"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="4"/>
+      <c r="A548" s="8"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="4" t="s">
+      <c r="A549" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="5"/>
+      <c r="A550" s="9"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="5"/>
+      <c r="A551" s="9"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="5"/>
+      <c r="A552" s="9"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="4" t="s">
+      <c r="A553" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="4"/>
+      <c r="A554" s="8"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="4"/>
+      <c r="A555" s="8"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="4"/>
+      <c r="A556" s="8"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="4" t="s">
+      <c r="A557" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="4"/>
+      <c r="A558" s="8"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="4"/>
+      <c r="A559" s="8"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="4"/>
+      <c r="A560" s="8"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="6" t="s">
+      <c r="A561" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="6"/>
+      <c r="A562" s="7"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="6"/>
+      <c r="A563" s="7"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="6"/>
+      <c r="A564" s="7"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="4" t="s">
+      <c r="A565" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="4"/>
+      <c r="A566" s="8"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="4"/>
+      <c r="A567" s="8"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="4"/>
+      <c r="A568" s="8"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="4" t="s">
+      <c r="A569" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="5"/>
+      <c r="A570" s="9"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="5"/>
+      <c r="A571" s="9"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="5"/>
+      <c r="A572" s="9"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="4"/>
+      <c r="A573" s="8"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="4"/>
+      <c r="A574" s="8"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="4"/>
+      <c r="A575" s="8"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="4"/>
+      <c r="A576" s="8"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="4"/>
+      <c r="A577" s="8"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="4"/>
+      <c r="A578" s="8"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="4"/>
+      <c r="A579" s="8"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="4"/>
+      <c r="A580" s="8"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="6" t="s">
+      <c r="A581" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="6"/>
+      <c r="A582" s="7"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="6"/>
+      <c r="A583" s="7"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="6"/>
+      <c r="A584" s="7"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="4" t="s">
+      <c r="A585" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="4"/>
+      <c r="A586" s="8"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="4"/>
+      <c r="A587" s="8"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="4"/>
+      <c r="A588" s="8"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="4" t="s">
+      <c r="A589" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="5"/>
+      <c r="A590" s="9"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="5"/>
+      <c r="A591" s="9"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="5"/>
+      <c r="A592" s="9"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="4" t="s">
+      <c r="A593" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="4"/>
+      <c r="A594" s="8"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="4"/>
+      <c r="A595" s="8"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="4"/>
+      <c r="A596" s="8"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="4" t="s">
+      <c r="A597" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="4"/>
+      <c r="A598" s="8"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="4"/>
+      <c r="A599" s="8"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="4"/>
+      <c r="A600" s="8"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="6" t="s">
+      <c r="A601" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="6"/>
+      <c r="A602" s="7"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="6"/>
+      <c r="A603" s="7"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="6"/>
+      <c r="A604" s="7"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="4"/>
+      <c r="A605" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="4"/>
+      <c r="A606" s="8"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="4"/>
+      <c r="A607" s="8"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="4"/>
+      <c r="A608" s="8"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="4"/>
+      <c r="A609" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="5"/>
+      <c r="A610" s="9"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="5"/>
+      <c r="A611" s="9"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="5"/>
+      <c r="A612" s="9"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="4"/>
+      <c r="A613" s="8"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="4"/>
+      <c r="A614" s="8"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="4"/>
+      <c r="A615" s="8"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="4"/>
+      <c r="A616" s="8"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="4"/>
+      <c r="A617" s="8"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="4"/>
+      <c r="A618" s="8"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="4"/>
+      <c r="A619" s="8"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="4"/>
+      <c r="A620" s="8"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="6" t="s">
+      <c r="A621" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="6"/>
+      <c r="A622" s="7"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="6"/>
+      <c r="A623" s="7"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="6"/>
+      <c r="A624" s="7"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="4"/>
+      <c r="A625" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="4"/>
+      <c r="A626" s="8"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="4"/>
+      <c r="A627" s="8"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="4"/>
+      <c r="A628" s="8"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="4"/>
+      <c r="A629" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="5"/>
+      <c r="A630" s="9"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="5"/>
+      <c r="A631" s="9"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="5"/>
+      <c r="A632" s="9"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="4"/>
+      <c r="A633" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="4"/>
+      <c r="A634" s="8"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="4"/>
+      <c r="A635" s="8"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="4"/>
+      <c r="A636" s="8"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="4"/>
+      <c r="A637" s="8"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="4"/>
+      <c r="A638" s="8"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="4"/>
+      <c r="A639" s="8"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="4"/>
+      <c r="A640" s="8"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="6" t="s">
+      <c r="A641" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="6"/>
+      <c r="A642" s="7"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="6"/>
+      <c r="A643" s="7"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="6"/>
+      <c r="A644" s="7"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="4"/>
+      <c r="A645" s="8"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="4"/>
+      <c r="A646" s="8"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="4"/>
+      <c r="A647" s="8"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="4"/>
+      <c r="A648" s="8"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="4"/>
+      <c r="A649" s="8"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="5"/>
+      <c r="A650" s="9"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="5"/>
+      <c r="A651" s="9"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="5"/>
+      <c r="A652" s="9"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="4"/>
+      <c r="A653" s="8"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="4"/>
+      <c r="A654" s="8"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="4"/>
+      <c r="A655" s="8"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="4"/>
+      <c r="A656" s="8"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="4"/>
+      <c r="A657" s="8"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="4"/>
+      <c r="A658" s="8"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="4"/>
+      <c r="A659" s="8"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="4"/>
+      <c r="A660" s="8"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="6" t="s">
+      <c r="A661" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="6"/>
+      <c r="A662" s="7"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="6"/>
+      <c r="A663" s="7"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="6"/>
+      <c r="A664" s="7"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="4"/>
+      <c r="A665" s="8"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="4"/>
+      <c r="A666" s="8"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="4"/>
+      <c r="A667" s="8"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="4"/>
+      <c r="A668" s="8"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="4"/>
+      <c r="A669" s="8"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="5"/>
+      <c r="A670" s="9"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="5"/>
+      <c r="A671" s="9"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="5"/>
+      <c r="A672" s="9"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="4"/>
+      <c r="A673" s="8"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="4"/>
+      <c r="A674" s="8"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="4"/>
+      <c r="A675" s="8"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="4"/>
+      <c r="A676" s="8"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="4"/>
+      <c r="A677" s="8"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="4"/>
+      <c r="A678" s="8"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="4"/>
+      <c r="A679" s="8"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="4"/>
+      <c r="A680" s="8"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="6" t="s">
+      <c r="A681" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="6"/>
+      <c r="A682" s="7"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="6"/>
+      <c r="A683" s="7"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="6"/>
+      <c r="A684" s="7"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="4"/>
+      <c r="A685" s="8"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="4"/>
+      <c r="A686" s="8"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="4"/>
+      <c r="A687" s="8"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="4"/>
+      <c r="A688" s="8"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="4"/>
+      <c r="A689" s="8"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="5"/>
+      <c r="A690" s="9"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="5"/>
+      <c r="A691" s="9"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="5"/>
+      <c r="A692" s="9"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="4"/>
+      <c r="A693" s="8"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="4"/>
+      <c r="A694" s="8"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="4"/>
+      <c r="A695" s="8"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="4"/>
+      <c r="A696" s="8"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="4"/>
+      <c r="A697" s="8"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="4"/>
+      <c r="A698" s="8"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="4"/>
+      <c r="A699" s="8"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="4"/>
+      <c r="A700" s="8"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="6" t="s">
+      <c r="A701" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="6"/>
+      <c r="A702" s="7"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="6"/>
+      <c r="A703" s="7"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="6"/>
+      <c r="A704" s="7"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="4"/>
+      <c r="A705" s="8"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="4"/>
+      <c r="A706" s="8"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="4"/>
+      <c r="A707" s="8"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="4"/>
+      <c r="A708" s="8"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="4"/>
+      <c r="A709" s="8"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="5"/>
+      <c r="A710" s="9"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="5"/>
+      <c r="A711" s="9"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="5"/>
+      <c r="A712" s="9"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="4"/>
+      <c r="A713" s="8"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="4"/>
+      <c r="A714" s="8"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="4"/>
+      <c r="A715" s="8"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="4"/>
+      <c r="A716" s="8"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="4"/>
+      <c r="A717" s="8"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="4"/>
+      <c r="A718" s="8"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="4"/>
+      <c r="A719" s="8"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="4"/>
+      <c r="A720" s="8"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="6" t="s">
+      <c r="A721" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="6"/>
+      <c r="A722" s="7"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="6"/>
+      <c r="A723" s="7"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="6"/>
+      <c r="A724" s="7"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="4"/>
+      <c r="A725" s="8"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="4"/>
+      <c r="A726" s="8"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="4"/>
+      <c r="A727" s="8"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="4"/>
+      <c r="A728" s="8"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="4"/>
+      <c r="A729" s="8"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="5"/>
+      <c r="A730" s="9"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="5"/>
+      <c r="A731" s="9"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="5"/>
+      <c r="A732" s="9"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="4"/>
+      <c r="A733" s="8"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="4"/>
+      <c r="A734" s="8"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="4"/>
+      <c r="A735" s="8"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="4"/>
+      <c r="A736" s="8"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="4"/>
+      <c r="A737" s="8"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="4"/>
+      <c r="A738" s="8"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="4"/>
+      <c r="A739" s="8"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="4"/>
+      <c r="A740" s="8"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="6" t="s">
+      <c r="A741" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="6"/>
+      <c r="A742" s="7"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="6"/>
+      <c r="A743" s="7"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="6"/>
+      <c r="A744" s="7"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="4"/>
+      <c r="A745" s="8"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="4"/>
+      <c r="A746" s="8"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="4"/>
+      <c r="A747" s="8"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="4"/>
+      <c r="A748" s="8"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="4"/>
+      <c r="A749" s="8"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="5"/>
+      <c r="A750" s="9"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="5"/>
+      <c r="A751" s="9"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="5"/>
+      <c r="A752" s="9"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="4"/>
+      <c r="A753" s="8"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="4"/>
+      <c r="A754" s="8"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="4"/>
+      <c r="A755" s="8"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="4"/>
+      <c r="A756" s="8"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="4"/>
+      <c r="A757" s="8"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="4"/>
+      <c r="A758" s="8"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="4"/>
+      <c r="A759" s="8"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="4"/>
+      <c r="A760" s="8"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="6" t="s">
+      <c r="A761" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="6"/>
+      <c r="A762" s="7"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="6"/>
+      <c r="A763" s="7"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="6"/>
+      <c r="A764" s="7"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="4"/>
+      <c r="A765" s="8"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="4"/>
+      <c r="A766" s="8"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="4"/>
+      <c r="A767" s="8"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="4"/>
+      <c r="A768" s="8"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="4"/>
+      <c r="A769" s="8"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="5"/>
+      <c r="A770" s="9"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="5"/>
+      <c r="A771" s="9"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="5"/>
+      <c r="A772" s="9"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="4"/>
+      <c r="A773" s="8"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="4"/>
+      <c r="A774" s="8"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="4"/>
+      <c r="A775" s="8"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="4"/>
+      <c r="A776" s="8"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="4"/>
+      <c r="A777" s="8"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="4"/>
+      <c r="A778" s="8"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="4"/>
+      <c r="A779" s="8"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="4"/>
+      <c r="A780" s="8"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="6" t="s">
+      <c r="A781" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="6"/>
+      <c r="A782" s="7"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="6"/>
+      <c r="A783" s="7"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="6"/>
+      <c r="A784" s="7"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="4"/>
+      <c r="A785" s="8"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="4"/>
+      <c r="A786" s="8"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="4"/>
+      <c r="A787" s="8"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="4"/>
+      <c r="A788" s="8"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="4"/>
+      <c r="A789" s="8"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="5"/>
+      <c r="A790" s="9"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="5"/>
+      <c r="A791" s="9"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="5"/>
+      <c r="A792" s="9"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="4"/>
+      <c r="A793" s="8"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="4"/>
+      <c r="A794" s="8"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="4"/>
+      <c r="A795" s="8"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="4"/>
+      <c r="A796" s="8"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="4"/>
+      <c r="A797" s="8"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="4"/>
+      <c r="A798" s="8"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="4"/>
+      <c r="A799" s="8"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="4"/>
+      <c r="A800" s="8"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="6" t="s">
+      <c r="A801" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="6"/>
+      <c r="A802" s="7"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="6"/>
+      <c r="A803" s="7"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="6"/>
+      <c r="A804" s="7"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="4"/>
+      <c r="A805" s="8"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="4"/>
+      <c r="A806" s="8"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="4"/>
+      <c r="A807" s="8"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="4"/>
+      <c r="A808" s="8"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="4"/>
+      <c r="A809" s="8"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="5"/>
+      <c r="A810" s="9"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="5"/>
+      <c r="A811" s="9"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="5"/>
+      <c r="A812" s="9"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="4"/>
+      <c r="A813" s="8"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="4"/>
+      <c r="A814" s="8"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="4"/>
+      <c r="A815" s="8"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="4"/>
+      <c r="A816" s="8"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="4"/>
+      <c r="A817" s="8"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="4"/>
+      <c r="A818" s="8"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="4"/>
+      <c r="A819" s="8"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="4"/>
+      <c r="A820" s="8"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="6" t="s">
+      <c r="A821" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="6"/>
+      <c r="A822" s="7"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="6"/>
+      <c r="A823" s="7"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="6"/>
+      <c r="A824" s="7"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="4"/>
+      <c r="A825" s="8"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="4"/>
+      <c r="A826" s="8"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="4"/>
+      <c r="A827" s="8"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="4"/>
+      <c r="A828" s="8"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="4"/>
+      <c r="A829" s="8"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="5"/>
+      <c r="A830" s="9"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="5"/>
+      <c r="A831" s="9"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="5"/>
+      <c r="A832" s="9"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="4"/>
+      <c r="A833" s="8"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="4"/>
+      <c r="A834" s="8"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="4"/>
+      <c r="A835" s="8"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="4"/>
+      <c r="A836" s="8"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="4"/>
+      <c r="A837" s="8"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="4"/>
+      <c r="A838" s="8"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="4"/>
+      <c r="A839" s="8"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="4"/>
+      <c r="A840" s="8"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="6" t="s">
+      <c r="A841" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="6"/>
+      <c r="A842" s="7"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="6"/>
+      <c r="A843" s="7"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="6"/>
+      <c r="A844" s="7"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="4"/>
+      <c r="A845" s="8"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="4"/>
+      <c r="A846" s="8"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="4"/>
+      <c r="A847" s="8"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="4"/>
+      <c r="A848" s="8"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="4"/>
+      <c r="A849" s="8"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="5"/>
+      <c r="A850" s="9"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="5"/>
+      <c r="A851" s="9"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="5"/>
+      <c r="A852" s="9"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="4"/>
+      <c r="A853" s="8"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="4"/>
+      <c r="A854" s="8"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="4"/>
+      <c r="A855" s="8"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="4"/>
+      <c r="A856" s="8"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="4"/>
+      <c r="A857" s="8"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="4"/>
+      <c r="A858" s="8"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="4"/>
+      <c r="A859" s="8"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="4"/>
+      <c r="A860" s="8"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="6" t="s">
+      <c r="A861" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="6"/>
+      <c r="A862" s="7"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="6"/>
+      <c r="A863" s="7"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="6"/>
+      <c r="A864" s="7"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="4"/>
+      <c r="A865" s="8"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="4"/>
+      <c r="A866" s="8"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="4"/>
+      <c r="A867" s="8"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="4"/>
+      <c r="A868" s="8"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="4"/>
+      <c r="A869" s="8"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="5"/>
+      <c r="A870" s="9"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="5"/>
+      <c r="A871" s="9"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="5"/>
+      <c r="A872" s="9"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="4"/>
+      <c r="A873" s="8"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="4"/>
+      <c r="A874" s="8"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="4"/>
+      <c r="A875" s="8"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="4"/>
+      <c r="A876" s="8"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="4"/>
+      <c r="A877" s="8"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="4"/>
+      <c r="A878" s="8"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="4"/>
+      <c r="A879" s="8"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="4"/>
+      <c r="A880" s="8"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="6" t="s">
+      <c r="A881" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="6"/>
+      <c r="A882" s="7"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="6"/>
+      <c r="A883" s="7"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="6"/>
+      <c r="A884" s="7"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="4"/>
+      <c r="A885" s="8"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="4"/>
+      <c r="A886" s="8"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="4"/>
+      <c r="A887" s="8"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="4"/>
+      <c r="A888" s="8"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="4"/>
+      <c r="A889" s="8"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="5"/>
+      <c r="A890" s="9"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="5"/>
+      <c r="A891" s="9"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="5"/>
+      <c r="A892" s="9"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="4"/>
+      <c r="A893" s="8"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="4"/>
+      <c r="A894" s="8"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="4"/>
+      <c r="A895" s="8"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="4"/>
+      <c r="A896" s="8"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="4"/>
+      <c r="A897" s="8"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="4"/>
+      <c r="A898" s="8"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="4"/>
+      <c r="A899" s="8"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="4"/>
+      <c r="A900" s="8"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="6" t="s">
+      <c r="A901" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="6"/>
+      <c r="A902" s="7"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="6"/>
+      <c r="A903" s="7"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="6"/>
+      <c r="A904" s="7"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="4"/>
+      <c r="A905" s="8"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="4"/>
+      <c r="A906" s="8"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="4"/>
+      <c r="A907" s="8"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="4"/>
+      <c r="A908" s="8"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="4"/>
+      <c r="A909" s="8"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="5"/>
+      <c r="A910" s="9"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="5"/>
+      <c r="A911" s="9"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="5"/>
+      <c r="A912" s="9"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="4"/>
+      <c r="A913" s="8"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="4"/>
+      <c r="A914" s="8"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="4"/>
+      <c r="A915" s="8"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="4"/>
+      <c r="A916" s="8"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="4"/>
+      <c r="A917" s="8"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="4"/>
+      <c r="A918" s="8"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="4"/>
+      <c r="A919" s="8"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="4"/>
+      <c r="A920" s="8"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="6" t="s">
+      <c r="A921" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="6"/>
+      <c r="A922" s="7"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="6"/>
+      <c r="A923" s="7"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="6"/>
+      <c r="A924" s="7"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="4"/>
+      <c r="A925" s="8"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="4"/>
+      <c r="A926" s="8"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="4"/>
+      <c r="A927" s="8"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="4"/>
+      <c r="A928" s="8"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="4"/>
+      <c r="A929" s="8"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="5"/>
+      <c r="A930" s="9"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="5"/>
+      <c r="A931" s="9"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="5"/>
+      <c r="A932" s="9"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="4"/>
+      <c r="A933" s="8"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="4"/>
+      <c r="A934" s="8"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="4"/>
+      <c r="A935" s="8"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="4"/>
+      <c r="A936" s="8"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="4"/>
+      <c r="A937" s="8"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="4"/>
+      <c r="A938" s="8"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="4"/>
+      <c r="A939" s="8"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="4"/>
+      <c r="A940" s="8"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="6" t="s">
+      <c r="A941" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="6"/>
+      <c r="A942" s="7"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="6"/>
+      <c r="A943" s="7"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="6"/>
+      <c r="A944" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A445:A448"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="A425:A428"/>
-    <mergeCell ref="A429:A432"/>
-    <mergeCell ref="A433:A436"/>
-    <mergeCell ref="A437:A440"/>
-    <mergeCell ref="A401:A404"/>
-    <mergeCell ref="A405:A408"/>
-    <mergeCell ref="A409:A412"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A389:A392"/>
-    <mergeCell ref="A393:A396"/>
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A365:A368"/>
-    <mergeCell ref="A369:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A360"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A929:A932"/>
+    <mergeCell ref="A933:A936"/>
+    <mergeCell ref="A937:A940"/>
+    <mergeCell ref="A941:A944"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="A471:A472"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="A477:A478"/>
+    <mergeCell ref="A479:A480"/>
+    <mergeCell ref="A893:A896"/>
+    <mergeCell ref="A897:A900"/>
+    <mergeCell ref="A901:A904"/>
+    <mergeCell ref="A905:A908"/>
+    <mergeCell ref="A909:A912"/>
+    <mergeCell ref="A913:A916"/>
+    <mergeCell ref="A917:A920"/>
+    <mergeCell ref="A921:A924"/>
+    <mergeCell ref="A925:A928"/>
+    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A645:A648"/>
+    <mergeCell ref="A649:A652"/>
+    <mergeCell ref="A653:A656"/>
+    <mergeCell ref="A657:A660"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="A125:A128"/>
@@ -4258,152 +4352,83 @@
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A481:A484"/>
-    <mergeCell ref="A485:A488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="A493:A496"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A497:A500"/>
-    <mergeCell ref="A501:A504"/>
-    <mergeCell ref="A505:A508"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="A517:A520"/>
-    <mergeCell ref="A521:A524"/>
-    <mergeCell ref="A525:A528"/>
-    <mergeCell ref="A529:A532"/>
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="A541:A544"/>
-    <mergeCell ref="A545:A548"/>
-    <mergeCell ref="A549:A552"/>
-    <mergeCell ref="A553:A556"/>
-    <mergeCell ref="A557:A560"/>
-    <mergeCell ref="A561:A564"/>
-    <mergeCell ref="A565:A568"/>
-    <mergeCell ref="A569:A572"/>
-    <mergeCell ref="A573:A576"/>
-    <mergeCell ref="A577:A580"/>
-    <mergeCell ref="A581:A584"/>
-    <mergeCell ref="A585:A588"/>
-    <mergeCell ref="A589:A592"/>
-    <mergeCell ref="A593:A596"/>
-    <mergeCell ref="A597:A600"/>
-    <mergeCell ref="A601:A604"/>
-    <mergeCell ref="A605:A608"/>
-    <mergeCell ref="A609:A612"/>
-    <mergeCell ref="A613:A616"/>
-    <mergeCell ref="A617:A620"/>
-    <mergeCell ref="A621:A624"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A629:A632"/>
-    <mergeCell ref="A633:A636"/>
-    <mergeCell ref="A637:A640"/>
-    <mergeCell ref="A641:A644"/>
-    <mergeCell ref="A645:A648"/>
-    <mergeCell ref="A649:A652"/>
-    <mergeCell ref="A653:A656"/>
-    <mergeCell ref="A657:A660"/>
-    <mergeCell ref="A661:A664"/>
-    <mergeCell ref="A665:A668"/>
-    <mergeCell ref="A669:A672"/>
-    <mergeCell ref="A673:A676"/>
-    <mergeCell ref="A677:A680"/>
-    <mergeCell ref="A681:A684"/>
-    <mergeCell ref="A685:A688"/>
-    <mergeCell ref="A689:A692"/>
-    <mergeCell ref="A693:A696"/>
-    <mergeCell ref="A697:A700"/>
-    <mergeCell ref="A701:A704"/>
-    <mergeCell ref="A705:A708"/>
-    <mergeCell ref="A709:A712"/>
-    <mergeCell ref="A713:A716"/>
-    <mergeCell ref="A717:A720"/>
-    <mergeCell ref="A721:A724"/>
-    <mergeCell ref="A725:A728"/>
-    <mergeCell ref="A729:A732"/>
-    <mergeCell ref="A733:A736"/>
-    <mergeCell ref="A737:A740"/>
-    <mergeCell ref="A741:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A761:A764"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A772"/>
-    <mergeCell ref="A773:A776"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="A805:A808"/>
-    <mergeCell ref="A809:A812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="A817:A820"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A885:A888"/>
-    <mergeCell ref="A889:A892"/>
-    <mergeCell ref="A821:A824"/>
-    <mergeCell ref="A825:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A929:A932"/>
-    <mergeCell ref="A933:A936"/>
-    <mergeCell ref="A937:A940"/>
-    <mergeCell ref="A941:A944"/>
-    <mergeCell ref="A459:A460"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="A477:A478"/>
-    <mergeCell ref="A479:A480"/>
-    <mergeCell ref="A893:A896"/>
-    <mergeCell ref="A897:A900"/>
-    <mergeCell ref="A901:A904"/>
-    <mergeCell ref="A905:A908"/>
-    <mergeCell ref="A909:A912"/>
-    <mergeCell ref="A913:A916"/>
-    <mergeCell ref="A917:A920"/>
-    <mergeCell ref="A921:A924"/>
-    <mergeCell ref="A925:A928"/>
-    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9716B94-F6CF-4C30-8405-FDBD73736263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F11A34F-13A1-4898-AF6E-7A9F4C796E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>B01</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>KJ32172</t>
+  </si>
+  <si>
+    <t>8122 Rojo</t>
   </si>
 </sst>
 </file>
@@ -681,18 +684,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,7 +691,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,6 +707,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
   <dimension ref="A1:B944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="C671" sqref="C671"/>
+    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="A681" sqref="A681:A684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,578 +1040,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="7"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="5"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="5"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="5"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="5"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="5"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="5"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="7"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="5"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="5"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="5"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="5"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="5"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="5"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="5"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="5"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="5"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="5"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="5"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="5"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="5"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="5"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
+      <c r="A155" s="5"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="5"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="5"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="5"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="5"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="5"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -1677,2558 +1680,2784 @@
       <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
+      <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+      <c r="A183" s="13"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
+      <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
+      <c r="A186" s="5"/>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="5"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="6"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="6"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="6"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="5"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
+      <c r="A195" s="5"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="5"/>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="5"/>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="5"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="13"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
+      <c r="A203" s="13"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+      <c r="A204" s="13"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="5"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
+      <c r="A207" s="5"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
+      <c r="A208" s="5"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="6"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
+      <c r="A211" s="6"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
+      <c r="A212" s="6"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
+      <c r="A214" s="5"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
+      <c r="A215" s="5"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
+      <c r="A217" s="5"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
+      <c r="A218" s="5"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
+      <c r="A219" s="5"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
+      <c r="A220" s="5"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
+      <c r="A226" s="5"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
+      <c r="A227" s="5"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+      <c r="A228" s="5"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
+      <c r="A230" s="6"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="6"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="6"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="9"/>
+      <c r="A234" s="5"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
+      <c r="A235" s="5"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+      <c r="A236" s="5"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
+      <c r="A238" s="9"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
+      <c r="A240" s="9"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="8"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
+      <c r="A246" s="5"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
+      <c r="A247" s="5"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+      <c r="A248" s="5"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="6"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="6"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
+      <c r="A252" s="6"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="A254" s="5"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
+      <c r="A255" s="5"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
+      <c r="A256" s="5"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+      <c r="A258" s="5"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
+      <c r="A259" s="5"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+      <c r="A260" s="5"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+      <c r="A266" s="5"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
+      <c r="A267" s="5"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
+      <c r="A268" s="5"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
+      <c r="A269" s="5"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
+      <c r="A270" s="6"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="6"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="6"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
+      <c r="A273" s="5"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
+      <c r="A274" s="5"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
+      <c r="A275" s="5"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
+      <c r="A276" s="5"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+      <c r="A277" s="5"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
+      <c r="A278" s="5"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
+      <c r="A279" s="5"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
+      <c r="A280" s="5"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
+      <c r="A286" s="5"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
+      <c r="A287" s="5"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
+      <c r="A288" s="5"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
+      <c r="A290" s="6"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
+      <c r="A291" s="6"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
+      <c r="A292" s="6"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
+      <c r="A294" s="5"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
+      <c r="A295" s="5"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
+      <c r="A296" s="5"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
+      <c r="A297" s="5"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
+      <c r="A298" s="5"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
+      <c r="A299" s="5"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
+      <c r="A300" s="5"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="s">
+      <c r="A301" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="8"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
+      <c r="A306" s="5"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
+      <c r="A307" s="5"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
+      <c r="A308" s="5"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
+      <c r="A310" s="6"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10"/>
+      <c r="A311" s="6"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10"/>
+      <c r="A312" s="6"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
+      <c r="A314" s="5"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
+      <c r="A315" s="5"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
+      <c r="A316" s="5"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
+      <c r="A317" s="5"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="9"/>
+      <c r="A318" s="5"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
+      <c r="A319" s="5"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
+      <c r="A320" s="5"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="8" t="s">
+      <c r="A321" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="8"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="8"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="8"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
+      <c r="A326" s="5"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
+      <c r="A327" s="5"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="9"/>
+      <c r="A328" s="5"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="10"/>
+      <c r="A330" s="6"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
+      <c r="A331" s="6"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10"/>
+      <c r="A332" s="6"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
+      <c r="A334" s="5"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
+      <c r="A335" s="5"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="9"/>
+      <c r="A336" s="5"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="9">
+      <c r="A337" s="5">
         <v>8375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="9"/>
+      <c r="A338" s="5"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="9"/>
+      <c r="A339" s="5"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="9"/>
+      <c r="A340" s="5"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8" t="s">
+      <c r="A341" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="8"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="8"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="9"/>
+      <c r="A346" s="5"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="9"/>
+      <c r="A347" s="5"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="9"/>
+      <c r="A348" s="5"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="10"/>
+      <c r="A350" s="6"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="10"/>
+      <c r="A351" s="6"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="10"/>
+      <c r="A352" s="6"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="9"/>
+      <c r="A354" s="5"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="9"/>
+      <c r="A355" s="5"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="9"/>
+      <c r="A356" s="5"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="9"/>
+      <c r="A358" s="5"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="9"/>
+      <c r="A359" s="5"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="9"/>
+      <c r="A360" s="5"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8" t="s">
+      <c r="A361" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="8"/>
+      <c r="A362" s="7"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="8"/>
+      <c r="A363" s="7"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="9"/>
+      <c r="A366" s="5"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="9"/>
+      <c r="A367" s="5"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="9"/>
+      <c r="A368" s="5"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10"/>
+      <c r="A370" s="6"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10"/>
+      <c r="A371" s="6"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10"/>
+      <c r="A372" s="6"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="9"/>
+      <c r="A373" s="5"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="9"/>
+      <c r="A374" s="5"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="9"/>
+      <c r="A375" s="5"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="9"/>
+      <c r="A376" s="5"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="9"/>
+      <c r="A377" s="5"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="9"/>
+      <c r="A378" s="5"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="9"/>
+      <c r="A379" s="5"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="9"/>
+      <c r="A380" s="5"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="8"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="8"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="8"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="9"/>
+      <c r="A386" s="5"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="9"/>
+      <c r="A387" s="5"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="9"/>
+      <c r="A388" s="5"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="10"/>
+      <c r="A390" s="6"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="10"/>
+      <c r="A391" s="6"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="10"/>
+      <c r="A392" s="6"/>
     </row>
     <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="9">
+      <c r="A393" s="5">
         <v>2109</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="9"/>
+      <c r="A394" s="5"/>
     </row>
     <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="9"/>
+      <c r="A395" s="5"/>
     </row>
     <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="9"/>
+      <c r="A396" s="5"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="9"/>
+      <c r="A398" s="5"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="9"/>
+      <c r="A399" s="5"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="9"/>
+      <c r="A400" s="5"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="8"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="8"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="9"/>
+      <c r="A406" s="5"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="9"/>
+      <c r="A407" s="5"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="9"/>
+      <c r="A408" s="5"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="10"/>
+      <c r="A410" s="6"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="10"/>
+      <c r="A411" s="6"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="10"/>
+      <c r="A412" s="6"/>
     </row>
     <row r="413" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+      <c r="A413" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="5"/>
+      <c r="A414" s="14"/>
     </row>
     <row r="415" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="5">
+      <c r="A415" s="14">
         <v>889</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="6"/>
+      <c r="A416" s="9"/>
     </row>
     <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="7" t="s">
+      <c r="A417" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="6"/>
+      <c r="A418" s="9"/>
     </row>
     <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+      <c r="A419" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
+      <c r="A420" s="9"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="8"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="8"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="8"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="9" t="s">
+      <c r="A425" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="9"/>
+      <c r="A426" s="5"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="9"/>
+      <c r="A427" s="5"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="9"/>
+      <c r="A428" s="5"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="10"/>
+      <c r="A430" s="6"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="10"/>
+      <c r="A431" s="6"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="10"/>
+      <c r="A432" s="6"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="9"/>
+      <c r="A433" s="5"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="9"/>
+      <c r="A434" s="5"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="9"/>
+      <c r="A435" s="5"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="9"/>
+      <c r="A436" s="5"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="9"/>
+      <c r="A437" s="5"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="9"/>
+      <c r="A438" s="5"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="9"/>
+      <c r="A439" s="5"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="9"/>
+      <c r="A440" s="5"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="8" t="s">
+      <c r="A441" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="8"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="8"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="8"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="9" t="s">
+      <c r="A445" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="9"/>
+      <c r="A446" s="5"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="9"/>
+      <c r="A447" s="5"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="9"/>
+      <c r="A448" s="5"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="10"/>
+      <c r="A450" s="6"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="10"/>
+      <c r="A451" s="6"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="10"/>
+      <c r="A452" s="6"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="9" t="s">
+      <c r="A453" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="9"/>
+      <c r="A454" s="5"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="9"/>
+      <c r="A455" s="5"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="9"/>
+      <c r="A456" s="5"/>
     </row>
     <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+      <c r="A457" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="6"/>
+      <c r="A458" s="9"/>
     </row>
     <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="7" t="s">
+      <c r="A459" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="6"/>
+      <c r="A460" s="9"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="8" t="s">
+      <c r="A461" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="8"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="8"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7" t="s">
+      <c r="A465" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="6"/>
+      <c r="A466" s="9"/>
     </row>
     <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="7" t="s">
+      <c r="A467" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="6"/>
+      <c r="A468" s="9"/>
     </row>
     <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="7" t="s">
+      <c r="A469" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
+      <c r="A470" s="9"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="7" t="s">
+      <c r="A471" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="6"/>
+      <c r="A472" s="9"/>
     </row>
     <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="7" t="s">
+      <c r="A473" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="6"/>
+      <c r="A474" s="9"/>
     </row>
     <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="7" t="s">
+      <c r="A475" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="6"/>
+      <c r="A476" s="9"/>
     </row>
     <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="7"/>
+      <c r="A477" s="8"/>
     </row>
     <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="6"/>
+      <c r="A478" s="9"/>
     </row>
     <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="7"/>
+      <c r="A479" s="8"/>
     </row>
     <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="6"/>
+      <c r="A480" s="9"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="8" t="s">
+      <c r="A481" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="8"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="8"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="8"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="9"/>
+      <c r="A486" s="5"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="9"/>
+      <c r="A487" s="5"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="9"/>
+      <c r="A488" s="5"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="10"/>
+      <c r="A490" s="6"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="10"/>
+      <c r="A491" s="6"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="10"/>
+      <c r="A492" s="6"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="9" t="s">
+      <c r="A493" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="9"/>
+      <c r="A494" s="5"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="9"/>
+      <c r="A495" s="5"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="9"/>
+      <c r="A496" s="5"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="9" t="s">
+      <c r="A497" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="9"/>
+      <c r="A498" s="5"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="9"/>
+      <c r="A499" s="5"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="9"/>
+      <c r="A500" s="5"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="8" t="s">
+      <c r="A501" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="8"/>
+      <c r="A502" s="7"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="8"/>
+      <c r="A503" s="7"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="8"/>
+      <c r="A504" s="7"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="9" t="s">
+      <c r="A505" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="9"/>
+      <c r="A506" s="5"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="9"/>
+      <c r="A507" s="5"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="9"/>
+      <c r="A508" s="5"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="9" t="s">
+      <c r="A509" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="10"/>
+      <c r="A510" s="6"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="10"/>
+      <c r="A511" s="6"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="10"/>
+      <c r="A512" s="6"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="9"/>
+      <c r="A514" s="5"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="9"/>
+      <c r="A515" s="5"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="9"/>
+      <c r="A516" s="5"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="9"/>
+      <c r="A517" s="5"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="9"/>
+      <c r="A518" s="5"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="9"/>
+      <c r="A519" s="5"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="9"/>
+      <c r="A520" s="5"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="8" t="s">
+      <c r="A521" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="8"/>
+      <c r="A522" s="7"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="8"/>
+      <c r="A523" s="7"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="8"/>
+      <c r="A524" s="7"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="9"/>
+      <c r="A526" s="5"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="9"/>
+      <c r="A527" s="5"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="9"/>
+      <c r="A528" s="5"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="9" t="s">
+      <c r="A529" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="10"/>
+      <c r="A530" s="6"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="10"/>
+      <c r="A531" s="6"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="10"/>
+      <c r="A532" s="6"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="9" t="s">
+      <c r="A533" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="9"/>
+      <c r="A534" s="5"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="9"/>
+      <c r="A535" s="5"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="9"/>
+      <c r="A536" s="5"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="9"/>
+      <c r="A537" s="5"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="9"/>
+      <c r="A538" s="5"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="9"/>
+      <c r="A539" s="5"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="9"/>
+      <c r="A540" s="5"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="8" t="s">
+      <c r="A541" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="8"/>
+      <c r="A542" s="7"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="8"/>
+      <c r="A543" s="7"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="8"/>
+      <c r="A544" s="7"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="9" t="s">
+      <c r="A545" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="9"/>
+      <c r="A546" s="5"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="9"/>
+      <c r="A547" s="5"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="9"/>
+      <c r="A548" s="5"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="9" t="s">
+      <c r="A549" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="10"/>
+      <c r="A550" s="6"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="10"/>
+      <c r="A551" s="6"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="10"/>
+      <c r="A552" s="6"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="9" t="s">
+      <c r="A553" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="9"/>
+      <c r="A554" s="5"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="9"/>
+      <c r="A555" s="5"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="9"/>
+      <c r="A556" s="5"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="9" t="s">
+      <c r="A557" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="9"/>
+      <c r="A558" s="5"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="9"/>
+      <c r="A559" s="5"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="9"/>
+      <c r="A560" s="5"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="8" t="s">
+      <c r="A561" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="8"/>
+      <c r="A562" s="7"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="8"/>
+      <c r="A563" s="7"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="8"/>
+      <c r="A564" s="7"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="9" t="s">
+      <c r="A565" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="9"/>
+      <c r="A566" s="5"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="9"/>
+      <c r="A567" s="5"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="9"/>
+      <c r="A568" s="5"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="9" t="s">
+      <c r="A569" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="10"/>
+      <c r="A570" s="6"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="10"/>
+      <c r="A571" s="6"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="10"/>
+      <c r="A572" s="6"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="9"/>
+      <c r="A573" s="5"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="9"/>
+      <c r="A574" s="5"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="9"/>
+      <c r="A575" s="5"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="9"/>
+      <c r="A576" s="5"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="9"/>
+      <c r="A577" s="5"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="9"/>
+      <c r="A578" s="5"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="9"/>
+      <c r="A579" s="5"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="9"/>
+      <c r="A580" s="5"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="8" t="s">
+      <c r="A581" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="8"/>
+      <c r="A582" s="7"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="8"/>
+      <c r="A583" s="7"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="8"/>
+      <c r="A584" s="7"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="9"/>
+      <c r="A586" s="5"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="9"/>
+      <c r="A587" s="5"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="9"/>
+      <c r="A588" s="5"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="9" t="s">
+      <c r="A589" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="10"/>
+      <c r="A590" s="6"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="10"/>
+      <c r="A591" s="6"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="10"/>
+      <c r="A592" s="6"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="9" t="s">
+      <c r="A593" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="9"/>
+      <c r="A594" s="5"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="9"/>
+      <c r="A595" s="5"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="9"/>
+      <c r="A596" s="5"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="9" t="s">
+      <c r="A597" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="9"/>
+      <c r="A598" s="5"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="9"/>
+      <c r="A599" s="5"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="9"/>
+      <c r="A600" s="5"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="8" t="s">
+      <c r="A601" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="8"/>
+      <c r="A602" s="7"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="8"/>
+      <c r="A603" s="7"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="8"/>
+      <c r="A604" s="7"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="9" t="s">
+      <c r="A605" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="9"/>
+      <c r="A606" s="5"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="9"/>
+      <c r="A607" s="5"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="9"/>
+      <c r="A608" s="5"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="9" t="s">
+      <c r="A609" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="10"/>
+      <c r="A610" s="6"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="10"/>
+      <c r="A611" s="6"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="10"/>
+      <c r="A612" s="6"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="9"/>
+      <c r="A613" s="5"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="9"/>
+      <c r="A614" s="5"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="9"/>
+      <c r="A615" s="5"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="9"/>
+      <c r="A616" s="5"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="9"/>
+      <c r="A617" s="5"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="9"/>
+      <c r="A618" s="5"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="9"/>
+      <c r="A619" s="5"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="9"/>
+      <c r="A620" s="5"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="8" t="s">
+      <c r="A621" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="8"/>
+      <c r="A622" s="7"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="8"/>
+      <c r="A623" s="7"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="8"/>
+      <c r="A624" s="7"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="9"/>
+      <c r="A626" s="5"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="9"/>
+      <c r="A627" s="5"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="9"/>
+      <c r="A628" s="5"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="9" t="s">
+      <c r="A629" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="10"/>
+      <c r="A630" s="6"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="10"/>
+      <c r="A631" s="6"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="10"/>
+      <c r="A632" s="6"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="9" t="s">
+      <c r="A633" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="9"/>
+      <c r="A634" s="5"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="9"/>
+      <c r="A635" s="5"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="9"/>
+      <c r="A636" s="5"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="9"/>
+      <c r="A637" s="5"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="9"/>
+      <c r="A638" s="5"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="9"/>
+      <c r="A639" s="5"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="9"/>
+      <c r="A640" s="5"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="8" t="s">
+      <c r="A641" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="8"/>
+      <c r="A642" s="7"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="8"/>
+      <c r="A643" s="7"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="8"/>
+      <c r="A644" s="7"/>
     </row>
     <row r="645" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="12" t="s">
+      <c r="A645" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="13"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="14"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="12" t="s">
+      <c r="A648" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="13"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="14"/>
+      <c r="A650" s="12"/>
     </row>
     <row r="651" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="12" t="s">
+      <c r="A651" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="13"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="14"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="12" t="s">
+      <c r="A654" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="13"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="14"/>
+      <c r="A656" s="12"/>
     </row>
     <row r="657" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="12" t="s">
+      <c r="A657" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="13"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="14"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="4"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="8" t="s">
+      <c r="A661" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="8"/>
+      <c r="A662" s="7"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="8"/>
+      <c r="A663" s="7"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="8"/>
+      <c r="A664" s="7"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="9" t="s">
+      <c r="A665" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="9"/>
+      <c r="A666" s="5"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="9"/>
+      <c r="A667" s="5"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="9"/>
+      <c r="A668" s="5"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="9" t="s">
+      <c r="A669" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="10"/>
+      <c r="A670" s="6"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="10"/>
+      <c r="A671" s="6"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="10"/>
+      <c r="A672" s="6"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="9"/>
+      <c r="A673" s="5"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="9"/>
+      <c r="A674" s="5"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="9"/>
+      <c r="A675" s="5"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="9"/>
+      <c r="A676" s="5"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="9"/>
+      <c r="A677" s="5"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="9"/>
+      <c r="A678" s="5"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="9"/>
+      <c r="A679" s="5"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="9"/>
+      <c r="A680" s="5"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="8" t="s">
+      <c r="A681" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="8"/>
+      <c r="A682" s="7"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="8"/>
+      <c r="A683" s="7"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="8"/>
+      <c r="A684" s="7"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="9"/>
+      <c r="A685" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="9"/>
+      <c r="A686" s="5"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="9"/>
+      <c r="A687" s="5"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="9"/>
+      <c r="A688" s="5"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="9"/>
+      <c r="A689" s="5"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="10"/>
+      <c r="A690" s="6"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="10"/>
+      <c r="A691" s="6"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="10"/>
+      <c r="A692" s="6"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="9"/>
+      <c r="A693" s="5"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="9"/>
+      <c r="A694" s="5"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="9"/>
+      <c r="A695" s="5"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="9"/>
+      <c r="A696" s="5"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="9"/>
+      <c r="A697" s="5"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="9"/>
+      <c r="A698" s="5"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="9"/>
+      <c r="A699" s="5"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="9"/>
+      <c r="A700" s="5"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="8" t="s">
+      <c r="A701" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="8"/>
+      <c r="A702" s="7"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="8"/>
+      <c r="A703" s="7"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="8"/>
+      <c r="A704" s="7"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="9"/>
+      <c r="A705" s="5"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="9"/>
+      <c r="A706" s="5"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="9"/>
+      <c r="A707" s="5"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="9"/>
+      <c r="A708" s="5"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="9"/>
+      <c r="A709" s="5"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="10"/>
+      <c r="A710" s="6"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="10"/>
+      <c r="A711" s="6"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="10"/>
+      <c r="A712" s="6"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="9"/>
+      <c r="A713" s="5"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="9"/>
+      <c r="A714" s="5"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="9"/>
+      <c r="A715" s="5"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="9"/>
+      <c r="A716" s="5"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="9"/>
+      <c r="A717" s="5"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="9"/>
+      <c r="A718" s="5"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="9"/>
+      <c r="A719" s="5"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="9"/>
+      <c r="A720" s="5"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="8" t="s">
+      <c r="A721" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="8"/>
+      <c r="A722" s="7"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="8"/>
+      <c r="A723" s="7"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="8"/>
+      <c r="A724" s="7"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="9"/>
+      <c r="A725" s="5"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="9"/>
+      <c r="A726" s="5"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="9"/>
+      <c r="A727" s="5"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="9"/>
+      <c r="A728" s="5"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="9"/>
+      <c r="A729" s="5"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="10"/>
+      <c r="A730" s="6"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="10"/>
+      <c r="A731" s="6"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="10"/>
+      <c r="A732" s="6"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="9"/>
+      <c r="A733" s="5"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="9"/>
+      <c r="A734" s="5"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="9"/>
+      <c r="A735" s="5"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="9"/>
+      <c r="A736" s="5"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="9"/>
+      <c r="A737" s="5"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="9"/>
+      <c r="A738" s="5"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="9"/>
+      <c r="A739" s="5"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="9"/>
+      <c r="A740" s="5"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="8" t="s">
+      <c r="A741" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="8"/>
+      <c r="A742" s="7"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="8"/>
+      <c r="A743" s="7"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="8"/>
+      <c r="A744" s="7"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="9"/>
+      <c r="A745" s="5"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="9"/>
+      <c r="A746" s="5"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="9"/>
+      <c r="A747" s="5"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="9"/>
+      <c r="A748" s="5"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="9"/>
+      <c r="A749" s="5"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="10"/>
+      <c r="A750" s="6"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="10"/>
+      <c r="A751" s="6"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="10"/>
+      <c r="A752" s="6"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="9"/>
+      <c r="A753" s="5"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="9"/>
+      <c r="A754" s="5"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="9"/>
+      <c r="A755" s="5"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="9"/>
+      <c r="A756" s="5"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="9"/>
+      <c r="A757" s="5"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="9"/>
+      <c r="A758" s="5"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="9"/>
+      <c r="A759" s="5"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="9"/>
+      <c r="A760" s="5"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="8" t="s">
+      <c r="A761" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="8"/>
+      <c r="A762" s="7"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="8"/>
+      <c r="A763" s="7"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="8"/>
+      <c r="A764" s="7"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="9"/>
+      <c r="A765" s="5"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="9"/>
+      <c r="A766" s="5"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="9"/>
+      <c r="A767" s="5"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="9"/>
+      <c r="A768" s="5"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="9"/>
+      <c r="A769" s="5"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="10"/>
+      <c r="A770" s="6"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="10"/>
+      <c r="A771" s="6"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="10"/>
+      <c r="A772" s="6"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="9"/>
+      <c r="A773" s="5"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="9"/>
+      <c r="A774" s="5"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="9"/>
+      <c r="A775" s="5"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="9"/>
+      <c r="A776" s="5"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="9"/>
+      <c r="A777" s="5"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="9"/>
+      <c r="A778" s="5"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="9"/>
+      <c r="A779" s="5"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="9"/>
+      <c r="A780" s="5"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="8" t="s">
+      <c r="A781" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="8"/>
+      <c r="A782" s="7"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="8"/>
+      <c r="A783" s="7"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="8"/>
+      <c r="A784" s="7"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="9"/>
+      <c r="A785" s="5"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="9"/>
+      <c r="A786" s="5"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="9"/>
+      <c r="A787" s="5"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="9"/>
+      <c r="A788" s="5"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="9"/>
+      <c r="A789" s="5"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="10"/>
+      <c r="A790" s="6"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="10"/>
+      <c r="A791" s="6"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="10"/>
+      <c r="A792" s="6"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="9"/>
+      <c r="A793" s="5"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="9"/>
+      <c r="A794" s="5"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="9"/>
+      <c r="A795" s="5"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="9"/>
+      <c r="A796" s="5"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="9"/>
+      <c r="A797" s="5"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="9"/>
+      <c r="A798" s="5"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="9"/>
+      <c r="A799" s="5"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="9"/>
+      <c r="A800" s="5"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="8" t="s">
+      <c r="A801" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="8"/>
+      <c r="A802" s="7"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="8"/>
+      <c r="A803" s="7"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="8"/>
+      <c r="A804" s="7"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="9"/>
+      <c r="A805" s="5"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="9"/>
+      <c r="A806" s="5"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="9"/>
+      <c r="A807" s="5"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="9"/>
+      <c r="A808" s="5"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="9"/>
+      <c r="A809" s="5"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="10"/>
+      <c r="A810" s="6"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="10"/>
+      <c r="A811" s="6"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="10"/>
+      <c r="A812" s="6"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="9"/>
+      <c r="A813" s="5"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="9"/>
+      <c r="A814" s="5"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="9"/>
+      <c r="A815" s="5"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="9"/>
+      <c r="A816" s="5"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="9"/>
+      <c r="A817" s="5"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="9"/>
+      <c r="A818" s="5"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="9"/>
+      <c r="A819" s="5"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="9"/>
+      <c r="A820" s="5"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="8" t="s">
+      <c r="A821" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="8"/>
+      <c r="A822" s="7"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="8"/>
+      <c r="A823" s="7"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="8"/>
+      <c r="A824" s="7"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="9"/>
+      <c r="A825" s="5"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="9"/>
+      <c r="A826" s="5"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="9"/>
+      <c r="A827" s="5"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="9"/>
+      <c r="A828" s="5"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="9"/>
+      <c r="A829" s="5"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="10"/>
+      <c r="A830" s="6"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="10"/>
+      <c r="A831" s="6"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="10"/>
+      <c r="A832" s="6"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="9"/>
+      <c r="A833" s="5"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="9"/>
+      <c r="A834" s="5"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="9"/>
+      <c r="A835" s="5"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="9"/>
+      <c r="A836" s="5"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="9"/>
+      <c r="A837" s="5"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="9"/>
+      <c r="A838" s="5"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="9"/>
+      <c r="A839" s="5"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="9"/>
+      <c r="A840" s="5"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="8" t="s">
+      <c r="A841" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="8"/>
+      <c r="A842" s="7"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="8"/>
+      <c r="A843" s="7"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="8"/>
+      <c r="A844" s="7"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="9"/>
+      <c r="A845" s="5"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="9"/>
+      <c r="A846" s="5"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="9"/>
+      <c r="A847" s="5"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="9"/>
+      <c r="A848" s="5"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="9"/>
+      <c r="A849" s="5"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="10"/>
+      <c r="A850" s="6"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="10"/>
+      <c r="A851" s="6"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="10"/>
+      <c r="A852" s="6"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="9"/>
+      <c r="A853" s="5"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="9"/>
+      <c r="A854" s="5"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="9"/>
+      <c r="A855" s="5"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="9"/>
+      <c r="A856" s="5"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="9"/>
+      <c r="A857" s="5"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="9"/>
+      <c r="A858" s="5"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="9"/>
+      <c r="A859" s="5"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="9"/>
+      <c r="A860" s="5"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="8" t="s">
+      <c r="A861" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="8"/>
+      <c r="A862" s="7"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="8"/>
+      <c r="A863" s="7"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="8"/>
+      <c r="A864" s="7"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="9"/>
+      <c r="A865" s="5"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="9"/>
+      <c r="A866" s="5"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="9"/>
+      <c r="A867" s="5"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="9"/>
+      <c r="A868" s="5"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="9"/>
+      <c r="A869" s="5"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="10"/>
+      <c r="A870" s="6"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="10"/>
+      <c r="A871" s="6"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="10"/>
+      <c r="A872" s="6"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="9"/>
+      <c r="A873" s="5"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="9"/>
+      <c r="A874" s="5"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="9"/>
+      <c r="A875" s="5"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="9"/>
+      <c r="A876" s="5"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="9"/>
+      <c r="A877" s="5"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="9"/>
+      <c r="A878" s="5"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="9"/>
+      <c r="A879" s="5"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="9"/>
+      <c r="A880" s="5"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="8" t="s">
+      <c r="A881" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="8"/>
+      <c r="A882" s="7"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="8"/>
+      <c r="A883" s="7"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="8"/>
+      <c r="A884" s="7"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="9"/>
+      <c r="A885" s="5"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="9"/>
+      <c r="A886" s="5"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="9"/>
+      <c r="A887" s="5"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="9"/>
+      <c r="A888" s="5"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="9"/>
+      <c r="A889" s="5"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="10"/>
+      <c r="A890" s="6"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="10"/>
+      <c r="A891" s="6"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="10"/>
+      <c r="A892" s="6"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="9"/>
+      <c r="A893" s="5"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="9"/>
+      <c r="A894" s="5"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="9"/>
+      <c r="A895" s="5"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="9"/>
+      <c r="A896" s="5"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="9"/>
+      <c r="A897" s="5"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="9"/>
+      <c r="A898" s="5"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="9"/>
+      <c r="A899" s="5"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="9"/>
+      <c r="A900" s="5"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="8" t="s">
+      <c r="A901" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="8"/>
+      <c r="A902" s="7"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="8"/>
+      <c r="A903" s="7"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="8"/>
+      <c r="A904" s="7"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="9"/>
+      <c r="A905" s="5"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="9"/>
+      <c r="A906" s="5"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="9"/>
+      <c r="A907" s="5"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="9"/>
+      <c r="A908" s="5"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="9"/>
+      <c r="A909" s="5"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="10"/>
+      <c r="A910" s="6"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="10"/>
+      <c r="A911" s="6"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="10"/>
+      <c r="A912" s="6"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="9"/>
+      <c r="A913" s="5"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="9"/>
+      <c r="A914" s="5"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="9"/>
+      <c r="A915" s="5"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="9"/>
+      <c r="A916" s="5"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="9"/>
+      <c r="A917" s="5"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="9"/>
+      <c r="A918" s="5"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="9"/>
+      <c r="A919" s="5"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="9"/>
+      <c r="A920" s="5"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="8" t="s">
+      <c r="A921" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="8"/>
+      <c r="A922" s="7"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="8"/>
+      <c r="A923" s="7"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="8"/>
+      <c r="A924" s="7"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="9"/>
+      <c r="A925" s="5"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="9"/>
+      <c r="A926" s="5"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="9"/>
+      <c r="A927" s="5"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="9"/>
+      <c r="A928" s="5"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="9"/>
+      <c r="A929" s="5"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="10"/>
+      <c r="A930" s="6"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="10"/>
+      <c r="A931" s="6"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="10"/>
+      <c r="A932" s="6"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="9"/>
+      <c r="A933" s="5"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="9"/>
+      <c r="A934" s="5"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="9"/>
+      <c r="A935" s="5"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="9"/>
+      <c r="A936" s="5"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="9"/>
+      <c r="A937" s="5"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="9"/>
+      <c r="A938" s="5"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="9"/>
+      <c r="A939" s="5"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="9"/>
+      <c r="A940" s="5"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="8" t="s">
+      <c r="A941" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="8"/>
+      <c r="A942" s="7"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="8"/>
+      <c r="A943" s="7"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="8"/>
+      <c r="A944" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A645:A647"/>
+    <mergeCell ref="A648:A650"/>
+    <mergeCell ref="A651:A653"/>
+    <mergeCell ref="A654:A656"/>
+    <mergeCell ref="A657:A659"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
     <mergeCell ref="A929:A932"/>
     <mergeCell ref="A933:A936"/>
     <mergeCell ref="A937:A940"/>
@@ -4253,230 +4482,6 @@
     <mergeCell ref="A921:A924"/>
     <mergeCell ref="A925:A928"/>
     <mergeCell ref="A857:A860"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A885:A888"/>
-    <mergeCell ref="A889:A892"/>
-    <mergeCell ref="A821:A824"/>
-    <mergeCell ref="A825:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="A805:A808"/>
-    <mergeCell ref="A809:A812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="A817:A820"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A761:A764"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A772"/>
-    <mergeCell ref="A773:A776"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A713:A716"/>
-    <mergeCell ref="A717:A720"/>
-    <mergeCell ref="A721:A724"/>
-    <mergeCell ref="A725:A728"/>
-    <mergeCell ref="A729:A732"/>
-    <mergeCell ref="A733:A736"/>
-    <mergeCell ref="A737:A740"/>
-    <mergeCell ref="A741:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A677:A680"/>
-    <mergeCell ref="A681:A684"/>
-    <mergeCell ref="A685:A688"/>
-    <mergeCell ref="A689:A692"/>
-    <mergeCell ref="A693:A696"/>
-    <mergeCell ref="A697:A700"/>
-    <mergeCell ref="A701:A704"/>
-    <mergeCell ref="A705:A708"/>
-    <mergeCell ref="A709:A712"/>
-    <mergeCell ref="A641:A644"/>
-    <mergeCell ref="A661:A664"/>
-    <mergeCell ref="A665:A668"/>
-    <mergeCell ref="A669:A672"/>
-    <mergeCell ref="A673:A676"/>
-    <mergeCell ref="A645:A647"/>
-    <mergeCell ref="A648:A650"/>
-    <mergeCell ref="A651:A653"/>
-    <mergeCell ref="A654:A656"/>
-    <mergeCell ref="A657:A659"/>
-    <mergeCell ref="A605:A608"/>
-    <mergeCell ref="A609:A612"/>
-    <mergeCell ref="A613:A616"/>
-    <mergeCell ref="A617:A620"/>
-    <mergeCell ref="A621:A624"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A629:A632"/>
-    <mergeCell ref="A633:A636"/>
-    <mergeCell ref="A637:A640"/>
-    <mergeCell ref="A569:A572"/>
-    <mergeCell ref="A573:A576"/>
-    <mergeCell ref="A577:A580"/>
-    <mergeCell ref="A581:A584"/>
-    <mergeCell ref="A585:A588"/>
-    <mergeCell ref="A589:A592"/>
-    <mergeCell ref="A593:A596"/>
-    <mergeCell ref="A597:A600"/>
-    <mergeCell ref="A601:A604"/>
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="A541:A544"/>
-    <mergeCell ref="A545:A548"/>
-    <mergeCell ref="A549:A552"/>
-    <mergeCell ref="A553:A556"/>
-    <mergeCell ref="A557:A560"/>
-    <mergeCell ref="A561:A564"/>
-    <mergeCell ref="A565:A568"/>
-    <mergeCell ref="A497:A500"/>
-    <mergeCell ref="A501:A504"/>
-    <mergeCell ref="A505:A508"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="A517:A520"/>
-    <mergeCell ref="A521:A524"/>
-    <mergeCell ref="A525:A528"/>
-    <mergeCell ref="A529:A532"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A481:A484"/>
-    <mergeCell ref="A485:A488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="A493:A496"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A360"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A401:A404"/>
-    <mergeCell ref="A405:A408"/>
-    <mergeCell ref="A409:A412"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A389:A392"/>
-    <mergeCell ref="A393:A396"/>
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A365:A368"/>
-    <mergeCell ref="A369:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A445:A448"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="A425:A428"/>
-    <mergeCell ref="A429:A432"/>
-    <mergeCell ref="A433:A436"/>
-    <mergeCell ref="A437:A440"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F11A34F-13A1-4898-AF6E-7A9F4C796E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1478A00C-90BC-410A-8F89-B7EAA165FF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>B01</t>
   </si>
@@ -556,6 +556,15 @@
   </si>
   <si>
     <t>8122 Rojo</t>
+  </si>
+  <si>
+    <t>FM6066 negro</t>
+  </si>
+  <si>
+    <t>Fm6066 nude</t>
+  </si>
+  <si>
+    <t>FM6066 blanco</t>
   </si>
 </sst>
 </file>
@@ -684,6 +693,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,13 +712,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,12 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
   <dimension ref="A1:B944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
-      <selection activeCell="A681" sqref="A681:A684"/>
+    <sheetView tabSelected="1" topLeftCell="A714" workbookViewId="0">
+      <selection activeCell="A725" sqref="A725:A728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,578 +1049,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="9"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="9"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="9"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="9"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="9"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="9"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="9"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="9"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="9"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="9"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="9"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="9"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="9"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="9"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="9"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="9"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="9"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="9"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="9"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="9"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="9"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="9"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="A106" s="9"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
+      <c r="A107" s="9"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
+      <c r="A108" s="9"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
+      <c r="A110" s="10"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
+      <c r="A112" s="10"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="9"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+      <c r="A115" s="9"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+      <c r="A116" s="9"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+      <c r="A117" s="9"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
+      <c r="A118" s="9"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="9"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="9"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="A123" s="8"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
+      <c r="A126" s="9"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
+      <c r="A127" s="9"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
+      <c r="A128" s="9"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
+      <c r="A134" s="9"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
+      <c r="A135" s="9"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
+      <c r="A136" s="9"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
+      <c r="A138" s="9"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
+      <c r="A139" s="9"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
+      <c r="A140" s="9"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+      <c r="A142" s="8"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+      <c r="A143" s="8"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+      <c r="A144" s="8"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
+      <c r="A146" s="9"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
+      <c r="A147" s="9"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
+      <c r="A148" s="9"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
+      <c r="A150" s="10"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
+      <c r="A151" s="10"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
+      <c r="A152" s="10"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
+      <c r="A153" s="9"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
+      <c r="A154" s="9"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
+      <c r="A155" s="9"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
+      <c r="A156" s="9"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
+      <c r="A157" s="9"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
+      <c r="A158" s="9"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
+      <c r="A159" s="9"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
+      <c r="A160" s="9"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+      <c r="A162" s="8"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+      <c r="A163" s="8"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
+      <c r="A164" s="8"/>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -1680,2637 +1689,2713 @@
       <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
+      <c r="A182" s="11"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
+      <c r="A183" s="11"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
+      <c r="A184" s="11"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
+      <c r="A186" s="9"/>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
+      <c r="A188" s="9"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6"/>
+      <c r="A190" s="10"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
+      <c r="A191" s="10"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
+      <c r="A192" s="10"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
+      <c r="A194" s="9"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
+      <c r="A195" s="9"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
+      <c r="A196" s="9"/>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
+      <c r="A198" s="9"/>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
+      <c r="A200" s="9"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
+      <c r="A202" s="11"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
+      <c r="A204" s="11"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
+      <c r="A206" s="9"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
+      <c r="A207" s="9"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
+      <c r="A208" s="9"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
+      <c r="A210" s="10"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
+      <c r="A211" s="10"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
+      <c r="A212" s="10"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
+      <c r="A214" s="9"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
+      <c r="A215" s="9"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
+      <c r="A216" s="9"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
+      <c r="A217" s="9"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
+      <c r="A218" s="9"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
+      <c r="A219" s="9"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
+      <c r="A220" s="9"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
+      <c r="A222" s="11"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
+      <c r="A223" s="11"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="13"/>
+      <c r="A224" s="11"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
+      <c r="A226" s="9"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
+      <c r="A227" s="9"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
+      <c r="A228" s="9"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
+      <c r="A230" s="10"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
+      <c r="A231" s="10"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
+      <c r="A232" s="10"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
+      <c r="A234" s="9"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
+      <c r="A235" s="9"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
+      <c r="A236" s="9"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
+      <c r="A238" s="6"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="9"/>
+      <c r="A240" s="6"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="7"/>
+      <c r="A242" s="8"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="7"/>
+      <c r="A243" s="8"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="7"/>
+      <c r="A244" s="8"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="5"/>
+      <c r="A246" s="9"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="5"/>
+      <c r="A247" s="9"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="5"/>
+      <c r="A248" s="9"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
+      <c r="A250" s="10"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
+      <c r="A251" s="10"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
+      <c r="A252" s="10"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
+      <c r="A254" s="9"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
+      <c r="A255" s="9"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
+      <c r="A256" s="9"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="5"/>
+      <c r="A258" s="9"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="5"/>
+      <c r="A259" s="9"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
+      <c r="A260" s="9"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="7"/>
+      <c r="A262" s="8"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="7"/>
+      <c r="A263" s="8"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7"/>
+      <c r="A264" s="8"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
+      <c r="A266" s="9"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="5"/>
+      <c r="A267" s="9"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="5"/>
+      <c r="A268" s="9"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="5"/>
+      <c r="A269" s="9"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
+      <c r="A270" s="10"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
+      <c r="A271" s="10"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
+      <c r="A272" s="10"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
+      <c r="A273" s="9"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="5"/>
+      <c r="A274" s="9"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
+      <c r="A275" s="9"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
+      <c r="A276" s="9"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
+      <c r="A277" s="9"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
+      <c r="A278" s="9"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="5"/>
+      <c r="A279" s="9"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="5"/>
+      <c r="A280" s="9"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="8"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="8"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7"/>
+      <c r="A284" s="8"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
+      <c r="A286" s="9"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="5"/>
+      <c r="A287" s="9"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="5"/>
+      <c r="A288" s="9"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6"/>
+      <c r="A290" s="10"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
+      <c r="A291" s="10"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
+      <c r="A292" s="10"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="5"/>
+      <c r="A294" s="9"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="5"/>
+      <c r="A295" s="9"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
+      <c r="A296" s="9"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
+      <c r="A297" s="9"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="5"/>
+      <c r="A298" s="9"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="5"/>
+      <c r="A299" s="9"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
+      <c r="A300" s="9"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
+      <c r="A301" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="7"/>
+      <c r="A302" s="8"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7"/>
+      <c r="A303" s="8"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="7"/>
+      <c r="A304" s="8"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="5"/>
+      <c r="A306" s="9"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="5"/>
+      <c r="A307" s="9"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="5"/>
+      <c r="A308" s="9"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
+      <c r="A310" s="10"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
+      <c r="A311" s="10"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
+      <c r="A312" s="10"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="5"/>
+      <c r="A314" s="9"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="5"/>
+      <c r="A315" s="9"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="5"/>
+      <c r="A316" s="9"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="5"/>
+      <c r="A317" s="9"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="5"/>
+      <c r="A318" s="9"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="5"/>
+      <c r="A319" s="9"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="5"/>
+      <c r="A320" s="9"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="7"/>
+      <c r="A322" s="8"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="7"/>
+      <c r="A323" s="8"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="7"/>
+      <c r="A324" s="8"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="5"/>
+      <c r="A326" s="9"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="5"/>
+      <c r="A327" s="9"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="5"/>
+      <c r="A328" s="9"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
+      <c r="A330" s="10"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
+      <c r="A331" s="10"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
+      <c r="A332" s="10"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="5"/>
+      <c r="A334" s="9"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="5"/>
+      <c r="A335" s="9"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="5"/>
+      <c r="A336" s="9"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="5">
+      <c r="A337" s="9">
         <v>8375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="5"/>
+      <c r="A338" s="9"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="5"/>
+      <c r="A339" s="9"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="5"/>
+      <c r="A340" s="9"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7" t="s">
+      <c r="A341" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="8"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="8"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="7"/>
+      <c r="A344" s="8"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="5"/>
+      <c r="A346" s="9"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="5"/>
+      <c r="A347" s="9"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="5"/>
+      <c r="A348" s="9"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="6"/>
+      <c r="A350" s="10"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="6"/>
+      <c r="A351" s="10"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="6"/>
+      <c r="A352" s="10"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="5"/>
+      <c r="A354" s="9"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="5"/>
+      <c r="A355" s="9"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="5"/>
+      <c r="A356" s="9"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="5"/>
+      <c r="A358" s="9"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="5"/>
+      <c r="A359" s="9"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="5"/>
+      <c r="A360" s="9"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
+      <c r="A361" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="7"/>
+      <c r="A362" s="8"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="7"/>
+      <c r="A363" s="8"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="7"/>
+      <c r="A364" s="8"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="5"/>
+      <c r="A366" s="9"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="5"/>
+      <c r="A367" s="9"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="5"/>
+      <c r="A368" s="9"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="6"/>
+      <c r="A370" s="10"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="6"/>
+      <c r="A371" s="10"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="6"/>
+      <c r="A372" s="10"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="5"/>
+      <c r="A373" s="9"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="5"/>
+      <c r="A374" s="9"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="5"/>
+      <c r="A375" s="9"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="5"/>
+      <c r="A376" s="9"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="5"/>
+      <c r="A377" s="9"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="5"/>
+      <c r="A378" s="9"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="5"/>
+      <c r="A379" s="9"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="5"/>
+      <c r="A380" s="9"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="7" t="s">
+      <c r="A381" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="7"/>
+      <c r="A382" s="8"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="7"/>
+      <c r="A383" s="8"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="7"/>
+      <c r="A384" s="8"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="5" t="s">
+      <c r="A385" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="5"/>
+      <c r="A386" s="9"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="5"/>
+      <c r="A387" s="9"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="5"/>
+      <c r="A388" s="9"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="6"/>
+      <c r="A390" s="10"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="6"/>
+      <c r="A391" s="10"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="6"/>
+      <c r="A392" s="10"/>
     </row>
     <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="5">
+      <c r="A393" s="9">
         <v>2109</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="5"/>
+      <c r="A394" s="9"/>
     </row>
     <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="5"/>
+      <c r="A395" s="9"/>
     </row>
     <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="5"/>
+      <c r="A396" s="9"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="5"/>
+      <c r="A398" s="9"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="5"/>
+      <c r="A399" s="9"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="5"/>
+      <c r="A400" s="9"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7" t="s">
+      <c r="A401" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="8"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="8"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="7"/>
+      <c r="A404" s="8"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="5"/>
+      <c r="A406" s="9"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="5"/>
+      <c r="A407" s="9"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="5"/>
+      <c r="A408" s="9"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="6"/>
+      <c r="A410" s="10"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="6"/>
+      <c r="A411" s="10"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="6"/>
+      <c r="A412" s="10"/>
     </row>
     <row r="413" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="8" t="s">
+      <c r="A413" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="5"/>
     </row>
     <row r="415" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="14">
+      <c r="A415" s="5">
         <v>889</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="9"/>
+      <c r="A416" s="6"/>
     </row>
     <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="9"/>
+      <c r="A418" s="6"/>
     </row>
     <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="8" t="s">
+      <c r="A419" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="9"/>
+      <c r="A420" s="6"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="7" t="s">
+      <c r="A421" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="7"/>
+      <c r="A422" s="8"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="7"/>
+      <c r="A423" s="8"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="7"/>
+      <c r="A424" s="8"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="5"/>
+      <c r="A426" s="9"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="5"/>
+      <c r="A427" s="9"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="5"/>
+      <c r="A428" s="9"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="6"/>
+      <c r="A430" s="10"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="6"/>
+      <c r="A431" s="10"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="6"/>
+      <c r="A432" s="10"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="5"/>
+      <c r="A433" s="9"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="5"/>
+      <c r="A434" s="9"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="5"/>
+      <c r="A435" s="9"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="5"/>
+      <c r="A436" s="9"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="5"/>
+      <c r="A437" s="9"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="5"/>
+      <c r="A438" s="9"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="5"/>
+      <c r="A439" s="9"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="5"/>
+      <c r="A440" s="9"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="7" t="s">
+      <c r="A441" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="7"/>
+      <c r="A442" s="8"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="7"/>
+      <c r="A443" s="8"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="7"/>
+      <c r="A444" s="8"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="5" t="s">
+      <c r="A445" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="5"/>
+      <c r="A446" s="9"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="5"/>
+      <c r="A447" s="9"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="5"/>
+      <c r="A448" s="9"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="6"/>
+      <c r="A450" s="10"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="6"/>
+      <c r="A451" s="10"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="6"/>
+      <c r="A452" s="10"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="5"/>
+      <c r="A454" s="9"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="5"/>
+      <c r="A455" s="9"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="5"/>
+      <c r="A456" s="9"/>
     </row>
     <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="8" t="s">
+      <c r="A457" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="9"/>
+      <c r="A458" s="6"/>
     </row>
     <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="8" t="s">
+      <c r="A459" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="9"/>
+      <c r="A460" s="6"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="7" t="s">
+      <c r="A461" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="7"/>
+      <c r="A462" s="8"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="8"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="8"/>
     </row>
     <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="8" t="s">
+      <c r="A465" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="9"/>
+      <c r="A466" s="6"/>
     </row>
     <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="8" t="s">
+      <c r="A467" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="9"/>
+      <c r="A468" s="6"/>
     </row>
     <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="8" t="s">
+      <c r="A469" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="9"/>
+      <c r="A470" s="6"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="8" t="s">
+      <c r="A471" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="9"/>
+      <c r="A472" s="6"/>
     </row>
     <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="9"/>
+      <c r="A474" s="6"/>
     </row>
     <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="8" t="s">
+      <c r="A475" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="9"/>
+      <c r="A476" s="6"/>
     </row>
     <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="8"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="9"/>
+      <c r="A478" s="6"/>
     </row>
     <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="8"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="9"/>
+      <c r="A480" s="6"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="7" t="s">
+      <c r="A481" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="7"/>
+      <c r="A482" s="8"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="7"/>
+      <c r="A483" s="8"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="7"/>
+      <c r="A484" s="8"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="5" t="s">
+      <c r="A485" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="5"/>
+      <c r="A486" s="9"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="5"/>
+      <c r="A487" s="9"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="5"/>
+      <c r="A488" s="9"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="5" t="s">
+      <c r="A489" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="6"/>
+      <c r="A490" s="10"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="6"/>
+      <c r="A491" s="10"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="6"/>
+      <c r="A492" s="10"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="5"/>
+      <c r="A494" s="9"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="5"/>
+      <c r="A495" s="9"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="5"/>
+      <c r="A496" s="9"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="5" t="s">
+      <c r="A497" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="5"/>
+      <c r="A498" s="9"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="5"/>
+      <c r="A499" s="9"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="5"/>
+      <c r="A500" s="9"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="7" t="s">
+      <c r="A501" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="7"/>
+      <c r="A502" s="8"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="7"/>
+      <c r="A503" s="8"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="7"/>
+      <c r="A504" s="8"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="5" t="s">
+      <c r="A505" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="5"/>
+      <c r="A506" s="9"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="5"/>
+      <c r="A507" s="9"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="5"/>
+      <c r="A508" s="9"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="5" t="s">
+      <c r="A509" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="6"/>
+      <c r="A510" s="10"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="6"/>
+      <c r="A511" s="10"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="6"/>
+      <c r="A512" s="10"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="5" t="s">
+      <c r="A513" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="5"/>
+      <c r="A514" s="9"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="5"/>
+      <c r="A515" s="9"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="5"/>
+      <c r="A516" s="9"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="5"/>
+      <c r="A517" s="9"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="5"/>
+      <c r="A518" s="9"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="5"/>
+      <c r="A519" s="9"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="5"/>
+      <c r="A520" s="9"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="7" t="s">
+      <c r="A521" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="7"/>
+      <c r="A522" s="8"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="7"/>
+      <c r="A523" s="8"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="7"/>
+      <c r="A524" s="8"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="5" t="s">
+      <c r="A525" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="5"/>
+      <c r="A526" s="9"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="5"/>
+      <c r="A527" s="9"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="5"/>
+      <c r="A528" s="9"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="5" t="s">
+      <c r="A529" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="6"/>
+      <c r="A530" s="10"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="6"/>
+      <c r="A531" s="10"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="6"/>
+      <c r="A532" s="10"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="5" t="s">
+      <c r="A533" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="5"/>
+      <c r="A534" s="9"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="5"/>
+      <c r="A535" s="9"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="5"/>
+      <c r="A536" s="9"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="5"/>
+      <c r="A537" s="9"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="5"/>
+      <c r="A538" s="9"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="5"/>
+      <c r="A539" s="9"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="5"/>
+      <c r="A540" s="9"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="7" t="s">
+      <c r="A541" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="7"/>
+      <c r="A542" s="8"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="7"/>
+      <c r="A543" s="8"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="7"/>
+      <c r="A544" s="8"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="5" t="s">
+      <c r="A545" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="5"/>
+      <c r="A546" s="9"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="5"/>
+      <c r="A547" s="9"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="5"/>
+      <c r="A548" s="9"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="5" t="s">
+      <c r="A549" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="6"/>
+      <c r="A550" s="10"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="6"/>
+      <c r="A551" s="10"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="6"/>
+      <c r="A552" s="10"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="5" t="s">
+      <c r="A553" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="5"/>
+      <c r="A554" s="9"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="5"/>
+      <c r="A555" s="9"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="5"/>
+      <c r="A556" s="9"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="5" t="s">
+      <c r="A557" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="5"/>
+      <c r="A558" s="9"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="5"/>
+      <c r="A559" s="9"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="5"/>
+      <c r="A560" s="9"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="7" t="s">
+      <c r="A561" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="7"/>
+      <c r="A562" s="8"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="7"/>
+      <c r="A563" s="8"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="7"/>
+      <c r="A564" s="8"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="5" t="s">
+      <c r="A565" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="5"/>
+      <c r="A566" s="9"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="5"/>
+      <c r="A567" s="9"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="5"/>
+      <c r="A568" s="9"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="5" t="s">
+      <c r="A569" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="6"/>
+      <c r="A570" s="10"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="6"/>
+      <c r="A571" s="10"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="6"/>
+      <c r="A572" s="10"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="5"/>
+      <c r="A573" s="9"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="5"/>
+      <c r="A574" s="9"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="5"/>
+      <c r="A575" s="9"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="5"/>
+      <c r="A576" s="9"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="5"/>
+      <c r="A577" s="9"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="5"/>
+      <c r="A578" s="9"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="5"/>
+      <c r="A579" s="9"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="5"/>
+      <c r="A580" s="9"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="7" t="s">
+      <c r="A581" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="7"/>
+      <c r="A582" s="8"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="7"/>
+      <c r="A583" s="8"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="7"/>
+      <c r="A584" s="8"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="5" t="s">
+      <c r="A585" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="5"/>
+      <c r="A586" s="9"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="5"/>
+      <c r="A587" s="9"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="5"/>
+      <c r="A588" s="9"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="5" t="s">
+      <c r="A589" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="6"/>
+      <c r="A590" s="10"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="6"/>
+      <c r="A591" s="10"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="6"/>
+      <c r="A592" s="10"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="5" t="s">
+      <c r="A593" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="5"/>
+      <c r="A594" s="9"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="5"/>
+      <c r="A595" s="9"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="5"/>
+      <c r="A596" s="9"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="5" t="s">
+      <c r="A597" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="5"/>
+      <c r="A598" s="9"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="5"/>
+      <c r="A599" s="9"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="5"/>
+      <c r="A600" s="9"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="7" t="s">
+      <c r="A601" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="7"/>
+      <c r="A602" s="8"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="7"/>
+      <c r="A603" s="8"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="7"/>
+      <c r="A604" s="8"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="5" t="s">
+      <c r="A605" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="5"/>
+      <c r="A606" s="9"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="5"/>
+      <c r="A607" s="9"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="5"/>
+      <c r="A608" s="9"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="5" t="s">
+      <c r="A609" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="6"/>
+      <c r="A610" s="10"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="6"/>
+      <c r="A611" s="10"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="6"/>
+      <c r="A612" s="10"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="5"/>
+      <c r="A613" s="9"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="5"/>
+      <c r="A614" s="9"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="5"/>
+      <c r="A615" s="9"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="5"/>
+      <c r="A616" s="9"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="5"/>
+      <c r="A617" s="9"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="5"/>
+      <c r="A618" s="9"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="5"/>
+      <c r="A619" s="9"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="5"/>
+      <c r="A620" s="9"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="7" t="s">
+      <c r="A621" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="7"/>
+      <c r="A622" s="8"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="7"/>
+      <c r="A623" s="8"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="7"/>
+      <c r="A624" s="8"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="5" t="s">
+      <c r="A625" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="5"/>
+      <c r="A626" s="9"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="5"/>
+      <c r="A627" s="9"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="5"/>
+      <c r="A628" s="9"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="5" t="s">
+      <c r="A629" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="6"/>
+      <c r="A630" s="10"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="6"/>
+      <c r="A631" s="10"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="6"/>
+      <c r="A632" s="10"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="5" t="s">
+      <c r="A633" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="5"/>
+      <c r="A634" s="9"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="5"/>
+      <c r="A635" s="9"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="5"/>
+      <c r="A636" s="9"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="5"/>
+      <c r="A637" s="9"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="5"/>
+      <c r="A638" s="9"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="5"/>
+      <c r="A639" s="9"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="5"/>
+      <c r="A640" s="9"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="7" t="s">
+      <c r="A641" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="7"/>
+      <c r="A642" s="8"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="7"/>
+      <c r="A643" s="8"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="7"/>
+      <c r="A644" s="8"/>
     </row>
     <row r="645" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="10" t="s">
+      <c r="A645" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="11"/>
+      <c r="A646" s="13"/>
     </row>
     <row r="647" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="12"/>
+      <c r="A647" s="14"/>
     </row>
     <row r="648" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="10" t="s">
+      <c r="A648" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="11"/>
+      <c r="A649" s="13"/>
     </row>
     <row r="650" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="12"/>
+      <c r="A650" s="14"/>
     </row>
     <row r="651" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="10" t="s">
+      <c r="A651" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="11"/>
+      <c r="A652" s="13"/>
     </row>
     <row r="653" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="12"/>
+      <c r="A653" s="14"/>
     </row>
     <row r="654" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="10" t="s">
+      <c r="A654" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="11"/>
+      <c r="A655" s="13"/>
     </row>
     <row r="656" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="12"/>
+      <c r="A656" s="14"/>
     </row>
     <row r="657" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="10" t="s">
+      <c r="A657" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="11"/>
+      <c r="A658" s="13"/>
     </row>
     <row r="659" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="12"/>
+      <c r="A659" s="14"/>
     </row>
     <row r="660" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="4"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="7" t="s">
+      <c r="A661" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="7"/>
+      <c r="A662" s="8"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="7"/>
+      <c r="A663" s="8"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="7"/>
+      <c r="A664" s="8"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="5" t="s">
+      <c r="A665" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="5"/>
+      <c r="A666" s="9"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="5"/>
+      <c r="A667" s="9"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="5"/>
+      <c r="A668" s="9"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="5" t="s">
+      <c r="A669" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="6"/>
+      <c r="A670" s="10"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="6"/>
+      <c r="A671" s="10"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="6"/>
+      <c r="A672" s="10"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="5"/>
+      <c r="A673" s="9"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="5"/>
+      <c r="A674" s="9"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="5"/>
+      <c r="A675" s="9"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="5"/>
+      <c r="A676" s="9"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="5"/>
+      <c r="A677" s="9"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="5"/>
+      <c r="A678" s="9"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="5"/>
+      <c r="A679" s="9"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="5"/>
+      <c r="A680" s="9"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="7" t="s">
+      <c r="A681" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="7"/>
+      <c r="A682" s="8"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="7"/>
+      <c r="A683" s="8"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="7"/>
+      <c r="A684" s="8"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="5" t="s">
+      <c r="A685" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="5"/>
+      <c r="A686" s="9"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="5"/>
+      <c r="A687" s="9"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="5"/>
+      <c r="A688" s="9"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="5"/>
+      <c r="A689" s="9"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="6"/>
+      <c r="A690" s="10"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="6"/>
+      <c r="A691" s="10"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="6"/>
+      <c r="A692" s="10"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="5"/>
+      <c r="A693" s="9"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="5"/>
+      <c r="A694" s="9"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="5"/>
+      <c r="A695" s="9"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="5"/>
+      <c r="A696" s="9"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="5"/>
+      <c r="A697" s="9"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="5"/>
+      <c r="A698" s="9"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="5"/>
+      <c r="A699" s="9"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="5"/>
+      <c r="A700" s="9"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="7" t="s">
+      <c r="A701" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="7"/>
+      <c r="A702" s="8"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="7"/>
+      <c r="A703" s="8"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="7"/>
+      <c r="A704" s="8"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="5"/>
+      <c r="A705" s="9" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="5"/>
+      <c r="A706" s="9"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="5"/>
+      <c r="A707" s="9"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="5"/>
+      <c r="A708" s="9"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="5"/>
+      <c r="A709" s="9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="6"/>
+      <c r="A710" s="10"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="6"/>
+      <c r="A711" s="10"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="6"/>
+      <c r="A712" s="10"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="5"/>
+      <c r="A713" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="5"/>
+      <c r="A714" s="9"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="5"/>
+      <c r="A715" s="9"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="5"/>
+      <c r="A716" s="9"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="5"/>
+      <c r="A717" s="9"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="5"/>
+      <c r="A718" s="9"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="5"/>
+      <c r="A719" s="9"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="5"/>
+      <c r="A720" s="9"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="7" t="s">
+      <c r="A721" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="7"/>
+      <c r="A722" s="8"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="7"/>
+      <c r="A723" s="8"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="7"/>
+      <c r="A724" s="8"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="5"/>
+      <c r="A725" s="9"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="5"/>
+      <c r="A726" s="9"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="5"/>
+      <c r="A727" s="9"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="5"/>
+      <c r="A728" s="9"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="5"/>
+      <c r="A729" s="9"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="6"/>
+      <c r="A730" s="10"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="6"/>
+      <c r="A731" s="10"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="6"/>
+      <c r="A732" s="10"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="5"/>
+      <c r="A733" s="9"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="5"/>
+      <c r="A734" s="9"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="5"/>
+      <c r="A735" s="9"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="5"/>
+      <c r="A736" s="9"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="5"/>
+      <c r="A737" s="9"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="5"/>
+      <c r="A738" s="9"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="5"/>
+      <c r="A739" s="9"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="5"/>
+      <c r="A740" s="9"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="7" t="s">
+      <c r="A741" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="7"/>
+      <c r="A742" s="8"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="7"/>
+      <c r="A743" s="8"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="7"/>
+      <c r="A744" s="8"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="5"/>
+      <c r="A745" s="9"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="5"/>
+      <c r="A746" s="9"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="5"/>
+      <c r="A747" s="9"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="5"/>
+      <c r="A748" s="9"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="5"/>
+      <c r="A749" s="9"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="6"/>
+      <c r="A750" s="10"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="6"/>
+      <c r="A751" s="10"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="6"/>
+      <c r="A752" s="10"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="5"/>
+      <c r="A753" s="9"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="5"/>
+      <c r="A754" s="9"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="5"/>
+      <c r="A755" s="9"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="5"/>
+      <c r="A756" s="9"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="5"/>
+      <c r="A757" s="9"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="5"/>
+      <c r="A758" s="9"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="5"/>
+      <c r="A759" s="9"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="5"/>
+      <c r="A760" s="9"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="7" t="s">
+      <c r="A761" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="7"/>
+      <c r="A762" s="8"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="7"/>
+      <c r="A763" s="8"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="7"/>
+      <c r="A764" s="8"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="5"/>
+      <c r="A765" s="9"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="5"/>
+      <c r="A766" s="9"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="5"/>
+      <c r="A767" s="9"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="5"/>
+      <c r="A768" s="9"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="5"/>
+      <c r="A769" s="9"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="6"/>
+      <c r="A770" s="10"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="6"/>
+      <c r="A771" s="10"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="6"/>
+      <c r="A772" s="10"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="5"/>
+      <c r="A773" s="9"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="5"/>
+      <c r="A774" s="9"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="5"/>
+      <c r="A775" s="9"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="5"/>
+      <c r="A776" s="9"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="5"/>
+      <c r="A777" s="9"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="5"/>
+      <c r="A778" s="9"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="5"/>
+      <c r="A779" s="9"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="5"/>
+      <c r="A780" s="9"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="7" t="s">
+      <c r="A781" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="7"/>
+      <c r="A782" s="8"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="7"/>
+      <c r="A783" s="8"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="7"/>
+      <c r="A784" s="8"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="5"/>
+      <c r="A785" s="9"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="5"/>
+      <c r="A786" s="9"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="5"/>
+      <c r="A787" s="9"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="5"/>
+      <c r="A788" s="9"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="5"/>
+      <c r="A789" s="9"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="6"/>
+      <c r="A790" s="10"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="6"/>
+      <c r="A791" s="10"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="6"/>
+      <c r="A792" s="10"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="5"/>
+      <c r="A793" s="9"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="5"/>
+      <c r="A794" s="9"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="5"/>
+      <c r="A795" s="9"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="5"/>
+      <c r="A796" s="9"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="5"/>
+      <c r="A797" s="9"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="5"/>
+      <c r="A798" s="9"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="5"/>
+      <c r="A799" s="9"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="5"/>
+      <c r="A800" s="9"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="7" t="s">
+      <c r="A801" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="7"/>
+      <c r="A802" s="8"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="7"/>
+      <c r="A803" s="8"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="7"/>
+      <c r="A804" s="8"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="5"/>
+      <c r="A805" s="9"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="5"/>
+      <c r="A806" s="9"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="5"/>
+      <c r="A807" s="9"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="5"/>
+      <c r="A808" s="9"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="5"/>
+      <c r="A809" s="9"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="6"/>
+      <c r="A810" s="10"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="6"/>
+      <c r="A811" s="10"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="6"/>
+      <c r="A812" s="10"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="5"/>
+      <c r="A813" s="9"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="5"/>
+      <c r="A814" s="9"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="5"/>
+      <c r="A815" s="9"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="5"/>
+      <c r="A816" s="9"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="5"/>
+      <c r="A817" s="9"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="5"/>
+      <c r="A818" s="9"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="5"/>
+      <c r="A819" s="9"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="5"/>
+      <c r="A820" s="9"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="7" t="s">
+      <c r="A821" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="7"/>
+      <c r="A822" s="8"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="7"/>
+      <c r="A823" s="8"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="7"/>
+      <c r="A824" s="8"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="5"/>
+      <c r="A825" s="9"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="5"/>
+      <c r="A826" s="9"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="5"/>
+      <c r="A827" s="9"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="5"/>
+      <c r="A828" s="9"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="5"/>
+      <c r="A829" s="9"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="6"/>
+      <c r="A830" s="10"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="6"/>
+      <c r="A831" s="10"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="6"/>
+      <c r="A832" s="10"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="5"/>
+      <c r="A833" s="9"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="5"/>
+      <c r="A834" s="9"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="5"/>
+      <c r="A835" s="9"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="5"/>
+      <c r="A836" s="9"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="5"/>
+      <c r="A837" s="9"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="5"/>
+      <c r="A838" s="9"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="5"/>
+      <c r="A839" s="9"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="5"/>
+      <c r="A840" s="9"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="7" t="s">
+      <c r="A841" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="7"/>
+      <c r="A842" s="8"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="7"/>
+      <c r="A843" s="8"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="7"/>
+      <c r="A844" s="8"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="5"/>
+      <c r="A845" s="9"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="5"/>
+      <c r="A846" s="9"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="5"/>
+      <c r="A847" s="9"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="5"/>
+      <c r="A848" s="9"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="5"/>
+      <c r="A849" s="9"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="6"/>
+      <c r="A850" s="10"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="6"/>
+      <c r="A851" s="10"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="6"/>
+      <c r="A852" s="10"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="5"/>
+      <c r="A853" s="9"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="5"/>
+      <c r="A854" s="9"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="5"/>
+      <c r="A855" s="9"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="5"/>
+      <c r="A856" s="9"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="5"/>
+      <c r="A857" s="9"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="5"/>
+      <c r="A858" s="9"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="5"/>
+      <c r="A859" s="9"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="5"/>
+      <c r="A860" s="9"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="7" t="s">
+      <c r="A861" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="7"/>
+      <c r="A862" s="8"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="7"/>
+      <c r="A863" s="8"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="7"/>
+      <c r="A864" s="8"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="5"/>
+      <c r="A865" s="9"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="5"/>
+      <c r="A866" s="9"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="5"/>
+      <c r="A867" s="9"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="5"/>
+      <c r="A868" s="9"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="5"/>
+      <c r="A869" s="9"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="6"/>
+      <c r="A870" s="10"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="6"/>
+      <c r="A871" s="10"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="6"/>
+      <c r="A872" s="10"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="5"/>
+      <c r="A873" s="9"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="5"/>
+      <c r="A874" s="9"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="5"/>
+      <c r="A875" s="9"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="5"/>
+      <c r="A876" s="9"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="5"/>
+      <c r="A877" s="9"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="5"/>
+      <c r="A878" s="9"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="5"/>
+      <c r="A879" s="9"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="5"/>
+      <c r="A880" s="9"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="7" t="s">
+      <c r="A881" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="7"/>
+      <c r="A882" s="8"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="7"/>
+      <c r="A883" s="8"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="7"/>
+      <c r="A884" s="8"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="5"/>
+      <c r="A885" s="9"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="5"/>
+      <c r="A886" s="9"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="5"/>
+      <c r="A887" s="9"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="5"/>
+      <c r="A888" s="9"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="5"/>
+      <c r="A889" s="9"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="6"/>
+      <c r="A890" s="10"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="6"/>
+      <c r="A891" s="10"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="6"/>
+      <c r="A892" s="10"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="5"/>
+      <c r="A893" s="9"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="5"/>
+      <c r="A894" s="9"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="5"/>
+      <c r="A895" s="9"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="5"/>
+      <c r="A896" s="9"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="5"/>
+      <c r="A897" s="9"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="5"/>
+      <c r="A898" s="9"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="5"/>
+      <c r="A899" s="9"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="5"/>
+      <c r="A900" s="9"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="7" t="s">
+      <c r="A901" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="7"/>
+      <c r="A902" s="8"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="7"/>
+      <c r="A903" s="8"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="7"/>
+      <c r="A904" s="8"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="5"/>
+      <c r="A905" s="9"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="5"/>
+      <c r="A906" s="9"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="5"/>
+      <c r="A907" s="9"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="5"/>
+      <c r="A908" s="9"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="5"/>
+      <c r="A909" s="9"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="6"/>
+      <c r="A910" s="10"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="6"/>
+      <c r="A911" s="10"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="6"/>
+      <c r="A912" s="10"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="5"/>
+      <c r="A913" s="9"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="5"/>
+      <c r="A914" s="9"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="5"/>
+      <c r="A915" s="9"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="5"/>
+      <c r="A916" s="9"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="5"/>
+      <c r="A917" s="9"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="5"/>
+      <c r="A918" s="9"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="5"/>
+      <c r="A919" s="9"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="5"/>
+      <c r="A920" s="9"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="7" t="s">
+      <c r="A921" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="7"/>
+      <c r="A922" s="8"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="7"/>
+      <c r="A923" s="8"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="7"/>
+      <c r="A924" s="8"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="5"/>
+      <c r="A925" s="9"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="5"/>
+      <c r="A926" s="9"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="5"/>
+      <c r="A927" s="9"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="5"/>
+      <c r="A928" s="9"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="5"/>
+      <c r="A929" s="9"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="6"/>
+      <c r="A930" s="10"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="6"/>
+      <c r="A931" s="10"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="6"/>
+      <c r="A932" s="10"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="5"/>
+      <c r="A933" s="9"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="5"/>
+      <c r="A934" s="9"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="5"/>
+      <c r="A935" s="9"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="5"/>
+      <c r="A936" s="9"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="5"/>
+      <c r="A937" s="9"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="5"/>
+      <c r="A938" s="9"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="5"/>
+      <c r="A939" s="9"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="5"/>
+      <c r="A940" s="9"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="7" t="s">
+      <c r="A941" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="7"/>
+      <c r="A942" s="8"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="7"/>
+      <c r="A943" s="8"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="7"/>
+      <c r="A944" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A445:A448"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="A425:A428"/>
-    <mergeCell ref="A429:A432"/>
-    <mergeCell ref="A433:A436"/>
-    <mergeCell ref="A437:A440"/>
-    <mergeCell ref="A401:A404"/>
-    <mergeCell ref="A405:A408"/>
-    <mergeCell ref="A409:A412"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A389:A392"/>
-    <mergeCell ref="A393:A396"/>
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A365:A368"/>
-    <mergeCell ref="A369:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A360"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A929:A932"/>
+    <mergeCell ref="A933:A936"/>
+    <mergeCell ref="A937:A940"/>
+    <mergeCell ref="A941:A944"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="A471:A472"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="A477:A478"/>
+    <mergeCell ref="A479:A480"/>
+    <mergeCell ref="A893:A896"/>
+    <mergeCell ref="A897:A900"/>
+    <mergeCell ref="A901:A904"/>
+    <mergeCell ref="A905:A908"/>
+    <mergeCell ref="A909:A912"/>
+    <mergeCell ref="A913:A916"/>
+    <mergeCell ref="A917:A920"/>
+    <mergeCell ref="A921:A924"/>
+    <mergeCell ref="A925:A928"/>
+    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A645:A647"/>
+    <mergeCell ref="A648:A650"/>
+    <mergeCell ref="A651:A653"/>
+    <mergeCell ref="A654:A656"/>
+    <mergeCell ref="A657:A659"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="A125:A128"/>
@@ -4335,153 +4420,83 @@
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A481:A484"/>
-    <mergeCell ref="A485:A488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="A493:A496"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A497:A500"/>
-    <mergeCell ref="A501:A504"/>
-    <mergeCell ref="A505:A508"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="A517:A520"/>
-    <mergeCell ref="A521:A524"/>
-    <mergeCell ref="A525:A528"/>
-    <mergeCell ref="A529:A532"/>
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="A541:A544"/>
-    <mergeCell ref="A545:A548"/>
-    <mergeCell ref="A549:A552"/>
-    <mergeCell ref="A553:A556"/>
-    <mergeCell ref="A557:A560"/>
-    <mergeCell ref="A561:A564"/>
-    <mergeCell ref="A565:A568"/>
-    <mergeCell ref="A569:A572"/>
-    <mergeCell ref="A573:A576"/>
-    <mergeCell ref="A577:A580"/>
-    <mergeCell ref="A581:A584"/>
-    <mergeCell ref="A585:A588"/>
-    <mergeCell ref="A589:A592"/>
-    <mergeCell ref="A593:A596"/>
-    <mergeCell ref="A597:A600"/>
-    <mergeCell ref="A601:A604"/>
-    <mergeCell ref="A605:A608"/>
-    <mergeCell ref="A609:A612"/>
-    <mergeCell ref="A613:A616"/>
-    <mergeCell ref="A617:A620"/>
-    <mergeCell ref="A621:A624"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A629:A632"/>
-    <mergeCell ref="A633:A636"/>
-    <mergeCell ref="A637:A640"/>
-    <mergeCell ref="A641:A644"/>
-    <mergeCell ref="A661:A664"/>
-    <mergeCell ref="A665:A668"/>
-    <mergeCell ref="A669:A672"/>
-    <mergeCell ref="A673:A676"/>
-    <mergeCell ref="A645:A647"/>
-    <mergeCell ref="A648:A650"/>
-    <mergeCell ref="A651:A653"/>
-    <mergeCell ref="A654:A656"/>
-    <mergeCell ref="A657:A659"/>
-    <mergeCell ref="A677:A680"/>
-    <mergeCell ref="A681:A684"/>
-    <mergeCell ref="A685:A688"/>
-    <mergeCell ref="A689:A692"/>
-    <mergeCell ref="A693:A696"/>
-    <mergeCell ref="A697:A700"/>
-    <mergeCell ref="A701:A704"/>
-    <mergeCell ref="A705:A708"/>
-    <mergeCell ref="A709:A712"/>
-    <mergeCell ref="A713:A716"/>
-    <mergeCell ref="A717:A720"/>
-    <mergeCell ref="A721:A724"/>
-    <mergeCell ref="A725:A728"/>
-    <mergeCell ref="A729:A732"/>
-    <mergeCell ref="A733:A736"/>
-    <mergeCell ref="A737:A740"/>
-    <mergeCell ref="A741:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A761:A764"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A772"/>
-    <mergeCell ref="A773:A776"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="A805:A808"/>
-    <mergeCell ref="A809:A812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="A817:A820"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A885:A888"/>
-    <mergeCell ref="A889:A892"/>
-    <mergeCell ref="A821:A824"/>
-    <mergeCell ref="A825:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A929:A932"/>
-    <mergeCell ref="A933:A936"/>
-    <mergeCell ref="A937:A940"/>
-    <mergeCell ref="A941:A944"/>
-    <mergeCell ref="A459:A460"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="A477:A478"/>
-    <mergeCell ref="A479:A480"/>
-    <mergeCell ref="A893:A896"/>
-    <mergeCell ref="A897:A900"/>
-    <mergeCell ref="A901:A904"/>
-    <mergeCell ref="A905:A908"/>
-    <mergeCell ref="A909:A912"/>
-    <mergeCell ref="A913:A916"/>
-    <mergeCell ref="A917:A920"/>
-    <mergeCell ref="A921:A924"/>
-    <mergeCell ref="A925:A928"/>
-    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIO/CAJASSERIEB.xlsx
+++ b/INVENTARIO/CAJASSERIEB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\INVENTARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1478A00C-90BC-410A-8F89-B7EAA165FF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8080DE-2B35-42C0-B7C7-DCC540C7E8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="15375" windowHeight="10920" xr2:uid="{08E7B94D-5861-4BA1-930B-CDA5180451E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -693,18 +693,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,7 +700,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +716,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B2B2C-23EE-404B-8C90-D41A6895AE49}">
   <dimension ref="A1:B944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A714" workbookViewId="0">
-      <selection activeCell="A725" sqref="A725:A728"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,578 +1049,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="7"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="5"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="5"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="5"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="5"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="5"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="5"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="7"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="5"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="5"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="5"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="5"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="5"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="5"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="5"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="5"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="5"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="5"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="5"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="5"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="5"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="5"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
+      <c r="A155" s="5"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="5"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="5"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="5"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="5"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="5"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -1689,2566 +1689,2790 @@
       <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
+      <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+      <c r="A183" s="13"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
+      <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
+      <c r="A186" s="5"/>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="5"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="6"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="6"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="6"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="5"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
+      <c r="A195" s="5"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="5"/>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="5"/>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="5"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="13"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
+      <c r="A203" s="13"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+      <c r="A204" s="13"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="5"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
+      <c r="A207" s="5"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
+      <c r="A208" s="5"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="6"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
+      <c r="A211" s="6"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
+      <c r="A212" s="6"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
+      <c r="A214" s="5"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
+      <c r="A215" s="5"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
+      <c r="A217" s="5"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
+      <c r="A218" s="5"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
+      <c r="A219" s="5"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
+      <c r="A220" s="5"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
+      <c r="A226" s="5"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
+      <c r="A227" s="5"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+      <c r="A228" s="5"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
+      <c r="A230" s="6"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="6"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="6"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="9"/>
+      <c r="A234" s="5"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
+      <c r="A235" s="5"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+      <c r="A236" s="5"/>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
+      <c r="A238" s="9"/>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
+      <c r="A240" s="9"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="8"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
+      <c r="A246" s="5"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
+      <c r="A247" s="5"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+      <c r="A248" s="5"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="6"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="6"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
+      <c r="A252" s="6"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="A254" s="5"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
+      <c r="A255" s="5"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
+      <c r="A256" s="5"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+      <c r="A258" s="5"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
+      <c r="A259" s="5"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+      <c r="A260" s="5"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+      <c r="A266" s="5"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
+      <c r="A267" s="5"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
+      <c r="A268" s="5"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
+      <c r="A269" s="5"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
+      <c r="A270" s="6"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="6"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="6"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
+      <c r="A273" s="5"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
+      <c r="A274" s="5"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
+      <c r="A275" s="5"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
+      <c r="A276" s="5"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+      <c r="A277" s="5"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
+      <c r="A278" s="5"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
+      <c r="A279" s="5"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
+      <c r="A280" s="5"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
+      <c r="A286" s="5"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
+      <c r="A287" s="5"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
+      <c r="A288" s="5"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
+      <c r="A290" s="6"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
+      <c r="A291" s="6"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
+      <c r="A292" s="6"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
+      <c r="A294" s="5"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
+      <c r="A295" s="5"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
+      <c r="A296" s="5"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
+      <c r="A297" s="5"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
+      <c r="A298" s="5"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
+      <c r="A299" s="5"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
+      <c r="A300" s="5"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="s">
+      <c r="A301" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="8"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
+      <c r="A306" s="5"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
+      <c r="A307" s="5"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
+      <c r="A308" s="5"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
+      <c r="A310" s="6"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10"/>
+      <c r="A311" s="6"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10"/>
+      <c r="A312" s="6"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
+      <c r="A314" s="5"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
+      <c r="A315" s="5"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
+      <c r="A316" s="5"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
+      <c r="A317" s="5"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="9"/>
+      <c r="A318" s="5"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
+      <c r="A319" s="5"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
+      <c r="A320" s="5"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="8" t="s">
+      <c r="A321" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="8"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="8"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="8"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
+      <c r="A326" s="5"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
+      <c r="A327" s="5"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="9"/>
+      <c r="A328" s="5"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="10"/>
+      <c r="A330" s="6"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
+      <c r="A331" s="6"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10"/>
+      <c r="A332" s="6"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
+      <c r="A334" s="5"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
+      <c r="A335" s="5"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="9"/>
+      <c r="A336" s="5"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="9">
+      <c r="A337" s="5">
         <v>8375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="9"/>
+      <c r="A338" s="5"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="9"/>
+      <c r="A339" s="5"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="9"/>
+      <c r="A340" s="5"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8" t="s">
+      <c r="A341" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="8"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="8"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="9"/>
+      <c r="A346" s="5"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="9"/>
+      <c r="A347" s="5"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="9"/>
+      <c r="A348" s="5"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="10"/>
+      <c r="A350" s="6"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="10"/>
+      <c r="A351" s="6"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="10"/>
+      <c r="A352" s="6"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="9"/>
+      <c r="A354" s="5"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="9"/>
+      <c r="A355" s="5"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="9"/>
+      <c r="A356" s="5"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="9"/>
+      <c r="A358" s="5"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="9"/>
+      <c r="A359" s="5"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="9"/>
+      <c r="A360" s="5"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8" t="s">
+      <c r="A361" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="8"/>
+      <c r="A362" s="7"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="8"/>
+      <c r="A363" s="7"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="9"/>
+      <c r="A366" s="5"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="9"/>
+      <c r="A367" s="5"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="9"/>
+      <c r="A368" s="5"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10"/>
+      <c r="A370" s="6"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10"/>
+      <c r="A371" s="6"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10"/>
+      <c r="A372" s="6"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="9"/>
+      <c r="A373" s="5"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="9"/>
+      <c r="A374" s="5"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="9"/>
+      <c r="A375" s="5"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="9"/>
+      <c r="A376" s="5"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="9"/>
+      <c r="A377" s="5"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="9"/>
+      <c r="A378" s="5"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="9"/>
+      <c r="A379" s="5"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="9"/>
+      <c r="A380" s="5"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="8"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="8"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="8"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="9"/>
+      <c r="A386" s="5"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="9"/>
+      <c r="A387" s="5"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="9"/>
+      <c r="A388" s="5"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="10"/>
+      <c r="A390" s="6"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="10"/>
+      <c r="A391" s="6"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="10"/>
+      <c r="A392" s="6"/>
     </row>
     <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="9">
+      <c r="A393" s="5">
         <v>2109</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="9"/>
+      <c r="A394" s="5"/>
     </row>
     <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="9"/>
+      <c r="A395" s="5"/>
     </row>
     <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="9"/>
+      <c r="A396" s="5"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="9"/>
+      <c r="A398" s="5"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="9"/>
+      <c r="A399" s="5"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="9"/>
+      <c r="A400" s="5"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="8"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="8"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="9"/>
+      <c r="A406" s="5"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="9"/>
+      <c r="A407" s="5"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="9"/>
+      <c r="A408" s="5"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="10"/>
+      <c r="A410" s="6"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="10"/>
+      <c r="A411" s="6"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="10"/>
+      <c r="A412" s="6"/>
     </row>
     <row r="413" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+      <c r="A413" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="5"/>
+      <c r="A414" s="14"/>
     </row>
     <row r="415" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="5">
+      <c r="A415" s="14">
         <v>889</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="6"/>
+      <c r="A416" s="9"/>
     </row>
     <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="7" t="s">
+      <c r="A417" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="6"/>
+      <c r="A418" s="9"/>
     </row>
     <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+      <c r="A419" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
+      <c r="A420" s="9"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="8"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="8"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="8"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="9" t="s">
+      <c r="A425" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="9"/>
+      <c r="A426" s="5"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="9"/>
+      <c r="A427" s="5"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="9"/>
+      <c r="A428" s="5"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="10"/>
+      <c r="A430" s="6"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="10"/>
+      <c r="A431" s="6"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="10"/>
+      <c r="A432" s="6"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="9"/>
+      <c r="A433" s="5"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="9"/>
+      <c r="A434" s="5"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="9"/>
+      <c r="A435" s="5"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="9"/>
+      <c r="A436" s="5"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="9"/>
+      <c r="A437" s="5"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="9"/>
+      <c r="A438" s="5"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="9"/>
+      <c r="A439" s="5"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="9"/>
+      <c r="A440" s="5"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="8" t="s">
+      <c r="A441" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="8"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="8"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="8"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="9" t="s">
+      <c r="A445" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="9"/>
+      <c r="A446" s="5"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="9"/>
+      <c r="A447" s="5"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="9"/>
+      <c r="A448" s="5"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="10"/>
+      <c r="A450" s="6"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="10"/>
+      <c r="A451" s="6"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="10"/>
+      <c r="A452" s="6"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="9" t="s">
+      <c r="A453" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="9"/>
+      <c r="A454" s="5"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="9"/>
+      <c r="A455" s="5"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="9"/>
+      <c r="A456" s="5"/>
     </row>
     <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+      <c r="A457" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="6"/>
+      <c r="A458" s="9"/>
     </row>
     <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="7" t="s">
+      <c r="A459" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="6"/>
+      <c r="A460" s="9"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="8" t="s">
+      <c r="A461" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="8"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="8"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7" t="s">
+      <c r="A465" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="6"/>
+      <c r="A466" s="9"/>
     </row>
     <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="7" t="s">
+      <c r="A467" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="6"/>
+      <c r="A468" s="9"/>
     </row>
     <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="7" t="s">
+      <c r="A469" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
+      <c r="A470" s="9"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="7" t="s">
+      <c r="A471" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="6"/>
+      <c r="A472" s="9"/>
     </row>
     <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="7" t="s">
+      <c r="A473" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="6"/>
+      <c r="A474" s="9"/>
     </row>
     <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="7" t="s">
+      <c r="A475" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="6"/>
+      <c r="A476" s="9"/>
     </row>
     <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="7"/>
+      <c r="A477" s="8"/>
     </row>
     <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="6"/>
+      <c r="A478" s="9"/>
     </row>
     <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="7"/>
+      <c r="A479" s="8"/>
     </row>
     <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="6"/>
+      <c r="A480" s="9"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="8" t="s">
+      <c r="A481" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="8"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="8"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="8"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="9"/>
+      <c r="A486" s="5"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="9"/>
+      <c r="A487" s="5"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="9"/>
+      <c r="A488" s="5"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="10"/>
+      <c r="A490" s="6"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="10"/>
+      <c r="A491" s="6"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="10"/>
+      <c r="A492" s="6"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="9" t="s">
+      <c r="A493" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="9"/>
+      <c r="A494" s="5"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="9"/>
+      <c r="A495" s="5"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="9"/>
+      <c r="A496" s="5"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="9" t="s">
+      <c r="A497" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="9"/>
+      <c r="A498" s="5"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="9"/>
+      <c r="A499" s="5"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="9"/>
+      <c r="A500" s="5"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="8" t="s">
+      <c r="A501" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="8"/>
+      <c r="A502" s="7"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="8"/>
+      <c r="A503" s="7"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="8"/>
+      <c r="A504" s="7"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="9" t="s">
+      <c r="A505" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="9"/>
+      <c r="A506" s="5"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="9"/>
+      <c r="A507" s="5"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="9"/>
+      <c r="A508" s="5"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="9" t="s">
+      <c r="A509" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="10"/>
+      <c r="A510" s="6"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="10"/>
+      <c r="A511" s="6"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="10"/>
+      <c r="A512" s="6"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="9"/>
+      <c r="A514" s="5"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="9"/>
+      <c r="A515" s="5"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="9"/>
+      <c r="A516" s="5"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="9"/>
+      <c r="A517" s="5"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="9"/>
+      <c r="A518" s="5"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="9"/>
+      <c r="A519" s="5"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="9"/>
+      <c r="A520" s="5"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="8" t="s">
+      <c r="A521" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="8"/>
+      <c r="A522" s="7"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="8"/>
+      <c r="A523" s="7"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="8"/>
+      <c r="A524" s="7"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="9"/>
+      <c r="A526" s="5"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="9"/>
+      <c r="A527" s="5"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="9"/>
+      <c r="A528" s="5"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="9" t="s">
+      <c r="A529" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="10"/>
+      <c r="A530" s="6"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="10"/>
+      <c r="A531" s="6"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="10"/>
+      <c r="A532" s="6"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="9" t="s">
+      <c r="A533" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="9"/>
+      <c r="A534" s="5"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="9"/>
+      <c r="A535" s="5"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="9"/>
+      <c r="A536" s="5"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="9"/>
+      <c r="A537" s="5"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="9"/>
+      <c r="A538" s="5"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="9"/>
+      <c r="A539" s="5"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="9"/>
+      <c r="A540" s="5"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="8" t="s">
+      <c r="A541" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="8"/>
+      <c r="A542" s="7"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="8"/>
+      <c r="A543" s="7"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="8"/>
+      <c r="A544" s="7"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="9" t="s">
+      <c r="A545" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="9"/>
+      <c r="A546" s="5"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="9"/>
+      <c r="A547" s="5"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="9"/>
+      <c r="A548" s="5"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="9" t="s">
+      <c r="A549" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="10"/>
+      <c r="A550" s="6"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="10"/>
+      <c r="A551" s="6"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="10"/>
+      <c r="A552" s="6"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="9" t="s">
+      <c r="A553" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="9"/>
+      <c r="A554" s="5"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="9"/>
+      <c r="A555" s="5"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="9"/>
+      <c r="A556" s="5"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="9" t="s">
+      <c r="A557" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="9"/>
+      <c r="A558" s="5"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="9"/>
+      <c r="A559" s="5"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="9"/>
+      <c r="A560" s="5"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="8" t="s">
+      <c r="A561" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="8"/>
+      <c r="A562" s="7"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="8"/>
+      <c r="A563" s="7"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="8"/>
+      <c r="A564" s="7"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="9" t="s">
+      <c r="A565" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="9"/>
+      <c r="A566" s="5"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="9"/>
+      <c r="A567" s="5"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="9"/>
+      <c r="A568" s="5"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="9" t="s">
+      <c r="A569" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="10"/>
+      <c r="A570" s="6"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="10"/>
+      <c r="A571" s="6"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="10"/>
+      <c r="A572" s="6"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="9"/>
+      <c r="A573" s="5"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="9"/>
+      <c r="A574" s="5"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="9"/>
+      <c r="A575" s="5"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="9"/>
+      <c r="A576" s="5"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="9"/>
+      <c r="A577" s="5"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="9"/>
+      <c r="A578" s="5"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="9"/>
+      <c r="A579" s="5"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="9"/>
+      <c r="A580" s="5"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="8" t="s">
+      <c r="A581" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="8"/>
+      <c r="A582" s="7"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="8"/>
+      <c r="A583" s="7"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="8"/>
+      <c r="A584" s="7"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="9"/>
+      <c r="A586" s="5"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="9"/>
+      <c r="A587" s="5"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="9"/>
+      <c r="A588" s="5"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="9" t="s">
+      <c r="A589" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="10"/>
+      <c r="A590" s="6"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="10"/>
+      <c r="A591" s="6"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="10"/>
+      <c r="A592" s="6"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="9" t="s">
+      <c r="A593" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="9"/>
+      <c r="A594" s="5"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="9"/>
+      <c r="A595" s="5"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="9"/>
+      <c r="A596" s="5"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="9" t="s">
+      <c r="A597" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="9"/>
+      <c r="A598" s="5"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="9"/>
+      <c r="A599" s="5"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="9"/>
+      <c r="A600" s="5"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="8" t="s">
+      <c r="A601" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="8"/>
+      <c r="A602" s="7"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="8"/>
+      <c r="A603" s="7"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="8"/>
+      <c r="A604" s="7"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="9" t="s">
+      <c r="A605" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="9"/>
+      <c r="A606" s="5"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="9"/>
+      <c r="A607" s="5"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="9"/>
+      <c r="A608" s="5"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="9" t="s">
+      <c r="A609" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="10"/>
+      <c r="A610" s="6"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="10"/>
+      <c r="A611" s="6"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="10"/>
+      <c r="A612" s="6"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="9"/>
+      <c r="A613" s="5"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="9"/>
+      <c r="A614" s="5"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="9"/>
+      <c r="A615" s="5"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="9"/>
+      <c r="A616" s="5"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="9"/>
+      <c r="A617" s="5"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="9"/>
+      <c r="A618" s="5"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="9"/>
+      <c r="A619" s="5"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="9"/>
+      <c r="A620" s="5"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="8" t="s">
+      <c r="A621" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="8"/>
+      <c r="A622" s="7"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="8"/>
+      <c r="A623" s="7"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="8"/>
+      <c r="A624" s="7"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="9"/>
+      <c r="A626" s="5"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="9"/>
+      <c r="A627" s="5"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="9"/>
+      <c r="A628" s="5"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="9" t="s">
+      <c r="A629" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="10"/>
+      <c r="A630" s="6"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="10"/>
+      <c r="A631" s="6"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="10"/>
+      <c r="A632" s="6"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="9" t="s">
+      <c r="A633" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="9"/>
+      <c r="A634" s="5"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="9"/>
+      <c r="A635" s="5"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="9"/>
+      <c r="A636" s="5"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="9"/>
+      <c r="A637" s="5"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="9"/>
+      <c r="A638" s="5"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="9"/>
+      <c r="A639" s="5"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="9"/>
+      <c r="A640" s="5"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="8" t="s">
+      <c r="A641" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="8"/>
+      <c r="A642" s="7"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="8"/>
+      <c r="A643" s="7"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="8"/>
+      <c r="A644" s="7"/>
     </row>
     <row r="645" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="12" t="s">
+      <c r="A645" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="13"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="14"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="12" t="s">
+      <c r="A648" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="13"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="14"/>
+      <c r="A650" s="12"/>
     </row>
     <row r="651" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="12" t="s">
+      <c r="A651" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="13"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="14"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="12" t="s">
+      <c r="A654" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="13"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="14"/>
+      <c r="A656" s="12"/>
     </row>
     <row r="657" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="12" t="s">
+      <c r="A657" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="13"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="14"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="4"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="8" t="s">
+      <c r="A661" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="8"/>
+      <c r="A662" s="7"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="8"/>
+      <c r="A663" s="7"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="8"/>
+      <c r="A664" s="7"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="9" t="s">
+      <c r="A665" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="9"/>
+      <c r="A666" s="5"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="9"/>
+      <c r="A667" s="5"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="9"/>
+      <c r="A668" s="5"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="9" t="s">
+      <c r="A669" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="10"/>
+      <c r="A670" s="6"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="10"/>
+      <c r="A671" s="6"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="10"/>
+      <c r="A672" s="6"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="9"/>
+      <c r="A673" s="5"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="9"/>
+      <c r="A674" s="5"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="9"/>
+      <c r="A675" s="5"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="9"/>
+      <c r="A676" s="5"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="9"/>
+      <c r="A677" s="5"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="9"/>
+      <c r="A678" s="5"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="9"/>
+      <c r="A679" s="5"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="9"/>
+      <c r="A680" s="5"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="8" t="s">
+      <c r="A681" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="8"/>
+      <c r="A682" s="7"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="8"/>
+      <c r="A683" s="7"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="8"/>
+      <c r="A684" s="7"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="9" t="s">
+      <c r="A685" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="9"/>
+      <c r="A686" s="5"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="9"/>
+      <c r="A687" s="5"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="9"/>
+      <c r="A688" s="5"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="9"/>
+      <c r="A689" s="5"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="10"/>
+      <c r="A690" s="6"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="10"/>
+      <c r="A691" s="6"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="10"/>
+      <c r="A692" s="6"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="9"/>
+      <c r="A693" s="5"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="9"/>
+      <c r="A694" s="5"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="9"/>
+      <c r="A695" s="5"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="9"/>
+      <c r="A696" s="5"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="9"/>
+      <c r="A697" s="5"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="9"/>
+      <c r="A698" s="5"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="9"/>
+      <c r="A699" s="5"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="9"/>
+      <c r="A700" s="5"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="8" t="s">
+      <c r="A701" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="8"/>
+      <c r="A702" s="7"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="8"/>
+      <c r="A703" s="7"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="8"/>
+      <c r="A704" s="7"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="9" t="s">
+      <c r="A705" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="9"/>
+      <c r="A706" s="5"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="9"/>
+      <c r="A707" s="5"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="9"/>
+      <c r="A708" s="5"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="9" t="s">
+      <c r="A709" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="10"/>
+      <c r="A710" s="6"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="10"/>
+      <c r="A711" s="6"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="10"/>
+      <c r="A712" s="6"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="9" t="s">
+      <c r="A713" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="9"/>
+      <c r="A714" s="5"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="9"/>
+      <c r="A715" s="5"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="9"/>
+      <c r="A716" s="5"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="9"/>
+      <c r="A717" s="5"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="9"/>
+      <c r="A718" s="5"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="9"/>
+      <c r="A719" s="5"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="9"/>
+      <c r="A720" s="5"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="8" t="s">
+      <c r="A721" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="8"/>
+      <c r="A722" s="7"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="8"/>
+      <c r="A723" s="7"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="8"/>
+      <c r="A724" s="7"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="9"/>
+      <c r="A725" s="5"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="9"/>
+      <c r="A726" s="5"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="9"/>
+      <c r="A727" s="5"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="9"/>
+      <c r="A728" s="5"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="9"/>
+      <c r="A729" s="5"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="10"/>
+      <c r="A730" s="6"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="10"/>
+      <c r="A731" s="6"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="10"/>
+      <c r="A732" s="6"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="9"/>
+      <c r="A733" s="5"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="9"/>
+      <c r="A734" s="5"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="9"/>
+      <c r="A735" s="5"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="9"/>
+      <c r="A736" s="5"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="9"/>
+      <c r="A737" s="5"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="9"/>
+      <c r="A738" s="5"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="9"/>
+      <c r="A739" s="5"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="9"/>
+      <c r="A740" s="5"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="8" t="s">
+      <c r="A741" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="8"/>
+      <c r="A742" s="7"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="8"/>
+      <c r="A743" s="7"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="8"/>
+      <c r="A744" s="7"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="9"/>
+      <c r="A745" s="5"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="9"/>
+      <c r="A746" s="5"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="9"/>
+      <c r="A747" s="5"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="9"/>
+      <c r="A748" s="5"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="9"/>
+      <c r="A749" s="5"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="10"/>
+      <c r="A750" s="6"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="10"/>
+      <c r="A751" s="6"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="10"/>
+      <c r="A752" s="6"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="9"/>
+      <c r="A753" s="5"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="9"/>
+      <c r="A754" s="5"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="9"/>
+      <c r="A755" s="5"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="9"/>
+      <c r="A756" s="5"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="9"/>
+      <c r="A757" s="5"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="9"/>
+      <c r="A758" s="5"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="9"/>
+      <c r="A759" s="5"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="9"/>
+      <c r="A760" s="5"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="8" t="s">
+      <c r="A761" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="8"/>
+      <c r="A762" s="7"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="8"/>
+      <c r="A763" s="7"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="8"/>
+      <c r="A764" s="7"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="9"/>
+      <c r="A765" s="5"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="9"/>
+      <c r="A766" s="5"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="9"/>
+      <c r="A767" s="5"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="9"/>
+      <c r="A768" s="5"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="9"/>
+      <c r="A769" s="5"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="10"/>
+      <c r="A770" s="6"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="10"/>
+      <c r="A771" s="6"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="10"/>
+      <c r="A772" s="6"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="9"/>
+      <c r="A773" s="5"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="9"/>
+      <c r="A774" s="5"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="9"/>
+      <c r="A775" s="5"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="9"/>
+      <c r="A776" s="5"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="9"/>
+      <c r="A777" s="5"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="9"/>
+      <c r="A778" s="5"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="9"/>
+      <c r="A779" s="5"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="9"/>
+      <c r="A780" s="5"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="8" t="s">
+      <c r="A781" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="8"/>
+      <c r="A782" s="7"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="8"/>
+      <c r="A783" s="7"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="8"/>
+      <c r="A784" s="7"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="9"/>
+      <c r="A785" s="5"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="9"/>
+      <c r="A786" s="5"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="9"/>
+      <c r="A787" s="5"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="9"/>
+      <c r="A788" s="5"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="9"/>
+      <c r="A789" s="5"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="10"/>
+      <c r="A790" s="6"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="10"/>
+      <c r="A791" s="6"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="10"/>
+      <c r="A792" s="6"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="9"/>
+      <c r="A793" s="5"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="9"/>
+      <c r="A794" s="5"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="9"/>
+      <c r="A795" s="5"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="9"/>
+      <c r="A796" s="5"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="9"/>
+      <c r="A797" s="5"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="9"/>
+      <c r="A798" s="5"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="9"/>
+      <c r="A799" s="5"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="9"/>
+      <c r="A800" s="5"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="8" t="s">
+      <c r="A801" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="8"/>
+      <c r="A802" s="7"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="8"/>
+      <c r="A803" s="7"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="8"/>
+      <c r="A804" s="7"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="9"/>
+      <c r="A805" s="5"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="9"/>
+      <c r="A806" s="5"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="9"/>
+      <c r="A807" s="5"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="9"/>
+      <c r="A808" s="5"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="9"/>
+      <c r="A809" s="5"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="10"/>
+      <c r="A810" s="6"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="10"/>
+      <c r="A811" s="6"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="10"/>
+      <c r="A812" s="6"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="9"/>
+      <c r="A813" s="5"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="9"/>
+      <c r="A814" s="5"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="9"/>
+      <c r="A815" s="5"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="9"/>
+      <c r="A816" s="5"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="9"/>
+      <c r="A817" s="5"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="9"/>
+      <c r="A818" s="5"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="9"/>
+      <c r="A819" s="5"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="9"/>
+      <c r="A820" s="5"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="8" t="s">
+      <c r="A821" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="8"/>
+      <c r="A822" s="7"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="8"/>
+      <c r="A823" s="7"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="8"/>
+      <c r="A824" s="7"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="9"/>
+      <c r="A825" s="5"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="9"/>
+      <c r="A826" s="5"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="9"/>
+      <c r="A827" s="5"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="9"/>
+      <c r="A828" s="5"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="9"/>
+      <c r="A829" s="5"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="10"/>
+      <c r="A830" s="6"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="10"/>
+      <c r="A831" s="6"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="10"/>
+      <c r="A832" s="6"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="9"/>
+      <c r="A833" s="5"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="9"/>
+      <c r="A834" s="5"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="9"/>
+      <c r="A835" s="5"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="9"/>
+      <c r="A836" s="5"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="9"/>
+      <c r="A837" s="5"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="9"/>
+      <c r="A838" s="5"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="9"/>
+      <c r="A839" s="5"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="9"/>
+      <c r="A840" s="5"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="8" t="s">
+      <c r="A841" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="8"/>
+      <c r="A842" s="7"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="8"/>
+      <c r="A843" s="7"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="8"/>
+      <c r="A844" s="7"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="9"/>
+      <c r="A845" s="5"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="9"/>
+      <c r="A846" s="5"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="9"/>
+      <c r="A847" s="5"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="9"/>
+      <c r="A848" s="5"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="9"/>
+      <c r="A849" s="5"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="10"/>
+      <c r="A850" s="6"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="10"/>
+      <c r="A851" s="6"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="10"/>
+      <c r="A852" s="6"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="9"/>
+      <c r="A853" s="5"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="9"/>
+      <c r="A854" s="5"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="9"/>
+      <c r="A855" s="5"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="9"/>
+      <c r="A856" s="5"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="9"/>
+      <c r="A857" s="5"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="9"/>
+      <c r="A858" s="5"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="9"/>
+      <c r="A859" s="5"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="9"/>
+      <c r="A860" s="5"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="8" t="s">
+      <c r="A861" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="8"/>
+      <c r="A862" s="7"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="8"/>
+      <c r="A863" s="7"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="8"/>
+      <c r="A864" s="7"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="9"/>
+      <c r="A865" s="5"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="9"/>
+      <c r="A866" s="5"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="9"/>
+      <c r="A867" s="5"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="9"/>
+      <c r="A868" s="5"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="9"/>
+      <c r="A869" s="5"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="10"/>
+      <c r="A870" s="6"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="10"/>
+      <c r="A871" s="6"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="10"/>
+      <c r="A872" s="6"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="9"/>
+      <c r="A873" s="5"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="9"/>
+      <c r="A874" s="5"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="9"/>
+      <c r="A875" s="5"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="9"/>
+      <c r="A876" s="5"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="9"/>
+      <c r="A877" s="5"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="9"/>
+      <c r="A878" s="5"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="9"/>
+      <c r="A879" s="5"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="9"/>
+      <c r="A880" s="5"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="8" t="s">
+      <c r="A881" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="8"/>
+      <c r="A882" s="7"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="8"/>
+      <c r="A883" s="7"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="8"/>
+      <c r="A884" s="7"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="9"/>
+      <c r="A885" s="5"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="9"/>
+      <c r="A886" s="5"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="9"/>
+      <c r="A887" s="5"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="9"/>
+      <c r="A888" s="5"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="9"/>
+      <c r="A889" s="5"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="10"/>
+      <c r="A890" s="6"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="10"/>
+      <c r="A891" s="6"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="10"/>
+      <c r="A892" s="6"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="9"/>
+      <c r="A893" s="5"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="9"/>
+      <c r="A894" s="5"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="9"/>
+      <c r="A895" s="5"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="9"/>
+      <c r="A896" s="5"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="9"/>
+      <c r="A897" s="5"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="9"/>
+      <c r="A898" s="5"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="9"/>
+      <c r="A899" s="5"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="9"/>
+      <c r="A900" s="5"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="8" t="s">
+      <c r="A901" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="8"/>
+      <c r="A902" s="7"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="8"/>
+      <c r="A903" s="7"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="8"/>
+      <c r="A904" s="7"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="9"/>
+      <c r="A905" s="5"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="9"/>
+      <c r="A906" s="5"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="9"/>
+      <c r="A907" s="5"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="9"/>
+      <c r="A908" s="5"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="9"/>
+      <c r="A909" s="5"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="10"/>
+      <c r="A910" s="6"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="10"/>
+      <c r="A911" s="6"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="10"/>
+      <c r="A912" s="6"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="9"/>
+      <c r="A913" s="5"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="9"/>
+      <c r="A914" s="5"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="9"/>
+      <c r="A915" s="5"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="9"/>
+      <c r="A916" s="5"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="9"/>
+      <c r="A917" s="5"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="9"/>
+      <c r="A918" s="5"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="9"/>
+      <c r="A919" s="5"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="9"/>
+      <c r="A920" s="5"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="8" t="s">
+      <c r="A921" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="8"/>
+      <c r="A922" s="7"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="8"/>
+      <c r="A923" s="7"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="8"/>
+      <c r="A924" s="7"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="9"/>
+      <c r="A925" s="5"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="9"/>
+      <c r="A926" s="5"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="9"/>
+      <c r="A927" s="5"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="9"/>
+      <c r="A928" s="5"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="9"/>
+      <c r="A929" s="5"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="10"/>
+      <c r="A930" s="6"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="10"/>
+      <c r="A931" s="6"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="10"/>
+      <c r="A932" s="6"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="9"/>
+      <c r="A933" s="5"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="9"/>
+      <c r="A934" s="5"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="9"/>
+      <c r="A935" s="5"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="9"/>
+      <c r="A936" s="5"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="9"/>
+      <c r="A937" s="5"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="9"/>
+      <c r="A938" s="5"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="9"/>
+      <c r="A939" s="5"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="9"/>
+      <c r="A940" s="5"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="8" t="s">
+      <c r="A941" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="8"/>
+      <c r="A942" s="7"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="8"/>
+      <c r="A943" s="7"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="8"/>
+      <c r="A944" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A419:A420"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A445:A448"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A453:A456"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A428"/>
+    <mergeCell ref="A429:A432"/>
+    <mergeCell ref="A433:A436"/>
+    <mergeCell ref="A437:A440"/>
+    <mergeCell ref="A401:A404"/>
+    <mergeCell ref="A405:A408"/>
+    <mergeCell ref="A409:A412"/>
+    <mergeCell ref="A381:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A365:A368"/>
+    <mergeCell ref="A369:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A360"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A481:A484"/>
+    <mergeCell ref="A485:A488"/>
+    <mergeCell ref="A489:A492"/>
+    <mergeCell ref="A493:A496"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A497:A500"/>
+    <mergeCell ref="A501:A504"/>
+    <mergeCell ref="A505:A508"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="A513:A516"/>
+    <mergeCell ref="A517:A520"/>
+    <mergeCell ref="A521:A524"/>
+    <mergeCell ref="A525:A528"/>
+    <mergeCell ref="A529:A532"/>
+    <mergeCell ref="A533:A536"/>
+    <mergeCell ref="A537:A540"/>
+    <mergeCell ref="A541:A544"/>
+    <mergeCell ref="A545:A548"/>
+    <mergeCell ref="A549:A552"/>
+    <mergeCell ref="A553:A556"/>
+    <mergeCell ref="A557:A560"/>
+    <mergeCell ref="A561:A564"/>
+    <mergeCell ref="A565:A568"/>
+    <mergeCell ref="A569:A572"/>
+    <mergeCell ref="A573:A576"/>
+    <mergeCell ref="A577:A580"/>
+    <mergeCell ref="A581:A584"/>
+    <mergeCell ref="A585:A588"/>
+    <mergeCell ref="A589:A592"/>
+    <mergeCell ref="A593:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A604"/>
+    <mergeCell ref="A605:A608"/>
+    <mergeCell ref="A609:A612"/>
+    <mergeCell ref="A613:A616"/>
+    <mergeCell ref="A617:A620"/>
+    <mergeCell ref="A621:A624"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A629:A632"/>
+    <mergeCell ref="A633:A636"/>
+    <mergeCell ref="A637:A640"/>
+    <mergeCell ref="A641:A644"/>
+    <mergeCell ref="A661:A664"/>
+    <mergeCell ref="A665:A668"/>
+    <mergeCell ref="A669:A672"/>
+    <mergeCell ref="A673:A676"/>
+    <mergeCell ref="A645:A647"/>
+    <mergeCell ref="A648:A650"/>
+    <mergeCell ref="A651:A653"/>
+    <mergeCell ref="A654:A656"/>
+    <mergeCell ref="A657:A659"/>
+    <mergeCell ref="A677:A680"/>
+    <mergeCell ref="A681:A684"/>
+    <mergeCell ref="A685:A688"/>
+    <mergeCell ref="A689:A692"/>
+    <mergeCell ref="A693:A696"/>
+    <mergeCell ref="A697:A700"/>
+    <mergeCell ref="A701:A704"/>
+    <mergeCell ref="A705:A708"/>
+    <mergeCell ref="A709:A712"/>
+    <mergeCell ref="A713:A716"/>
+    <mergeCell ref="A717:A720"/>
+    <mergeCell ref="A721:A724"/>
+    <mergeCell ref="A725:A728"/>
+    <mergeCell ref="A729:A732"/>
+    <mergeCell ref="A733:A736"/>
+    <mergeCell ref="A737:A740"/>
+    <mergeCell ref="A741:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A761:A764"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A772"/>
+    <mergeCell ref="A773:A776"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="A805:A808"/>
+    <mergeCell ref="A809:A812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="A817:A820"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A885:A888"/>
+    <mergeCell ref="A889:A892"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="A825:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
     <mergeCell ref="A929:A932"/>
     <mergeCell ref="A933:A936"/>
     <mergeCell ref="A937:A940"/>
@@ -4273,230 +4497,6 @@
     <mergeCell ref="A921:A924"/>
     <mergeCell ref="A925:A928"/>
     <mergeCell ref="A857:A860"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A885:A888"/>
-    <mergeCell ref="A889:A892"/>
-    <mergeCell ref="A821:A824"/>
-    <mergeCell ref="A825:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="A805:A808"/>
-    <mergeCell ref="A809:A812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="A817:A820"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A761:A764"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A772"/>
-    <mergeCell ref="A773:A776"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A713:A716"/>
-    <mergeCell ref="A717:A720"/>
-    <mergeCell ref="A721:A724"/>
-    <mergeCell ref="A725:A728"/>
-    <mergeCell ref="A729:A732"/>
-    <mergeCell ref="A733:A736"/>
-    <mergeCell ref="A737:A740"/>
-    <mergeCell ref="A741:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A677:A680"/>
-    <mergeCell ref="A681:A684"/>
-    <mergeCell ref="A685:A688"/>
-    <mergeCell ref="A689:A692"/>
-    <mergeCell ref="A693:A696"/>
-    <mergeCell ref="A697:A700"/>
-    <mergeCell ref="A701:A704"/>
-    <mergeCell ref="A705:A708"/>
-    <mergeCell ref="A709:A712"/>
-    <mergeCell ref="A641:A644"/>
-    <mergeCell ref="A661:A664"/>
-    <mergeCell ref="A665:A668"/>
-    <mergeCell ref="A669:A672"/>
-    <mergeCell ref="A673:A676"/>
-    <mergeCell ref="A645:A647"/>
-    <mergeCell ref="A648:A650"/>
-    <mergeCell ref="A651:A653"/>
-    <mergeCell ref="A654:A656"/>
-    <mergeCell ref="A657:A659"/>
-    <mergeCell ref="A605:A608"/>
-    <mergeCell ref="A609:A612"/>
-    <mergeCell ref="A613:A616"/>
-    <mergeCell ref="A617:A620"/>
-    <mergeCell ref="A621:A624"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A629:A632"/>
-    <mergeCell ref="A633:A636"/>
-    <mergeCell ref="A637:A640"/>
-    <mergeCell ref="A569:A572"/>
-    <mergeCell ref="A573:A576"/>
-    <mergeCell ref="A577:A580"/>
-    <mergeCell ref="A581:A584"/>
-    <mergeCell ref="A585:A588"/>
-    <mergeCell ref="A589:A592"/>
-    <mergeCell ref="A593:A596"/>
-    <mergeCell ref="A597:A600"/>
-    <mergeCell ref="A601:A604"/>
-    <mergeCell ref="A533:A536"/>
-    <mergeCell ref="A537:A540"/>
-    <mergeCell ref="A541:A544"/>
-    <mergeCell ref="A545:A548"/>
-    <mergeCell ref="A549:A552"/>
-    <mergeCell ref="A553:A556"/>
-    <mergeCell ref="A557:A560"/>
-    <mergeCell ref="A561:A564"/>
-    <mergeCell ref="A565:A568"/>
-    <mergeCell ref="A497:A500"/>
-    <mergeCell ref="A501:A504"/>
-    <mergeCell ref="A505:A508"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="A517:A520"/>
-    <mergeCell ref="A521:A524"/>
-    <mergeCell ref="A525:A528"/>
-    <mergeCell ref="A529:A532"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A481:A484"/>
-    <mergeCell ref="A485:A488"/>
-    <mergeCell ref="A489:A492"/>
-    <mergeCell ref="A493:A496"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A360"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A401:A404"/>
-    <mergeCell ref="A405:A408"/>
-    <mergeCell ref="A409:A412"/>
-    <mergeCell ref="A381:A384"/>
-    <mergeCell ref="A385:A388"/>
-    <mergeCell ref="A389:A392"/>
-    <mergeCell ref="A393:A396"/>
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A365:A368"/>
-    <mergeCell ref="A369:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A445:A448"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A453:A456"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="A425:A428"/>
-    <mergeCell ref="A429:A432"/>
-    <mergeCell ref="A433:A436"/>
-    <mergeCell ref="A437:A440"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
